--- a/public/archivos/HorariosCompletos.xlsx
+++ b/public/archivos/HorariosCompletos.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22724"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\10° Semestre\Integrador-Horarios\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0ABB02F-DDDA-4153-8703-EB8B8E266BCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3955" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4049" uniqueCount="389">
   <si>
     <t>materia</t>
   </si>
@@ -486,7 +492,7 @@
     <t>D-01</t>
   </si>
   <si>
-    <t>PROBLEMÁTICA AMBIENTAL</t>
+    <t>PROBLEMATICA AMBIENTAL</t>
   </si>
   <si>
     <t>MORENO HUERTA GUILLERMO</t>
@@ -687,7 +693,7 @@
     <t>40 - 08</t>
   </si>
   <si>
-    <t>TEMAS SELECTOS DE MATEMÁTICAS</t>
+    <t>TEMAS SELECTOS DE MATEMATICAS</t>
   </si>
   <si>
     <t>MARTINEZ MATA ANA LETICIA</t>
@@ -708,7 +714,7 @@
     <t>43 - 08</t>
   </si>
   <si>
-    <t>MATEMÁTICAS DISCRETAS I</t>
+    <t>MATEMATICAS DISCRETAS I</t>
   </si>
   <si>
     <t>REYES CASTILLO RITO</t>
@@ -723,7 +729,7 @@
     <t>46 - 08</t>
   </si>
   <si>
-    <t>PENSAMIENTO ALGORÍTMICO</t>
+    <t>PENSAMIENTO ALGORITMICO</t>
   </si>
   <si>
     <t>DE LA CRUZ LOPEZ MIGUEL ANGEL</t>
@@ -807,7 +813,7 @@
     <t>58 - 08</t>
   </si>
   <si>
-    <t>INTRODUCCIÓN A LA TOPOGRAFÍA Y CONSTRUCCIÓN</t>
+    <t>INTRODUCCION A LA TOPOGRAFIA Y CONSTRUCCION</t>
   </si>
   <si>
     <t>20 - 17</t>
@@ -849,7 +855,7 @@
     <t>62 - 08</t>
   </si>
   <si>
-    <t>TECNOLOGÍAS PARA EL MANEJO DE DATOS ESPACIALES</t>
+    <t>TECNOLOGIAS PARA EL MANEJO DE DATOS ESPACIALES</t>
   </si>
   <si>
     <t>ESTRADA VELAZQUEZ FRANCISCO EVERARDO</t>
@@ -993,7 +999,7 @@
     <t>77 - 08</t>
   </si>
   <si>
-    <t>HABILIDADES SOCIO AFECTIVAS Y ÉTICAS</t>
+    <t>HABILIDADES SOCIO AFECTIVAS Y ETICAS</t>
   </si>
   <si>
     <t>CARBAJAL GUTIERREZ ROSA IRELIA</t>
@@ -1011,7 +1017,7 @@
     <t>79 - 08</t>
   </si>
   <si>
-    <t>DIBUJO EN INGENIERÍA MECÁNICA</t>
+    <t>DIBUJO EN INGENIERIA MECANICA</t>
   </si>
   <si>
     <t>41 - 17</t>
@@ -1186,16 +1192,13 @@
   </si>
   <si>
     <t>99 - 08</t>
-  </si>
-  <si>
-    <t>asd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1228,27 +1231,9 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1284,7 +1269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1310,27 +1295,10 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1547,23 +1515,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="B351" sqref="B351:L351"/>
+    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="A313" sqref="A313"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="5.8984375" customWidth="1"/>
+    <col min="1" max="1" width="54.5" customWidth="1"/>
+    <col min="2" max="2" width="5.875" customWidth="1"/>
     <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="4.3984375" customWidth="1"/>
-    <col min="5" max="12" width="9.3984375" customWidth="1"/>
-    <col min="13" max="13" width="7.09765625" customWidth="1"/>
-    <col min="14" max="14" width="14.09765625" customWidth="1"/>
-    <col min="15" max="26" width="9.3984375" customWidth="1"/>
+    <col min="4" max="4" width="4.375" customWidth="1"/>
+    <col min="5" max="12" width="9.375" customWidth="1"/>
+    <col min="13" max="13" width="7.125" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="15" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" customHeight="1">
@@ -1612,7 +1580,7 @@
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2">
@@ -1657,7 +1625,7 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2">
@@ -1702,7 +1670,7 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2">
@@ -1747,7 +1715,7 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2">
@@ -1792,7 +1760,7 @@
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2">
@@ -1837,7 +1805,7 @@
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2">
@@ -1882,7 +1850,7 @@
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2">
@@ -1927,7 +1895,7 @@
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2">
@@ -1972,7 +1940,7 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2">
@@ -2017,7 +1985,7 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="2">
@@ -2062,7 +2030,7 @@
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2">
@@ -2107,7 +2075,7 @@
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2">
@@ -2152,7 +2120,7 @@
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2">
@@ -2197,7 +2165,7 @@
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="2">
@@ -2242,7 +2210,7 @@
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2">
@@ -2287,7 +2255,7 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="2">
@@ -2332,7 +2300,7 @@
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="2">
@@ -2377,7 +2345,7 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="2">
@@ -2422,7 +2390,7 @@
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="2">
@@ -2467,7 +2435,7 @@
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="2">
@@ -2512,7 +2480,7 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="2">
@@ -2557,7 +2525,7 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="2">
@@ -2602,7 +2570,7 @@
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="2">
@@ -2647,7 +2615,7 @@
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="2">
@@ -2692,7 +2660,7 @@
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="2">
@@ -2737,7 +2705,7 @@
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="2">
@@ -2782,7 +2750,7 @@
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2">
@@ -2827,7 +2795,7 @@
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="2">
@@ -2872,7 +2840,7 @@
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B30" s="2">
@@ -2917,7 +2885,7 @@
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="2">
@@ -2962,7 +2930,7 @@
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="2">
@@ -3007,7 +2975,7 @@
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="2">
@@ -3052,7 +3020,7 @@
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="2">
@@ -3097,7 +3065,7 @@
       <c r="O34" s="2"/>
     </row>
     <row r="35" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="2">
@@ -3142,7 +3110,7 @@
       <c r="O35" s="2"/>
     </row>
     <row r="36" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="2">
@@ -3187,7 +3155,7 @@
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B37" s="2">
@@ -3232,7 +3200,7 @@
       <c r="O37" s="2"/>
     </row>
     <row r="38" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B38" s="2">
@@ -3277,7 +3245,7 @@
       <c r="O38" s="2"/>
     </row>
     <row r="39" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B39" s="2">
@@ -3322,7 +3290,7 @@
       <c r="O39" s="2"/>
     </row>
     <row r="40" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B40" s="2">
@@ -3367,7 +3335,7 @@
       <c r="O40" s="2"/>
     </row>
     <row r="41" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B41" s="2">
@@ -3412,7 +3380,7 @@
       <c r="O41" s="2"/>
     </row>
     <row r="42" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B42" s="2">
@@ -3457,7 +3425,7 @@
       <c r="O42" s="2"/>
     </row>
     <row r="43" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B43" s="2">
@@ -3502,7 +3470,7 @@
       <c r="O43" s="2"/>
     </row>
     <row r="44" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B44" s="2">
@@ -3547,7 +3515,7 @@
       <c r="O44" s="2"/>
     </row>
     <row r="45" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="2">
@@ -3592,7 +3560,7 @@
       <c r="O45" s="2"/>
     </row>
     <row r="46" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B46" s="2">
@@ -3637,7 +3605,7 @@
       <c r="O46" s="2"/>
     </row>
     <row r="47" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B47" s="2">
@@ -3682,7 +3650,7 @@
       <c r="O47" s="2"/>
     </row>
     <row r="48" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B48" s="2">
@@ -3727,7 +3695,7 @@
       <c r="O48" s="2"/>
     </row>
     <row r="49" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B49" s="2">
@@ -3772,7 +3740,7 @@
       <c r="O49" s="2"/>
     </row>
     <row r="50" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B50" s="2">
@@ -3817,7 +3785,7 @@
       <c r="O50" s="2"/>
     </row>
     <row r="51" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B51" s="2">
@@ -3862,7 +3830,7 @@
       <c r="O51" s="2"/>
     </row>
     <row r="52" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B52" s="2">
@@ -3907,7 +3875,7 @@
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B53" s="2">
@@ -3952,7 +3920,7 @@
       <c r="O53" s="2"/>
     </row>
     <row r="54" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B54" s="2">
@@ -3997,7 +3965,7 @@
       <c r="O54" s="2"/>
     </row>
     <row r="55" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B55" s="2">
@@ -4042,7 +4010,7 @@
       <c r="O55" s="2"/>
     </row>
     <row r="56" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B56" s="2">
@@ -4087,7 +4055,7 @@
       <c r="O56" s="2"/>
     </row>
     <row r="57" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B57" s="2">
@@ -4132,7 +4100,7 @@
       <c r="O57" s="2"/>
     </row>
     <row r="58" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B58" s="2">
@@ -4177,7 +4145,7 @@
       <c r="O58" s="2"/>
     </row>
     <row r="59" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B59" s="2">
@@ -4222,7 +4190,7 @@
       <c r="O59" s="2"/>
     </row>
     <row r="60" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B60" s="2">
@@ -4267,7 +4235,7 @@
       <c r="O60" s="2"/>
     </row>
     <row r="61" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B61" s="2">
@@ -4312,7 +4280,7 @@
       <c r="O61" s="2"/>
     </row>
     <row r="62" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B62" s="2">
@@ -4357,7 +4325,7 @@
       <c r="O62" s="2"/>
     </row>
     <row r="63" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B63" s="2">
@@ -4402,7 +4370,7 @@
       <c r="O63" s="2"/>
     </row>
     <row r="64" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B64" s="2">
@@ -4447,7 +4415,7 @@
       <c r="O64" s="2"/>
     </row>
     <row r="65" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B65" s="2">
@@ -4492,7 +4460,7 @@
       <c r="O65" s="2"/>
     </row>
     <row r="66" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B66" s="2">
@@ -4537,7 +4505,7 @@
       <c r="O66" s="2"/>
     </row>
     <row r="67" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B67" s="2">
@@ -4582,7 +4550,7 @@
       <c r="O67" s="2"/>
     </row>
     <row r="68" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="2">
@@ -4627,7 +4595,7 @@
       <c r="O68" s="2"/>
     </row>
     <row r="69" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B69" s="2">
@@ -4672,7 +4640,7 @@
       <c r="O69" s="2"/>
     </row>
     <row r="70" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="2">
@@ -4717,7 +4685,7 @@
       <c r="O70" s="2"/>
     </row>
     <row r="71" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B71" s="2">
@@ -4762,7 +4730,7 @@
       <c r="O71" s="2"/>
     </row>
     <row r="72" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B72" s="2">
@@ -4807,7 +4775,7 @@
       <c r="O72" s="2"/>
     </row>
     <row r="73" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B73" s="2">
@@ -4852,7 +4820,7 @@
       <c r="O73" s="2"/>
     </row>
     <row r="74" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B74" s="2">
@@ -4897,7 +4865,7 @@
       <c r="O74" s="2"/>
     </row>
     <row r="75" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B75" s="2">
@@ -4942,7 +4910,7 @@
       <c r="O75" s="2"/>
     </row>
     <row r="76" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B76" s="2">
@@ -4987,7 +4955,7 @@
       <c r="O76" s="2"/>
     </row>
     <row r="77" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B77" s="2">
@@ -5032,7 +5000,7 @@
       <c r="O77" s="2"/>
     </row>
     <row r="78" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B78" s="2">
@@ -5077,7 +5045,7 @@
       <c r="O78" s="2"/>
     </row>
     <row r="79" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B79" s="2">
@@ -5122,7 +5090,7 @@
       <c r="O79" s="2"/>
     </row>
     <row r="80" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B80" s="2">
@@ -5167,7 +5135,7 @@
       <c r="O80" s="2"/>
     </row>
     <row r="81" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B81" s="2">
@@ -5212,7 +5180,7 @@
       <c r="O81" s="2"/>
     </row>
     <row r="82" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B82" s="2">
@@ -5257,7 +5225,7 @@
       <c r="O82" s="2"/>
     </row>
     <row r="83" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B83" s="2">
@@ -5302,7 +5270,7 @@
       <c r="O83" s="2"/>
     </row>
     <row r="84" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B84" s="2">
@@ -5347,7 +5315,7 @@
       <c r="O84" s="2"/>
     </row>
     <row r="85" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B85" s="2">
@@ -5392,7 +5360,7 @@
       <c r="O85" s="2"/>
     </row>
     <row r="86" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B86" s="2">
@@ -5437,7 +5405,7 @@
       <c r="O86" s="2"/>
     </row>
     <row r="87" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B87" s="2">
@@ -5482,7 +5450,7 @@
       <c r="O87" s="2"/>
     </row>
     <row r="88" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B88" s="2">
@@ -5527,7 +5495,7 @@
       <c r="O88" s="2"/>
     </row>
     <row r="89" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B89" s="2">
@@ -5572,7 +5540,7 @@
       <c r="O89" s="2"/>
     </row>
     <row r="90" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B90" s="2">
@@ -5617,7 +5585,7 @@
       <c r="O90" s="2"/>
     </row>
     <row r="91" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B91" s="2">
@@ -5662,7 +5630,7 @@
       <c r="O91" s="2"/>
     </row>
     <row r="92" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B92" s="2">
@@ -5707,7 +5675,7 @@
       <c r="O92" s="2"/>
     </row>
     <row r="93" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B93" s="2">
@@ -5752,7 +5720,7 @@
       <c r="O93" s="2"/>
     </row>
     <row r="94" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B94" s="2">
@@ -5797,7 +5765,7 @@
       <c r="O94" s="2"/>
     </row>
     <row r="95" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B95" s="2">
@@ -5842,7 +5810,7 @@
       <c r="O95" s="2"/>
     </row>
     <row r="96" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B96" s="2">
@@ -5887,7 +5855,7 @@
       <c r="O96" s="2"/>
     </row>
     <row r="97" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B97" s="2">
@@ -5932,7 +5900,7 @@
       <c r="O97" s="2"/>
     </row>
     <row r="98" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B98" s="2">
@@ -5977,7 +5945,7 @@
       <c r="O98" s="2"/>
     </row>
     <row r="99" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B99" s="2">
@@ -6022,7 +5990,7 @@
       <c r="O99" s="2"/>
     </row>
     <row r="100" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B100" s="2">
@@ -6067,7 +6035,7 @@
       <c r="O100" s="2"/>
     </row>
     <row r="101" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B101" s="2">
@@ -6112,7 +6080,7 @@
       <c r="O101" s="2"/>
     </row>
     <row r="102" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B102" s="2">
@@ -6157,7 +6125,7 @@
       <c r="O102" s="2"/>
     </row>
     <row r="103" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B103" s="2">
@@ -6202,7 +6170,7 @@
       <c r="O103" s="2"/>
     </row>
     <row r="104" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B104" s="2">
@@ -6247,7 +6215,7 @@
       <c r="O104" s="2"/>
     </row>
     <row r="105" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B105" s="2">
@@ -6292,7 +6260,7 @@
       <c r="O105" s="2"/>
     </row>
     <row r="106" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B106" s="2">
@@ -6337,7 +6305,7 @@
       <c r="O106" s="2"/>
     </row>
     <row r="107" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B107" s="2">
@@ -6382,7 +6350,7 @@
       <c r="O107" s="2"/>
     </row>
     <row r="108" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B108" s="2">
@@ -6427,7 +6395,7 @@
       <c r="O108" s="2"/>
     </row>
     <row r="109" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B109" s="2">
@@ -6472,7 +6440,7 @@
       <c r="O109" s="2"/>
     </row>
     <row r="110" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B110" s="2">
@@ -6517,7 +6485,7 @@
       <c r="O110" s="2"/>
     </row>
     <row r="111" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B111" s="2">
@@ -6562,7 +6530,7 @@
       <c r="O111" s="2"/>
     </row>
     <row r="112" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B112" s="2">
@@ -6607,7 +6575,7 @@
       <c r="O112" s="2"/>
     </row>
     <row r="113" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B113" s="2">
@@ -6652,7 +6620,7 @@
       <c r="O113" s="2"/>
     </row>
     <row r="114" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B114" s="2">
@@ -6697,7 +6665,7 @@
       <c r="O114" s="2"/>
     </row>
     <row r="115" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B115" s="2">
@@ -6742,7 +6710,7 @@
       <c r="O115" s="2"/>
     </row>
     <row r="116" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B116" s="2">
@@ -6787,7 +6755,7 @@
       <c r="O116" s="2"/>
     </row>
     <row r="117" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B117" s="2">
@@ -6832,7 +6800,7 @@
       <c r="O117" s="2"/>
     </row>
     <row r="118" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B118" s="2">
@@ -6877,7 +6845,7 @@
       <c r="O118" s="2"/>
     </row>
     <row r="119" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B119" s="2">
@@ -6922,7 +6890,7 @@
       <c r="O119" s="2"/>
     </row>
     <row r="120" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B120" s="2">
@@ -6967,7 +6935,7 @@
       <c r="O120" s="2"/>
     </row>
     <row r="121" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B121" s="2">
@@ -7012,7 +6980,7 @@
       <c r="O121" s="2"/>
     </row>
     <row r="122" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B122" s="2">
@@ -7057,7 +7025,7 @@
       <c r="O122" s="2"/>
     </row>
     <row r="123" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B123" s="2">
@@ -7102,7 +7070,7 @@
       <c r="O123" s="2"/>
     </row>
     <row r="124" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B124" s="2">
@@ -7147,7 +7115,7 @@
       <c r="O124" s="2"/>
     </row>
     <row r="125" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B125" s="2">
@@ -7192,7 +7160,7 @@
       <c r="O125" s="2"/>
     </row>
     <row r="126" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B126" s="2">
@@ -7237,7 +7205,7 @@
       <c r="O126" s="2"/>
     </row>
     <row r="127" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B127" s="2">
@@ -7282,7 +7250,7 @@
       <c r="O127" s="2"/>
     </row>
     <row r="128" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B128" s="2">
@@ -7327,7 +7295,7 @@
       <c r="O128" s="2"/>
     </row>
     <row r="129" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B129" s="2">
@@ -7372,7 +7340,7 @@
       <c r="O129" s="2"/>
     </row>
     <row r="130" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B130" s="2">
@@ -7417,7 +7385,7 @@
       <c r="O130" s="2"/>
     </row>
     <row r="131" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B131" s="2">
@@ -7462,7 +7430,7 @@
       <c r="O131" s="2"/>
     </row>
     <row r="132" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B132" s="2">
@@ -7507,7 +7475,7 @@
       <c r="O132" s="2"/>
     </row>
     <row r="133" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B133" s="2">
@@ -7552,7 +7520,7 @@
       <c r="O133" s="2"/>
     </row>
     <row r="134" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B134" s="2">
@@ -7597,7 +7565,7 @@
       <c r="O134" s="2"/>
     </row>
     <row r="135" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B135" s="2">
@@ -7642,7 +7610,7 @@
       <c r="O135" s="2"/>
     </row>
     <row r="136" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B136" s="2">
@@ -7687,7 +7655,7 @@
       <c r="O136" s="2"/>
     </row>
     <row r="137" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B137" s="2">
@@ -7732,7 +7700,7 @@
       <c r="O137" s="2"/>
     </row>
     <row r="138" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B138" s="2">
@@ -7777,7 +7745,7 @@
       <c r="O138" s="2"/>
     </row>
     <row r="139" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B139" s="2">
@@ -7822,7 +7790,7 @@
       <c r="O139" s="2"/>
     </row>
     <row r="140" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B140" s="2">
@@ -7867,7 +7835,7 @@
       <c r="O140" s="2"/>
     </row>
     <row r="141" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B141" s="2">
@@ -7912,7 +7880,7 @@
       <c r="O141" s="2"/>
     </row>
     <row r="142" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B142" s="2">
@@ -7957,7 +7925,7 @@
       <c r="O142" s="2"/>
     </row>
     <row r="143" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B143" s="2">
@@ -8002,7 +7970,7 @@
       <c r="O143" s="2"/>
     </row>
     <row r="144" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B144" s="2">
@@ -8047,7 +8015,7 @@
       <c r="O144" s="2"/>
     </row>
     <row r="145" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B145" s="2">
@@ -8092,7 +8060,7 @@
       <c r="O145" s="2"/>
     </row>
     <row r="146" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B146" s="2">
@@ -8137,7 +8105,7 @@
       <c r="O146" s="2"/>
     </row>
     <row r="147" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B147" s="2">
@@ -8182,7 +8150,7 @@
       <c r="O147" s="2"/>
     </row>
     <row r="148" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B148" s="2">
@@ -8227,7 +8195,7 @@
       <c r="O148" s="2"/>
     </row>
     <row r="149" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B149" s="2">
@@ -8272,7 +8240,7 @@
       <c r="O149" s="2"/>
     </row>
     <row r="150" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B150" s="2">
@@ -8317,7 +8285,7 @@
       <c r="O150" s="2"/>
     </row>
     <row r="151" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B151" s="2">
@@ -8362,7 +8330,7 @@
       <c r="O151" s="2"/>
     </row>
     <row r="152" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B152" s="2">
@@ -8407,7 +8375,7 @@
       <c r="O152" s="2"/>
     </row>
     <row r="153" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B153" s="2">
@@ -8452,7 +8420,7 @@
       <c r="O153" s="2"/>
     </row>
     <row r="154" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B154" s="2">
@@ -8497,7 +8465,7 @@
       <c r="O154" s="2"/>
     </row>
     <row r="155" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B155" s="2">
@@ -8542,7 +8510,7 @@
       <c r="O155" s="2"/>
     </row>
     <row r="156" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B156" s="2">
@@ -8587,7 +8555,7 @@
       <c r="O156" s="2"/>
     </row>
     <row r="157" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B157" s="2">
@@ -8632,7 +8600,7 @@
       <c r="O157" s="2"/>
     </row>
     <row r="158" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B158" s="2">
@@ -8677,7 +8645,7 @@
       <c r="O158" s="2"/>
     </row>
     <row r="159" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B159" s="2">
@@ -8722,7 +8690,7 @@
       <c r="O159" s="2"/>
     </row>
     <row r="160" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B160" s="2">
@@ -8767,7 +8735,7 @@
       <c r="O160" s="2"/>
     </row>
     <row r="161" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B161" s="2">
@@ -8812,7 +8780,7 @@
       <c r="O161" s="2"/>
     </row>
     <row r="162" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B162" s="2">
@@ -8857,7 +8825,7 @@
       <c r="O162" s="2"/>
     </row>
     <row r="163" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B163" s="2">
@@ -8902,7 +8870,7 @@
       <c r="O163" s="2"/>
     </row>
     <row r="164" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B164" s="2">
@@ -8947,7 +8915,7 @@
       <c r="O164" s="2"/>
     </row>
     <row r="165" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A165" s="2" t="s">
+      <c r="A165" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B165" s="2">
@@ -8992,7 +8960,7 @@
       <c r="O165" s="2"/>
     </row>
     <row r="166" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B166" s="2">
@@ -9037,7 +9005,7 @@
       <c r="O166" s="2"/>
     </row>
     <row r="167" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B167" s="2">
@@ -9082,7 +9050,7 @@
       <c r="O167" s="2"/>
     </row>
     <row r="168" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B168" s="2">
@@ -9127,7 +9095,7 @@
       <c r="O168" s="2"/>
     </row>
     <row r="169" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B169" s="2">
@@ -9172,7 +9140,7 @@
       <c r="O169" s="2"/>
     </row>
     <row r="170" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A170" s="2" t="s">
+      <c r="A170" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B170" s="2">
@@ -9217,7 +9185,7 @@
       <c r="O170" s="2"/>
     </row>
     <row r="171" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A171" s="2" t="s">
+      <c r="A171" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B171" s="2">
@@ -9262,7 +9230,7 @@
       <c r="O171" s="2"/>
     </row>
     <row r="172" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A172" s="2" t="s">
+      <c r="A172" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B172" s="2">
@@ -9307,7 +9275,7 @@
       <c r="O172" s="2"/>
     </row>
     <row r="173" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B173" s="2">
@@ -9352,7 +9320,7 @@
       <c r="O173" s="2"/>
     </row>
     <row r="174" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B174" s="2">
@@ -9397,7 +9365,7 @@
       <c r="O174" s="2"/>
     </row>
     <row r="175" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A175" s="2" t="s">
+      <c r="A175" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B175" s="2">
@@ -9442,7 +9410,7 @@
       <c r="O175" s="2"/>
     </row>
     <row r="176" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A176" s="2" t="s">
+      <c r="A176" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B176" s="2">
@@ -9487,7 +9455,7 @@
       <c r="O176" s="2"/>
     </row>
     <row r="177" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A177" s="2" t="s">
+      <c r="A177" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B177" s="2">
@@ -9532,7 +9500,7 @@
       <c r="O177" s="2"/>
     </row>
     <row r="178" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A178" s="2" t="s">
+      <c r="A178" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B178" s="2">
@@ -9577,7 +9545,7 @@
       <c r="O178" s="2"/>
     </row>
     <row r="179" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B179" s="2">
@@ -9622,7 +9590,7 @@
       <c r="O179" s="2"/>
     </row>
     <row r="180" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A180" s="2" t="s">
+      <c r="A180" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B180" s="2">
@@ -9667,7 +9635,7 @@
       <c r="O180" s="2"/>
     </row>
     <row r="181" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A181" s="2" t="s">
+      <c r="A181" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B181" s="2">
@@ -9712,7 +9680,7 @@
       <c r="O181" s="2"/>
     </row>
     <row r="182" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A182" s="2" t="s">
+      <c r="A182" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B182" s="2">
@@ -9757,7 +9725,7 @@
       <c r="O182" s="2"/>
     </row>
     <row r="183" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B183" s="2">
@@ -9802,7 +9770,7 @@
       <c r="O183" s="2"/>
     </row>
     <row r="184" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A184" s="2" t="s">
+      <c r="A184" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B184" s="2">
@@ -9847,7 +9815,7 @@
       <c r="O184" s="2"/>
     </row>
     <row r="185" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A185" s="2" t="s">
+      <c r="A185" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B185" s="2">
@@ -9892,7 +9860,7 @@
       <c r="O185" s="2"/>
     </row>
     <row r="186" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A186" s="2" t="s">
+      <c r="A186" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B186" s="2">
@@ -9937,7 +9905,7 @@
       <c r="O186" s="2"/>
     </row>
     <row r="187" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B187" s="2">
@@ -9982,7 +9950,7 @@
       <c r="O187" s="2"/>
     </row>
     <row r="188" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B188" s="2">
@@ -10027,7 +9995,7 @@
       <c r="O188" s="2"/>
     </row>
     <row r="189" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A189" s="2" t="s">
+      <c r="A189" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B189" s="2">
@@ -10072,7 +10040,7 @@
       <c r="O189" s="2"/>
     </row>
     <row r="190" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B190" s="2">
@@ -10117,7 +10085,7 @@
       <c r="O190" s="2"/>
     </row>
     <row r="191" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A191" s="2" t="s">
+      <c r="A191" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B191" s="2">
@@ -10162,7 +10130,7 @@
       <c r="O191" s="2"/>
     </row>
     <row r="192" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B192" s="2">
@@ -10207,7 +10175,7 @@
       <c r="O192" s="2"/>
     </row>
     <row r="193" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A193" s="2" t="s">
+      <c r="A193" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B193" s="2">
@@ -10252,7 +10220,7 @@
       <c r="O193" s="2"/>
     </row>
     <row r="194" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A194" s="2" t="s">
+      <c r="A194" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B194" s="2">
@@ -10297,7 +10265,7 @@
       <c r="O194" s="2"/>
     </row>
     <row r="195" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B195" s="2">
@@ -10342,7 +10310,7 @@
       <c r="O195" s="2"/>
     </row>
     <row r="196" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B196" s="2">
@@ -10387,7 +10355,7 @@
       <c r="O196" s="2"/>
     </row>
     <row r="197" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A197" s="2" t="s">
+      <c r="A197" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B197" s="2">
@@ -10432,7 +10400,7 @@
       <c r="O197" s="2"/>
     </row>
     <row r="198" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A198" s="2" t="s">
+      <c r="A198" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B198" s="2">
@@ -10477,7 +10445,7 @@
       <c r="O198" s="2"/>
     </row>
     <row r="199" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B199" s="2">
@@ -10522,7 +10490,7 @@
       <c r="O199" s="2"/>
     </row>
     <row r="200" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B200" s="2">
@@ -10567,7 +10535,7 @@
       <c r="O200" s="2"/>
     </row>
     <row r="201" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B201" s="2">
@@ -10612,7 +10580,7 @@
       <c r="O201" s="2"/>
     </row>
     <row r="202" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B202" s="2">
@@ -10657,7 +10625,7 @@
       <c r="O202" s="2"/>
     </row>
     <row r="203" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B203" s="2">
@@ -10702,7 +10670,7 @@
       <c r="O203" s="2"/>
     </row>
     <row r="204" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B204" s="2">
@@ -10747,7 +10715,7 @@
       <c r="O204" s="2"/>
     </row>
     <row r="205" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B205" s="2">
@@ -10792,7 +10760,7 @@
       <c r="O205" s="2"/>
     </row>
     <row r="206" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B206" s="2">
@@ -10837,7 +10805,7 @@
       <c r="O206" s="2"/>
     </row>
     <row r="207" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B207" s="2">
@@ -10882,7 +10850,7 @@
       <c r="O207" s="2"/>
     </row>
     <row r="208" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B208" s="2">
@@ -10927,7 +10895,7 @@
       <c r="O208" s="2"/>
     </row>
     <row r="209" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B209" s="2">
@@ -10972,7 +10940,7 @@
       <c r="O209" s="2"/>
     </row>
     <row r="210" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B210" s="2">
@@ -11017,7 +10985,7 @@
       <c r="O210" s="2"/>
     </row>
     <row r="211" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B211" s="2">
@@ -11062,7 +11030,7 @@
       <c r="O211" s="2"/>
     </row>
     <row r="212" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B212" s="2">
@@ -11107,7 +11075,7 @@
       <c r="O212" s="2"/>
     </row>
     <row r="213" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B213" s="2">
@@ -11152,7 +11120,7 @@
       <c r="O213" s="2"/>
     </row>
     <row r="214" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B214" s="2">
@@ -11197,7 +11165,7 @@
       <c r="O214" s="2"/>
     </row>
     <row r="215" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B215" s="2">
@@ -11242,7 +11210,7 @@
       <c r="O215" s="2"/>
     </row>
     <row r="216" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B216" s="2">
@@ -11287,7 +11255,7 @@
       <c r="O216" s="2"/>
     </row>
     <row r="217" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B217" s="2">
@@ -11332,7 +11300,7 @@
       <c r="O217" s="2"/>
     </row>
     <row r="218" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B218" s="2">
@@ -11377,7 +11345,7 @@
       <c r="O218" s="2"/>
     </row>
     <row r="219" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B219" s="2">
@@ -11422,7 +11390,7 @@
       <c r="O219" s="2"/>
     </row>
     <row r="220" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B220" s="2">
@@ -11467,7 +11435,7 @@
       <c r="O220" s="2"/>
     </row>
     <row r="221" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B221" s="2">
@@ -11512,7 +11480,7 @@
       <c r="O221" s="2"/>
     </row>
     <row r="222" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B222" s="2">
@@ -11557,7 +11525,7 @@
       <c r="O222" s="2"/>
     </row>
     <row r="223" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B223" s="2">
@@ -11602,7 +11570,7 @@
       <c r="O223" s="2"/>
     </row>
     <row r="224" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B224" s="2">
@@ -11647,7 +11615,7 @@
       <c r="O224" s="2"/>
     </row>
     <row r="225" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B225" s="2">
@@ -11692,7 +11660,7 @@
       <c r="O225" s="2"/>
     </row>
     <row r="226" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B226" s="2">
@@ -11737,7 +11705,7 @@
       <c r="O226" s="2"/>
     </row>
     <row r="227" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B227" s="2">
@@ -11782,7 +11750,7 @@
       <c r="O227" s="2"/>
     </row>
     <row r="228" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B228" s="2">
@@ -11827,7 +11795,7 @@
       <c r="O228" s="2"/>
     </row>
     <row r="229" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B229" s="2">
@@ -11872,7 +11840,7 @@
       <c r="O229" s="2"/>
     </row>
     <row r="230" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B230" s="2">
@@ -11917,7 +11885,7 @@
       <c r="O230" s="2"/>
     </row>
     <row r="231" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B231" s="2">
@@ -11962,7 +11930,7 @@
       <c r="O231" s="2"/>
     </row>
     <row r="232" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B232" s="2">
@@ -12007,7 +11975,7 @@
       <c r="O232" s="2"/>
     </row>
     <row r="233" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B233" s="2">
@@ -12052,7 +12020,7 @@
       <c r="O233" s="2"/>
     </row>
     <row r="234" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B234" s="2">
@@ -12097,7 +12065,7 @@
       <c r="O234" s="2"/>
     </row>
     <row r="235" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B235" s="2">
@@ -12142,7 +12110,7 @@
       <c r="O235" s="2"/>
     </row>
     <row r="236" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B236" s="4">
@@ -12185,7 +12153,7 @@
       <c r="O236" s="2"/>
     </row>
     <row r="237" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="10" t="s">
         <v>134</v>
       </c>
       <c r="B237" s="4">
@@ -12226,7 +12194,7 @@
       <c r="O237" s="2"/>
     </row>
     <row r="238" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="10" t="s">
         <v>134</v>
       </c>
       <c r="B238" s="4">
@@ -12259,7 +12227,7 @@
       <c r="O238" s="2"/>
     </row>
     <row r="239" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="10" t="s">
         <v>134</v>
       </c>
       <c r="B239" s="4">
@@ -12292,7 +12260,7 @@
       <c r="O239" s="2"/>
     </row>
     <row r="240" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B240" s="4">
@@ -12330,8 +12298,8 @@
       </c>
       <c r="O240" s="2"/>
     </row>
-    <row r="241" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A241" s="3" t="s">
+    <row r="241" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A241" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B241" s="4">
@@ -12365,8 +12333,8 @@
       </c>
       <c r="O241" s="2"/>
     </row>
-    <row r="242" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A242" s="3" t="s">
+    <row r="242" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A242" s="10" t="s">
         <v>141</v>
       </c>
       <c r="B242" s="4">
@@ -12400,8 +12368,8 @@
       </c>
       <c r="O242" s="2"/>
     </row>
-    <row r="243" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A243" s="3" t="s">
+    <row r="243" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A243" s="10" t="s">
         <v>148</v>
       </c>
       <c r="B243" s="4">
@@ -12437,8 +12405,8 @@
       <c r="N243" s="6"/>
       <c r="O243" s="2"/>
     </row>
-    <row r="244" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A244" s="3" t="s">
+    <row r="244" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A244" s="10" t="s">
         <v>151</v>
       </c>
       <c r="B244" s="4">
@@ -12480,8 +12448,8 @@
       </c>
       <c r="O244" s="2"/>
     </row>
-    <row r="245" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A245" s="3" t="s">
+    <row r="245" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A245" s="10" t="s">
         <v>155</v>
       </c>
       <c r="B245" s="4">
@@ -12521,8 +12489,8 @@
       </c>
       <c r="O245" s="2"/>
     </row>
-    <row r="246" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A246" s="3" t="s">
+    <row r="246" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A246" s="10" t="s">
         <v>155</v>
       </c>
       <c r="B246" s="4">
@@ -12556,8 +12524,8 @@
       </c>
       <c r="O246" s="2"/>
     </row>
-    <row r="247" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A247" s="3" t="s">
+    <row r="247" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A247" s="10" t="s">
         <v>155</v>
       </c>
       <c r="B247" s="4">
@@ -12575,30 +12543,33 @@
       <c r="F247" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G247" s="5" t="s">
+      <c r="G247" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="H247" s="5" t="s">
+      <c r="H247" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I247" s="5" t="s">
+      <c r="I247" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="J247" s="5" t="s">
+      <c r="J247" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K247" s="6"/>
-      <c r="L247" s="6"/>
-      <c r="M247" s="7">
+      <c r="K247" s="2"/>
+      <c r="L247" s="5"/>
+      <c r="M247" s="5">
         <v>15</v>
       </c>
-      <c r="N247" s="5" t="s">
+      <c r="N247" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="O247" s="2"/>
-    </row>
-    <row r="248" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A248" s="3" t="s">
+      <c r="O247" s="5"/>
+      <c r="P247" s="6"/>
+      <c r="Q247" s="6"/>
+      <c r="R247" s="7"/>
+    </row>
+    <row r="248" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A248" s="10" t="s">
         <v>155</v>
       </c>
       <c r="B248" s="4">
@@ -12616,3906 +12587,4198 @@
       <c r="F248" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G248" s="6"/>
-      <c r="H248" s="6"/>
-      <c r="I248" s="6"/>
-      <c r="J248" s="6"/>
-      <c r="K248" s="6"/>
+      <c r="G248" s="4"/>
+      <c r="H248" s="4"/>
+      <c r="I248" s="2"/>
+      <c r="J248" s="8"/>
+      <c r="K248" s="2"/>
       <c r="L248" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="M248" s="7">
+      <c r="M248" s="5">
         <v>15</v>
       </c>
-      <c r="N248" s="5" t="s">
+      <c r="N248" s="4" t="s">
         <v>162</v>
       </c>
       <c r="O248" s="2"/>
     </row>
-    <row r="249" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A249" s="3" t="s">
+    <row r="249" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A249" s="10" t="s">
         <v>163</v>
       </c>
       <c r="B249" s="7">
         <v>9</v>
       </c>
-      <c r="C249" s="9" t="s">
+      <c r="C249" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D249" s="10" t="s">
+      <c r="D249" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E249" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F249" s="10" t="s">
+      <c r="F249" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G249" s="11" t="s">
+      <c r="G249" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H249" s="11" t="s">
+      <c r="H249" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I249" s="11" t="s">
+      <c r="I249" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J249" s="11" t="s">
+      <c r="J249" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K249" s="12"/>
-      <c r="L249" s="12"/>
-      <c r="M249" s="6"/>
-      <c r="N249" s="2"/>
+      <c r="K249" s="2"/>
+      <c r="L249" s="5"/>
+      <c r="M249" s="5"/>
+      <c r="N249" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O249" s="2"/>
     </row>
-    <row r="250" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A250" s="3" t="s">
+    <row r="250" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A250" s="10" t="s">
         <v>163</v>
       </c>
       <c r="B250" s="7">
         <v>9</v>
       </c>
-      <c r="C250" s="9" t="s">
+      <c r="C250" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D250" s="10" t="s">
+      <c r="D250" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E250" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F250" s="10" t="s">
+      <c r="F250" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G250" s="11" t="s">
+      <c r="G250" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H250" s="11" t="s">
+      <c r="H250" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I250" s="11" t="s">
+      <c r="I250" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J250" s="11" t="s">
+      <c r="J250" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K250" s="12"/>
-      <c r="L250" s="12"/>
-      <c r="N250" s="2"/>
+      <c r="K250" s="2"/>
+      <c r="L250" s="5"/>
+      <c r="M250" s="5"/>
+      <c r="N250" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O250" s="2"/>
     </row>
-    <row r="251" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A251" s="3" t="s">
+    <row r="251" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A251" s="10" t="s">
         <v>163</v>
       </c>
       <c r="B251" s="7">
         <v>9</v>
       </c>
-      <c r="C251" s="9" t="s">
+      <c r="C251" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D251" s="10" t="s">
+      <c r="D251" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E251" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F251" s="10" t="s">
+      <c r="F251" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G251" s="11" t="s">
+      <c r="G251" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H251" s="11" t="s">
+      <c r="H251" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I251" s="11" t="s">
+      <c r="I251" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J251" s="11" t="s">
+      <c r="J251" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="K251" s="12"/>
-      <c r="L251" s="12"/>
-      <c r="N251" s="2"/>
+      <c r="K251" s="2"/>
+      <c r="L251" s="5"/>
+      <c r="M251" s="5"/>
+      <c r="N251" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O251" s="2"/>
     </row>
-    <row r="252" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A252" s="3" t="s">
+    <row r="252" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A252" s="10" t="s">
         <v>163</v>
       </c>
       <c r="B252" s="7">
         <v>9</v>
       </c>
-      <c r="C252" s="9" t="s">
+      <c r="C252" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D252" s="10" t="s">
+      <c r="D252" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E252" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F252" s="10" t="s">
+      <c r="F252" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G252" s="11" t="s">
+      <c r="G252" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H252" s="11" t="s">
+      <c r="H252" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I252" s="11" t="s">
+      <c r="I252" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J252" s="11" t="s">
+      <c r="J252" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="K252" s="12"/>
-      <c r="L252" s="12"/>
-      <c r="N252" s="2"/>
+      <c r="K252" s="2"/>
+      <c r="L252" s="5"/>
+      <c r="M252" s="5"/>
+      <c r="N252" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O252" s="2"/>
     </row>
-    <row r="253" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A253" s="3" t="s">
+    <row r="253" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A253" s="10" t="s">
         <v>163</v>
       </c>
       <c r="B253" s="7">
         <v>9</v>
       </c>
-      <c r="C253" s="9" t="s">
+      <c r="C253" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D253" s="10" t="s">
+      <c r="D253" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E253" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F253" s="10" t="s">
+      <c r="F253" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G253" s="12"/>
-      <c r="H253" s="11" t="s">
+      <c r="G253" s="4"/>
+      <c r="H253" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I253" s="11" t="s">
+      <c r="I253" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J253" s="11" t="s">
+      <c r="J253" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="K253" s="11" t="s">
+      <c r="K253" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="L253" s="12"/>
-      <c r="N253" s="2"/>
+      <c r="L253" s="5"/>
+      <c r="M253" s="5"/>
+      <c r="N253" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O253" s="2"/>
     </row>
-    <row r="254" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A254" s="3" t="s">
+    <row r="254" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A254" s="10" t="s">
         <v>163</v>
       </c>
       <c r="B254" s="7">
         <v>9</v>
       </c>
-      <c r="C254" s="9" t="s">
+      <c r="C254" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D254" s="10" t="s">
+      <c r="D254" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E254" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F254" s="10" t="s">
+      <c r="F254" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G254" s="12"/>
-      <c r="H254" s="11" t="s">
+      <c r="G254" s="4"/>
+      <c r="H254" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I254" s="11" t="s">
+      <c r="I254" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J254" s="11" t="s">
+      <c r="J254" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="K254" s="11" t="s">
+      <c r="K254" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L254" s="12"/>
-      <c r="N254" s="2"/>
+      <c r="L254" s="5"/>
+      <c r="M254" s="5"/>
+      <c r="N254" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O254" s="2"/>
     </row>
-    <row r="255" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A255" s="3" t="s">
+    <row r="255" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A255" s="10" t="s">
         <v>163</v>
       </c>
       <c r="B255" s="4">
         <v>9</v>
       </c>
-      <c r="C255" s="13" t="s">
+      <c r="C255" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D255" s="14" t="s">
+      <c r="D255" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E255" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F255" s="10" t="s">
+      <c r="F255" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G255" s="15"/>
-      <c r="H255" s="16" t="s">
+      <c r="G255" s="4"/>
+      <c r="H255" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I255" s="16" t="s">
+      <c r="I255" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="J255" s="16" t="s">
+      <c r="J255" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K255" s="16" t="s">
+      <c r="K255" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="L255" s="15"/>
+      <c r="L255" s="5"/>
+      <c r="M255" s="5"/>
+      <c r="N255" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O255" s="2"/>
     </row>
-    <row r="256" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A256" s="3" t="s">
+    <row r="256" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A256" s="10" t="s">
         <v>163</v>
       </c>
       <c r="B256" s="4">
         <v>9</v>
       </c>
-      <c r="C256" s="13" t="s">
+      <c r="C256" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D256" s="14" t="s">
+      <c r="D256" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E256" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F256" s="10" t="s">
+      <c r="F256" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G256" s="16" t="s">
+      <c r="G256" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H256" s="16" t="s">
+      <c r="H256" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I256" s="16" t="s">
+      <c r="I256" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J256" s="16" t="s">
+      <c r="J256" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K256" s="15"/>
-      <c r="L256" s="15"/>
+      <c r="K256" s="2"/>
+      <c r="L256" s="5"/>
+      <c r="M256" s="5"/>
+      <c r="N256" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O256" s="2"/>
     </row>
     <row r="257" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A257" s="3" t="s">
+      <c r="A257" s="10" t="s">
         <v>163</v>
       </c>
       <c r="B257" s="4">
         <v>9</v>
       </c>
-      <c r="C257" s="13" t="s">
+      <c r="C257" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D257" s="14" t="s">
+      <c r="D257" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E257" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F257" s="10" t="s">
+      <c r="F257" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G257" s="16" t="s">
+      <c r="G257" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H257" s="16" t="s">
+      <c r="H257" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I257" s="16" t="s">
+      <c r="I257" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J257" s="16" t="s">
+      <c r="J257" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K257" s="15"/>
-      <c r="L257" s="15"/>
+      <c r="K257" s="2"/>
+      <c r="L257" s="5"/>
+      <c r="M257" s="5"/>
+      <c r="N257" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O257" s="2"/>
     </row>
     <row r="258" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A258" s="3" t="s">
+      <c r="A258" s="10" t="s">
         <v>163</v>
       </c>
       <c r="B258" s="4">
         <v>9</v>
       </c>
-      <c r="C258" s="13" t="s">
+      <c r="C258" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D258" s="14" t="s">
+      <c r="D258" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E258" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F258" s="10" t="s">
+      <c r="F258" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G258" s="16" t="s">
+      <c r="G258" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H258" s="16" t="s">
+      <c r="H258" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I258" s="16" t="s">
+      <c r="I258" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J258" s="16" t="s">
+      <c r="J258" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="K258" s="15"/>
-      <c r="L258" s="15"/>
+      <c r="K258" s="2"/>
+      <c r="L258" s="5"/>
+      <c r="M258" s="5"/>
+      <c r="N258" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O258" s="2"/>
     </row>
     <row r="259" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A259" s="3" t="s">
+      <c r="A259" s="10" t="s">
         <v>163</v>
       </c>
       <c r="B259" s="4">
         <v>9</v>
       </c>
-      <c r="C259" s="13" t="s">
+      <c r="C259" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D259" s="14" t="s">
+      <c r="D259" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E259" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F259" s="10" t="s">
+      <c r="F259" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G259" s="11" t="s">
+      <c r="G259" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H259" s="16" t="s">
+      <c r="H259" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I259" s="16" t="s">
+      <c r="I259" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J259" s="16" t="s">
+      <c r="J259" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="K259" s="16" t="s">
+      <c r="K259" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L259" s="15"/>
+      <c r="L259" s="5"/>
+      <c r="M259" s="5"/>
+      <c r="N259" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O259" s="2"/>
     </row>
     <row r="260" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A260" s="3" t="s">
+      <c r="A260" s="10" t="s">
         <v>163</v>
       </c>
       <c r="B260" s="4">
         <v>9</v>
       </c>
-      <c r="C260" s="13" t="s">
+      <c r="C260" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D260" s="14" t="s">
+      <c r="D260" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E260" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F260" s="10" t="s">
+      <c r="F260" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G260" s="11" t="s">
+      <c r="G260" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="H260" s="16" t="s">
+      <c r="H260" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I260" s="16" t="s">
+      <c r="I260" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J260" s="16" t="s">
+      <c r="J260" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="K260" s="16" t="s">
+      <c r="K260" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L260" s="15"/>
+      <c r="L260" s="5"/>
+      <c r="M260" s="5"/>
+      <c r="N260" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O260" s="2"/>
     </row>
     <row r="261" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A261" s="3" t="s">
+      <c r="A261" s="10" t="s">
         <v>163</v>
       </c>
       <c r="B261" s="4">
         <v>9</v>
       </c>
-      <c r="C261" s="13" t="s">
+      <c r="C261" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D261" s="14" t="s">
+      <c r="D261" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E261" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="F261" s="10" t="s">
+      <c r="F261" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G261" s="11" t="s">
+      <c r="G261" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="H261" s="16" t="s">
+      <c r="H261" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="I261" s="16" t="s">
+      <c r="I261" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J261" s="16" t="s">
+      <c r="J261" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="K261" s="16" t="s">
+      <c r="K261" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="L261" s="15"/>
+      <c r="L261" s="5"/>
+      <c r="M261" s="5"/>
+      <c r="N261" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O261" s="2"/>
     </row>
     <row r="262" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A262" s="3" t="s">
+      <c r="A262" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B262" s="4">
         <v>9</v>
       </c>
-      <c r="C262" s="13" t="s">
+      <c r="C262" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D262" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E262" s="16" t="s">
+      <c r="D262" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E262" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F262" s="14" t="s">
+      <c r="F262" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G262" s="16" t="s">
+      <c r="G262" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="H262" s="16" t="s">
+      <c r="H262" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I262" s="16" t="s">
+      <c r="I262" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J262" s="16" t="s">
+      <c r="J262" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="K262" s="16" t="s">
+      <c r="K262" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="L262" s="16" t="s">
+      <c r="L262" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="M262" s="15"/>
+      <c r="M262" s="5"/>
+      <c r="N262" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O262" s="2"/>
     </row>
     <row r="263" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A263" s="3" t="s">
+      <c r="A263" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B263" s="4">
         <v>9</v>
       </c>
-      <c r="C263" s="13" t="s">
+      <c r="C263" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D263" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E263" s="16" t="s">
+      <c r="D263" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E263" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F263" s="14" t="s">
+      <c r="F263" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G263" s="16" t="s">
+      <c r="G263" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="H263" s="16" t="s">
+      <c r="H263" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I263" s="16" t="s">
+      <c r="I263" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J263" s="16" t="s">
+      <c r="J263" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="K263" s="16" t="s">
+      <c r="K263" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="L263" s="16" t="s">
+      <c r="L263" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="M263" s="15"/>
+      <c r="M263" s="5"/>
+      <c r="N263" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O263" s="2"/>
     </row>
     <row r="264" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A264" s="3" t="s">
+      <c r="A264" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B264" s="4">
         <v>9</v>
       </c>
-      <c r="C264" s="13" t="s">
+      <c r="C264" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D264" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E264" s="16" t="s">
+      <c r="D264" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E264" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F264" s="14" t="s">
+      <c r="F264" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G264" s="16" t="s">
+      <c r="G264" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="H264" s="16" t="s">
+      <c r="H264" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I264" s="16" t="s">
+      <c r="I264" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J264" s="16" t="s">
+      <c r="J264" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="K264" s="16" t="s">
+      <c r="K264" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L264" s="16" t="s">
+      <c r="L264" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="M264" s="15"/>
+      <c r="M264" s="5"/>
+      <c r="N264" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O264" s="2"/>
     </row>
     <row r="265" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B265" s="4">
         <v>9</v>
       </c>
-      <c r="C265" s="13" t="s">
+      <c r="C265" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D265" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E265" s="16" t="s">
+      <c r="D265" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E265" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F265" s="14" t="s">
+      <c r="F265" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G265" s="16" t="s">
+      <c r="G265" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H265" s="16" t="s">
+      <c r="H265" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I265" s="16" t="s">
+      <c r="I265" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="J265" s="16" t="s">
+      <c r="J265" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K265" s="16" t="s">
+      <c r="K265" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="L265" s="16" t="s">
+      <c r="L265" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="M265" s="15"/>
+      <c r="M265" s="5"/>
+      <c r="N265" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O265" s="2"/>
     </row>
     <row r="266" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A266" s="3" t="s">
+      <c r="A266" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B266" s="4">
         <v>9</v>
       </c>
-      <c r="C266" s="13" t="s">
+      <c r="C266" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D266" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E266" s="16" t="s">
+      <c r="D266" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E266" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F266" s="14" t="s">
+      <c r="F266" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G266" s="16" t="s">
+      <c r="G266" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="H266" s="16" t="s">
+      <c r="H266" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="I266" s="16" t="s">
+      <c r="I266" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="J266" s="16" t="s">
+      <c r="J266" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="K266" s="16" t="s">
+      <c r="K266" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="L266" s="16" t="s">
+      <c r="L266" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="M266" s="15"/>
+      <c r="M266" s="5"/>
+      <c r="N266" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O266" s="2"/>
     </row>
     <row r="267" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A267" s="3" t="s">
+      <c r="A267" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B267" s="4">
         <v>9</v>
       </c>
-      <c r="C267" s="13" t="s">
+      <c r="C267" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D267" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E267" s="16" t="s">
+      <c r="D267" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E267" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="F267" s="14" t="s">
+      <c r="F267" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G267" s="16" t="s">
+      <c r="G267" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="H267" s="16" t="s">
+      <c r="H267" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="I267" s="16" t="s">
+      <c r="I267" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J267" s="16" t="s">
+      <c r="J267" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="K267" s="16" t="s">
+      <c r="K267" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="L267" s="16" t="s">
+      <c r="L267" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="M267" s="15"/>
+      <c r="M267" s="5"/>
+      <c r="N267" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O267" s="2"/>
     </row>
     <row r="268" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A268" s="3" t="s">
+      <c r="A268" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B268" s="4">
         <v>9</v>
       </c>
-      <c r="C268" s="13" t="s">
+      <c r="C268" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D268" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E268" s="16" t="s">
+      <c r="D268" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E268" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F268" s="14" t="s">
+      <c r="F268" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G268" s="16" t="s">
+      <c r="G268" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="H268" s="16" t="s">
+      <c r="H268" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="I268" s="16" t="s">
+      <c r="I268" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J268" s="16" t="s">
+      <c r="J268" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="K268" s="16" t="s">
+      <c r="K268" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="L268" s="16" t="s">
+      <c r="L268" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="M268" s="15"/>
+      <c r="M268" s="5"/>
+      <c r="N268" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O268" s="2"/>
     </row>
     <row r="269" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A269" s="3" t="s">
+      <c r="A269" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B269" s="4">
         <v>9</v>
       </c>
-      <c r="C269" s="13" t="s">
+      <c r="C269" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D269" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E269" s="16" t="s">
+      <c r="D269" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E269" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="F269" s="14" t="s">
+      <c r="F269" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G269" s="16" t="s">
+      <c r="G269" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="H269" s="16" t="s">
+      <c r="H269" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="I269" s="16" t="s">
+      <c r="I269" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J269" s="16" t="s">
+      <c r="J269" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="K269" s="16" t="s">
+      <c r="K269" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="L269" s="16" t="s">
+      <c r="L269" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="M269" s="15"/>
+      <c r="M269" s="5"/>
+      <c r="N269" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O269" s="2"/>
     </row>
     <row r="270" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A270" s="3" t="s">
+      <c r="A270" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B270" s="4">
         <v>9</v>
       </c>
-      <c r="C270" s="13" t="s">
+      <c r="C270" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D270" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E270" s="16" t="s">
+      <c r="D270" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E270" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F270" s="14" t="s">
+      <c r="F270" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G270" s="16" t="s">
+      <c r="G270" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="H270" s="16" t="s">
+      <c r="H270" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="I270" s="16" t="s">
+      <c r="I270" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J270" s="16" t="s">
+      <c r="J270" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="K270" s="16" t="s">
+      <c r="K270" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="L270" s="16" t="s">
+      <c r="L270" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="M270" s="15"/>
+      <c r="M270" s="5"/>
+      <c r="N270" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O270" s="2"/>
     </row>
     <row r="271" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A271" s="3" t="s">
+      <c r="A271" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B271" s="4">
         <v>9</v>
       </c>
-      <c r="C271" s="13" t="s">
+      <c r="C271" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D271" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E271" s="16" t="s">
+      <c r="D271" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E271" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F271" s="14" t="s">
+      <c r="F271" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G271" s="16" t="s">
+      <c r="G271" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H271" s="16" t="s">
+      <c r="H271" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I271" s="16" t="s">
+      <c r="I271" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="J271" s="16" t="s">
+      <c r="J271" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K271" s="16" t="s">
+      <c r="K271" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="L271" s="16" t="s">
+      <c r="L271" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="M271" s="15"/>
+      <c r="M271" s="5"/>
+      <c r="N271" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O271" s="2"/>
     </row>
     <row r="272" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A272" s="3" t="s">
+      <c r="A272" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B272" s="4">
         <v>9</v>
       </c>
-      <c r="C272" s="13" t="s">
+      <c r="C272" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D272" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E272" s="16" t="s">
+      <c r="D272" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E272" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F272" s="14" t="s">
+      <c r="F272" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G272" s="16" t="s">
+      <c r="G272" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="H272" s="16" t="s">
+      <c r="H272" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I272" s="16" t="s">
+      <c r="I272" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J272" s="16" t="s">
+      <c r="J272" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="K272" s="16" t="s">
+      <c r="K272" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="L272" s="16" t="s">
+      <c r="L272" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="M272" s="15"/>
+      <c r="M272" s="5"/>
+      <c r="N272" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O272" s="2"/>
     </row>
     <row r="273" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A273" s="3" t="s">
+      <c r="A273" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B273" s="4">
         <v>9</v>
       </c>
-      <c r="C273" s="13" t="s">
+      <c r="C273" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D273" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E273" s="16" t="s">
+      <c r="D273" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E273" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F273" s="14" t="s">
+      <c r="F273" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G273" s="16" t="s">
+      <c r="G273" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="H273" s="16" t="s">
+      <c r="H273" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="I273" s="16" t="s">
+      <c r="I273" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="J273" s="16" t="s">
+      <c r="J273" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="K273" s="16" t="s">
+      <c r="K273" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="L273" s="16" t="s">
+      <c r="L273" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="M273" s="15"/>
+      <c r="M273" s="5"/>
+      <c r="N273" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O273" s="2"/>
     </row>
     <row r="274" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A274" s="3" t="s">
+      <c r="A274" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B274" s="4">
         <v>9</v>
       </c>
-      <c r="C274" s="13" t="s">
+      <c r="C274" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D274" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E274" s="16" t="s">
+      <c r="D274" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E274" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F274" s="14" t="s">
+      <c r="F274" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G274" s="16" t="s">
+      <c r="G274" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="H274" s="16" t="s">
+      <c r="H274" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="I274" s="16" t="s">
+      <c r="I274" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="J274" s="16" t="s">
+      <c r="J274" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="K274" s="16" t="s">
+      <c r="K274" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="L274" s="16" t="s">
+      <c r="L274" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="M274" s="15"/>
+      <c r="M274" s="5"/>
+      <c r="N274" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O274" s="2"/>
     </row>
     <row r="275" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A275" s="3" t="s">
+      <c r="A275" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B275" s="4">
         <v>9</v>
       </c>
-      <c r="C275" s="13" t="s">
+      <c r="C275" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D275" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E275" s="16" t="s">
+      <c r="D275" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E275" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F275" s="14" t="s">
+      <c r="F275" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G275" s="16" t="s">
+      <c r="G275" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="H275" s="16" t="s">
+      <c r="H275" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I275" s="16" t="s">
+      <c r="I275" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J275" s="16" t="s">
+      <c r="J275" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="K275" s="16" t="s">
+      <c r="K275" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L275" s="16" t="s">
+      <c r="L275" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="M275" s="15"/>
+      <c r="M275" s="5"/>
+      <c r="N275" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O275" s="2"/>
     </row>
     <row r="276" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A276" s="3" t="s">
+      <c r="A276" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B276" s="4">
         <v>9</v>
       </c>
-      <c r="C276" s="13" t="s">
+      <c r="C276" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D276" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E276" s="16" t="s">
+      <c r="D276" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E276" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F276" s="14" t="s">
+      <c r="F276" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G276" s="16" t="s">
+      <c r="G276" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="H276" s="16" t="s">
+      <c r="H276" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I276" s="16" t="s">
+      <c r="I276" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J276" s="16" t="s">
+      <c r="J276" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K276" s="16" t="s">
+      <c r="K276" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L276" s="16" t="s">
+      <c r="L276" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="M276" s="15"/>
+      <c r="M276" s="5"/>
+      <c r="N276" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O276" s="2"/>
     </row>
     <row r="277" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A277" s="3" t="s">
+      <c r="A277" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B277" s="4">
         <v>9</v>
       </c>
-      <c r="C277" s="13" t="s">
+      <c r="C277" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D277" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E277" s="16" t="s">
+      <c r="D277" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E277" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F277" s="14" t="s">
+      <c r="F277" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G277" s="16" t="s">
+      <c r="G277" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="H277" s="16" t="s">
+      <c r="H277" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I277" s="16" t="s">
+      <c r="I277" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J277" s="16" t="s">
+      <c r="J277" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="K277" s="16" t="s">
+      <c r="K277" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="L277" s="16" t="s">
+      <c r="L277" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="M277" s="15"/>
+      <c r="M277" s="5"/>
+      <c r="N277" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O277" s="2"/>
     </row>
     <row r="278" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A278" s="3" t="s">
+      <c r="A278" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B278" s="4">
         <v>9</v>
       </c>
-      <c r="C278" s="13" t="s">
+      <c r="C278" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D278" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E278" s="16" t="s">
+      <c r="D278" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E278" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F278" s="14" t="s">
+      <c r="F278" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G278" s="16" t="s">
+      <c r="G278" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="H278" s="16" t="s">
+      <c r="H278" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I278" s="16" t="s">
+      <c r="I278" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J278" s="16" t="s">
+      <c r="J278" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="K278" s="16" t="s">
+      <c r="K278" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="L278" s="16" t="s">
+      <c r="L278" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="M278" s="15"/>
+      <c r="M278" s="5"/>
+      <c r="N278" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O278" s="2"/>
     </row>
     <row r="279" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A279" s="3" t="s">
+      <c r="A279" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B279" s="4">
         <v>9</v>
       </c>
-      <c r="C279" s="13" t="s">
+      <c r="C279" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D279" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E279" s="16" t="s">
+      <c r="D279" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E279" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F279" s="14" t="s">
+      <c r="F279" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G279" s="16" t="s">
+      <c r="G279" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H279" s="16" t="s">
+      <c r="H279" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I279" s="16" t="s">
+      <c r="I279" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J279" s="16" t="s">
+      <c r="J279" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="K279" s="16" t="s">
+      <c r="K279" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="L279" s="16" t="s">
+      <c r="L279" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="M279" s="15"/>
+      <c r="M279" s="5"/>
+      <c r="N279" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O279" s="2"/>
     </row>
     <row r="280" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A280" s="3" t="s">
+      <c r="A280" s="10" t="s">
         <v>204</v>
       </c>
       <c r="B280" s="4">
         <v>9</v>
       </c>
-      <c r="C280" s="13" t="s">
+      <c r="C280" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D280" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E280" s="16" t="s">
+      <c r="D280" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E280" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F280" s="14" t="s">
+      <c r="F280" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G280" s="16" t="s">
+      <c r="G280" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H280" s="16" t="s">
+      <c r="H280" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I280" s="16" t="s">
+      <c r="I280" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J280" s="16" t="s">
+      <c r="J280" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="K280" s="16" t="s">
+      <c r="K280" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L280" s="16" t="s">
+      <c r="L280" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="M280" s="15"/>
+      <c r="M280" s="5"/>
+      <c r="N280" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O280" s="2"/>
     </row>
     <row r="281" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A281" s="3" t="s">
+      <c r="A281" s="10" t="s">
         <v>204</v>
       </c>
       <c r="B281" s="4">
         <v>9</v>
       </c>
-      <c r="C281" s="13" t="s">
+      <c r="C281" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D281" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E281" s="16" t="s">
+      <c r="D281" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E281" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F281" s="14" t="s">
+      <c r="F281" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G281" s="16" t="s">
+      <c r="G281" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="H281" s="16" t="s">
+      <c r="H281" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I281" s="16" t="s">
+      <c r="I281" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J281" s="16" t="s">
+      <c r="J281" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="K281" s="16" t="s">
+      <c r="K281" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="L281" s="16" t="s">
+      <c r="L281" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="M281" s="15"/>
+      <c r="M281" s="5"/>
+      <c r="N281" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O281" s="2"/>
     </row>
     <row r="282" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A282" s="3" t="s">
+      <c r="A282" s="10" t="s">
         <v>204</v>
       </c>
       <c r="B282" s="4">
         <v>9</v>
       </c>
-      <c r="C282" s="13" t="s">
+      <c r="C282" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D282" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E282" s="16" t="s">
+      <c r="D282" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E282" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F282" s="14" t="s">
+      <c r="F282" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G282" s="16" t="s">
+      <c r="G282" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="H282" s="16" t="s">
+      <c r="H282" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I282" s="16" t="s">
+      <c r="I282" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J282" s="16" t="s">
+      <c r="J282" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K282" s="16" t="s">
+      <c r="K282" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L282" s="16" t="s">
+      <c r="L282" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="M282" s="15"/>
+      <c r="M282" s="5"/>
+      <c r="N282" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O282" s="2"/>
     </row>
     <row r="283" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A283" s="3" t="s">
+      <c r="A283" s="10" t="s">
         <v>204</v>
       </c>
       <c r="B283" s="4">
         <v>9</v>
       </c>
-      <c r="C283" s="13" t="s">
+      <c r="C283" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D283" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E283" s="16" t="s">
+      <c r="D283" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E283" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F283" s="14" t="s">
+      <c r="F283" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G283" s="16" t="s">
+      <c r="G283" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="H283" s="16" t="s">
+      <c r="H283" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I283" s="16" t="s">
+      <c r="I283" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J283" s="16" t="s">
+      <c r="J283" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="K283" s="16" t="s">
+      <c r="K283" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L283" s="16" t="s">
+      <c r="L283" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="M283" s="15"/>
+      <c r="M283" s="5"/>
+      <c r="N283" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O283" s="2"/>
     </row>
     <row r="284" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A284" s="3" t="s">
+      <c r="A284" s="10" t="s">
         <v>204</v>
       </c>
       <c r="B284" s="4">
         <v>9</v>
       </c>
-      <c r="C284" s="13" t="s">
+      <c r="C284" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D284" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E284" s="16" t="s">
+      <c r="D284" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E284" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F284" s="14" t="s">
+      <c r="F284" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G284" s="16" t="s">
+      <c r="G284" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="H284" s="16" t="s">
+      <c r="H284" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I284" s="16" t="s">
+      <c r="I284" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J284" s="16" t="s">
+      <c r="J284" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="K284" s="16" t="s">
+      <c r="K284" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="L284" s="16" t="s">
+      <c r="L284" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="M284" s="15"/>
+      <c r="M284" s="5"/>
+      <c r="N284" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O284" s="2"/>
     </row>
     <row r="285" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A285" s="3" t="s">
+      <c r="A285" s="10" t="s">
         <v>204</v>
       </c>
       <c r="B285" s="4">
         <v>9</v>
       </c>
-      <c r="C285" s="13" t="s">
+      <c r="C285" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D285" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E285" s="16" t="s">
+      <c r="D285" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E285" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F285" s="14" t="s">
+      <c r="F285" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G285" s="16" t="s">
+      <c r="G285" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="H285" s="16" t="s">
+      <c r="H285" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I285" s="16" t="s">
+      <c r="I285" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J285" s="16" t="s">
+      <c r="J285" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K285" s="16" t="s">
+      <c r="K285" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L285" s="16" t="s">
+      <c r="L285" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="M285" s="15"/>
+      <c r="M285" s="5"/>
+      <c r="N285" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O285" s="2"/>
     </row>
     <row r="286" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A286" s="3" t="s">
+      <c r="A286" s="10" t="s">
         <v>204</v>
       </c>
       <c r="B286" s="4">
         <v>9</v>
       </c>
-      <c r="C286" s="13" t="s">
+      <c r="C286" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D286" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E286" s="16" t="s">
+      <c r="D286" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E286" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F286" s="14" t="s">
+      <c r="F286" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G286" s="16" t="s">
+      <c r="G286" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="H286" s="16" t="s">
+      <c r="H286" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I286" s="16" t="s">
+      <c r="I286" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J286" s="16" t="s">
+      <c r="J286" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="K286" s="16" t="s">
+      <c r="K286" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="L286" s="16" t="s">
+      <c r="L286" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="M286" s="15"/>
+      <c r="M286" s="5"/>
+      <c r="N286" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O286" s="2"/>
     </row>
     <row r="287" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A287" s="3" t="s">
+      <c r="A287" s="10" t="s">
         <v>204</v>
       </c>
       <c r="B287" s="4">
         <v>9</v>
       </c>
-      <c r="C287" s="13" t="s">
+      <c r="C287" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D287" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E287" s="16" t="s">
+      <c r="D287" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E287" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F287" s="14" t="s">
+      <c r="F287" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G287" s="16" t="s">
+      <c r="G287" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H287" s="16" t="s">
+      <c r="H287" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="I287" s="16" t="s">
+      <c r="I287" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="J287" s="16" t="s">
+      <c r="J287" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="K287" s="16" t="s">
+      <c r="K287" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="L287" s="16" t="s">
+      <c r="L287" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="M287" s="15"/>
+      <c r="M287" s="5"/>
+      <c r="N287" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O287" s="2"/>
     </row>
     <row r="288" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A288" s="3" t="s">
+      <c r="A288" s="10" t="s">
         <v>204</v>
       </c>
       <c r="B288" s="4">
         <v>9</v>
       </c>
-      <c r="C288" s="13" t="s">
+      <c r="C288" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D288" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E288" s="16" t="s">
+      <c r="D288" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E288" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="F288" s="14" t="s">
+      <c r="F288" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G288" s="16" t="s">
+      <c r="G288" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="H288" s="16" t="s">
+      <c r="H288" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="I288" s="16" t="s">
+      <c r="I288" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J288" s="16" t="s">
+      <c r="J288" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="K288" s="16" t="s">
+      <c r="K288" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="L288" s="16" t="s">
+      <c r="L288" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="M288" s="15"/>
+      <c r="M288" s="5"/>
+      <c r="N288" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O288" s="2"/>
     </row>
     <row r="289" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A289" s="3" t="s">
+      <c r="A289" s="10" t="s">
         <v>204</v>
       </c>
       <c r="B289" s="4">
         <v>9</v>
       </c>
-      <c r="C289" s="13" t="s">
+      <c r="C289" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D289" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E289" s="16" t="s">
+      <c r="D289" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E289" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F289" s="14" t="s">
+      <c r="F289" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G289" s="16" t="s">
+      <c r="G289" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="H289" s="16" t="s">
+      <c r="H289" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I289" s="16" t="s">
+      <c r="I289" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J289" s="16" t="s">
+      <c r="J289" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="K289" s="16" t="s">
+      <c r="K289" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="L289" s="16" t="s">
+      <c r="L289" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="M289" s="15"/>
+      <c r="M289" s="5"/>
+      <c r="N289" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O289" s="2"/>
     </row>
     <row r="290" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A290" s="3" t="s">
+      <c r="A290" s="10" t="s">
         <v>204</v>
       </c>
       <c r="B290" s="4">
         <v>9</v>
       </c>
-      <c r="C290" s="13" t="s">
+      <c r="C290" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D290" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E290" s="16" t="s">
+      <c r="D290" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E290" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="F290" s="14" t="s">
+      <c r="F290" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G290" s="16" t="s">
+      <c r="G290" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="H290" s="16" t="s">
+      <c r="H290" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="I290" s="16" t="s">
+      <c r="I290" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="J290" s="16" t="s">
+      <c r="J290" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="K290" s="16" t="s">
+      <c r="K290" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="L290" s="16" t="s">
+      <c r="L290" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="M290" s="15"/>
+      <c r="M290" s="5"/>
+      <c r="N290" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O290" s="2"/>
     </row>
     <row r="291" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A291" s="3" t="s">
+      <c r="A291" s="10" t="s">
         <v>204</v>
       </c>
       <c r="B291" s="4">
         <v>9</v>
       </c>
-      <c r="C291" s="13" t="s">
+      <c r="C291" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D291" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E291" s="16" t="s">
+      <c r="D291" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E291" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F291" s="14" t="s">
+      <c r="F291" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G291" s="16" t="s">
+      <c r="G291" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="H291" s="16" t="s">
+      <c r="H291" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I291" s="16" t="s">
+      <c r="I291" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="J291" s="16" t="s">
+      <c r="J291" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K291" s="16" t="s">
+      <c r="K291" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="L291" s="16" t="s">
+      <c r="L291" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="M291" s="15"/>
+      <c r="M291" s="5"/>
+      <c r="N291" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O291" s="2"/>
     </row>
     <row r="292" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A292" s="3" t="s">
+      <c r="A292" s="10" t="s">
         <v>222</v>
       </c>
       <c r="B292" s="4">
         <v>9</v>
       </c>
-      <c r="C292" s="13" t="s">
+      <c r="C292" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D292" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E292" s="16" t="s">
+      <c r="D292" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E292" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F292" s="14" t="s">
+      <c r="F292" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G292" s="16" t="s">
+      <c r="G292" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="H292" s="16" t="s">
+      <c r="H292" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I292" s="16" t="s">
+      <c r="I292" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J292" s="15"/>
-      <c r="K292" s="16" t="s">
+      <c r="J292" s="8"/>
+      <c r="K292" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="L292" s="16" t="s">
+      <c r="L292" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="M292" s="15"/>
+      <c r="M292" s="5"/>
+      <c r="N292" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O292" s="2"/>
     </row>
     <row r="293" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A293" s="3" t="s">
+      <c r="A293" s="10" t="s">
         <v>222</v>
       </c>
       <c r="B293" s="4">
         <v>9</v>
       </c>
-      <c r="C293" s="13" t="s">
+      <c r="C293" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D293" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E293" s="16" t="s">
+      <c r="D293" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E293" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="F293" s="14" t="s">
+      <c r="F293" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G293" s="16" t="s">
+      <c r="G293" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="H293" s="16" t="s">
+      <c r="H293" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="I293" s="16" t="s">
+      <c r="I293" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J293" s="15"/>
-      <c r="K293" s="16" t="s">
+      <c r="J293" s="8"/>
+      <c r="K293" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="L293" s="16" t="s">
+      <c r="L293" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="M293" s="15"/>
+      <c r="M293" s="5"/>
+      <c r="N293" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O293" s="2"/>
     </row>
     <row r="294" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A294" s="3" t="s">
+      <c r="A294" s="10" t="s">
         <v>222</v>
       </c>
       <c r="B294" s="4">
         <v>9</v>
       </c>
-      <c r="C294" s="13" t="s">
+      <c r="C294" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D294" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E294" s="16" t="s">
+      <c r="D294" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E294" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F294" s="14" t="s">
+      <c r="F294" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G294" s="16" t="s">
+      <c r="G294" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="H294" s="16" t="s">
+      <c r="H294" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="I294" s="16" t="s">
+      <c r="I294" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="J294" s="15"/>
-      <c r="K294" s="16" t="s">
+      <c r="J294" s="8"/>
+      <c r="K294" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="L294" s="16" t="s">
+      <c r="L294" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="M294" s="15"/>
+      <c r="M294" s="5"/>
+      <c r="N294" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O294" s="2"/>
     </row>
     <row r="295" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A295" s="3" t="s">
+      <c r="A295" s="10" t="s">
         <v>229</v>
       </c>
       <c r="B295" s="4">
         <v>9</v>
       </c>
-      <c r="C295" s="13" t="s">
+      <c r="C295" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D295" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E295" s="16" t="s">
+      <c r="D295" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E295" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="F295" s="14" t="s">
+      <c r="F295" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G295" s="16" t="s">
+      <c r="G295" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="H295" s="16" t="s">
+      <c r="H295" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="I295" s="16" t="s">
+      <c r="I295" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J295" s="15"/>
-      <c r="K295" s="16" t="s">
+      <c r="J295" s="8"/>
+      <c r="K295" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="L295" s="16" t="s">
+      <c r="L295" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="M295" s="15"/>
+      <c r="M295" s="5"/>
+      <c r="N295" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O295" s="2"/>
     </row>
     <row r="296" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A296" s="3" t="s">
+      <c r="A296" s="10" t="s">
         <v>229</v>
       </c>
       <c r="B296" s="4">
         <v>9</v>
       </c>
-      <c r="C296" s="13" t="s">
+      <c r="C296" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D296" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E296" s="16" t="s">
+      <c r="D296" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E296" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F296" s="14" t="s">
+      <c r="F296" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G296" s="16" t="s">
+      <c r="G296" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H296" s="16" t="s">
+      <c r="H296" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I296" s="16" t="s">
+      <c r="I296" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="J296" s="15"/>
-      <c r="K296" s="16" t="s">
+      <c r="J296" s="8"/>
+      <c r="K296" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="L296" s="16" t="s">
+      <c r="L296" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="M296" s="15"/>
+      <c r="M296" s="5"/>
+      <c r="N296" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O296" s="2"/>
     </row>
     <row r="297" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A297" s="3" t="s">
+      <c r="A297" s="10" t="s">
         <v>229</v>
       </c>
       <c r="B297" s="4">
         <v>9</v>
       </c>
-      <c r="C297" s="13" t="s">
+      <c r="C297" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D297" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E297" s="16" t="s">
+      <c r="D297" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E297" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F297" s="14" t="s">
+      <c r="F297" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G297" s="16" t="s">
+      <c r="G297" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="H297" s="16" t="s">
+      <c r="H297" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I297" s="16" t="s">
+      <c r="I297" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J297" s="15"/>
-      <c r="K297" s="16" t="s">
+      <c r="J297" s="8"/>
+      <c r="K297" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L297" s="16" t="s">
+      <c r="L297" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="M297" s="15"/>
+      <c r="M297" s="5"/>
+      <c r="N297" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O297" s="2"/>
     </row>
     <row r="298" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A298" s="3" t="s">
+      <c r="A298" s="10" t="s">
         <v>234</v>
       </c>
       <c r="B298" s="4">
         <v>9</v>
       </c>
-      <c r="C298" s="13" t="s">
+      <c r="C298" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D298" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E298" s="16" t="s">
+      <c r="D298" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E298" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F298" s="14" t="s">
+      <c r="F298" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G298" s="16" t="s">
+      <c r="G298" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="H298" s="16" t="s">
+      <c r="H298" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I298" s="16" t="s">
+      <c r="I298" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J298" s="15"/>
-      <c r="K298" s="16" t="s">
+      <c r="J298" s="8"/>
+      <c r="K298" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="L298" s="16" t="s">
+      <c r="L298" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="M298" s="15"/>
+      <c r="M298" s="5"/>
+      <c r="N298" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O298" s="2"/>
     </row>
     <row r="299" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A299" s="3" t="s">
+      <c r="A299" s="10" t="s">
         <v>234</v>
       </c>
       <c r="B299" s="4">
         <v>9</v>
       </c>
-      <c r="C299" s="13" t="s">
+      <c r="C299" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D299" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E299" s="16" t="s">
+      <c r="D299" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E299" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F299" s="14" t="s">
+      <c r="F299" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G299" s="16" t="s">
+      <c r="G299" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H299" s="16" t="s">
+      <c r="H299" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I299" s="16" t="s">
+      <c r="I299" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J299" s="15"/>
-      <c r="K299" s="16" t="s">
+      <c r="J299" s="8"/>
+      <c r="K299" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="L299" s="16" t="s">
+      <c r="L299" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="M299" s="15"/>
+      <c r="M299" s="5"/>
+      <c r="N299" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O299" s="2"/>
     </row>
     <row r="300" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A300" s="3" t="s">
+      <c r="A300" s="10" t="s">
         <v>234</v>
       </c>
       <c r="B300" s="4">
         <v>9</v>
       </c>
-      <c r="C300" s="13" t="s">
+      <c r="C300" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D300" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E300" s="16" t="s">
+      <c r="D300" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E300" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="F300" s="14" t="s">
+      <c r="F300" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G300" s="16" t="s">
+      <c r="G300" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="H300" s="16" t="s">
+      <c r="H300" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="I300" s="16" t="s">
+      <c r="I300" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J300" s="15"/>
-      <c r="K300" s="16" t="s">
+      <c r="J300" s="8"/>
+      <c r="K300" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="L300" s="16" t="s">
+      <c r="L300" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="M300" s="15"/>
+      <c r="M300" s="5"/>
+      <c r="N300" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O300" s="2"/>
     </row>
     <row r="301" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A301" s="3" t="s">
+      <c r="A301" s="10" t="s">
         <v>234</v>
       </c>
       <c r="B301" s="4">
         <v>9</v>
       </c>
-      <c r="C301" s="13" t="s">
+      <c r="C301" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D301" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E301" s="16" t="s">
+      <c r="D301" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E301" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F301" s="14" t="s">
+      <c r="F301" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G301" s="16" t="s">
+      <c r="G301" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="H301" s="16" t="s">
+      <c r="H301" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="I301" s="16" t="s">
+      <c r="I301" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J301" s="15"/>
-      <c r="K301" s="16" t="s">
+      <c r="J301" s="8"/>
+      <c r="K301" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="L301" s="16" t="s">
+      <c r="L301" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="M301" s="15"/>
+      <c r="M301" s="5"/>
+      <c r="N301" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O301" s="2"/>
     </row>
     <row r="302" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A302" s="3" t="s">
+      <c r="A302" s="10" t="s">
         <v>243</v>
       </c>
       <c r="B302" s="4">
         <v>9</v>
       </c>
-      <c r="C302" s="13" t="s">
+      <c r="C302" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D302" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E302" s="16" t="s">
+      <c r="D302" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E302" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F302" s="14" t="s">
+      <c r="F302" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G302" s="16" t="s">
+      <c r="G302" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="H302" s="16" t="s">
+      <c r="H302" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I302" s="16" t="s">
+      <c r="I302" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J302" s="15"/>
-      <c r="K302" s="16" t="s">
+      <c r="J302" s="8"/>
+      <c r="K302" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L302" s="16" t="s">
+      <c r="L302" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="M302" s="15"/>
+      <c r="M302" s="5"/>
+      <c r="N302" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O302" s="2"/>
     </row>
     <row r="303" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A303" s="3" t="s">
+      <c r="A303" s="10" t="s">
         <v>243</v>
       </c>
       <c r="B303" s="4">
         <v>9</v>
       </c>
-      <c r="C303" s="13" t="s">
+      <c r="C303" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D303" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E303" s="16" t="s">
+      <c r="D303" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E303" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="F303" s="14" t="s">
+      <c r="F303" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G303" s="16" t="s">
+      <c r="G303" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="H303" s="16" t="s">
+      <c r="H303" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="I303" s="16" t="s">
+      <c r="I303" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J303" s="15"/>
-      <c r="K303" s="16" t="s">
+      <c r="J303" s="8"/>
+      <c r="K303" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="L303" s="16" t="s">
+      <c r="L303" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="M303" s="15"/>
+      <c r="M303" s="5"/>
+      <c r="N303" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O303" s="2"/>
     </row>
     <row r="304" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A304" s="3" t="s">
+      <c r="A304" s="10" t="s">
         <v>243</v>
       </c>
       <c r="B304" s="4">
         <v>9</v>
       </c>
-      <c r="C304" s="13" t="s">
+      <c r="C304" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D304" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E304" s="16" t="s">
+      <c r="D304" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E304" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F304" s="14" t="s">
+      <c r="F304" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G304" s="16" t="s">
+      <c r="G304" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="H304" s="16" t="s">
+      <c r="H304" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I304" s="16" t="s">
+      <c r="I304" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J304" s="15"/>
-      <c r="K304" s="16" t="s">
+      <c r="J304" s="8"/>
+      <c r="K304" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L304" s="16" t="s">
+      <c r="L304" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="M304" s="15"/>
+      <c r="M304" s="5"/>
+      <c r="N304" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O304" s="2"/>
     </row>
     <row r="305" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A305" s="3" t="s">
+      <c r="A305" s="10" t="s">
         <v>248</v>
       </c>
       <c r="B305" s="4">
         <v>9</v>
       </c>
-      <c r="C305" s="13" t="s">
+      <c r="C305" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="D305" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E305" s="16" t="s">
+      <c r="D305" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E305" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F305" s="14" t="s">
+      <c r="F305" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G305" s="16" t="s">
+      <c r="G305" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="H305" s="16" t="s">
+      <c r="H305" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I305" s="15"/>
-      <c r="J305" s="16" t="s">
+      <c r="I305" s="2"/>
+      <c r="J305" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="K305" s="15"/>
-      <c r="L305" s="16" t="s">
+      <c r="K305" s="2"/>
+      <c r="L305" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="M305" s="15"/>
+      <c r="M305" s="5"/>
+      <c r="N305" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O305" s="2"/>
     </row>
     <row r="306" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A306" s="3" t="s">
+      <c r="A306" s="10" t="s">
         <v>248</v>
       </c>
       <c r="B306" s="4">
         <v>9</v>
       </c>
-      <c r="C306" s="13" t="s">
+      <c r="C306" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="D306" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E306" s="16" t="s">
+      <c r="D306" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E306" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F306" s="14" t="s">
+      <c r="F306" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G306" s="16" t="s">
+      <c r="G306" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="H306" s="16" t="s">
+      <c r="H306" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="I306" s="15"/>
-      <c r="J306" s="16" t="s">
+      <c r="I306" s="2"/>
+      <c r="J306" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="K306" s="15"/>
-      <c r="L306" s="16" t="s">
+      <c r="K306" s="2"/>
+      <c r="L306" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="M306" s="15"/>
+      <c r="M306" s="5"/>
+      <c r="N306" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O306" s="2"/>
     </row>
     <row r="307" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A307" s="3" t="s">
+      <c r="A307" s="10" t="s">
         <v>252</v>
       </c>
       <c r="B307" s="4">
         <v>9</v>
       </c>
-      <c r="C307" s="13" t="s">
+      <c r="C307" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D307" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E307" s="16" t="s">
+      <c r="D307" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E307" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="F307" s="14" t="s">
+      <c r="F307" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G307" s="16" t="s">
+      <c r="G307" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="H307" s="16" t="s">
+      <c r="H307" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I307" s="16" t="s">
+      <c r="I307" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J307" s="16" t="s">
+      <c r="J307" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="K307" s="16" t="s">
+      <c r="K307" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="L307" s="16" t="s">
+      <c r="L307" s="5" t="s">
         <v>150</v>
       </c>
+      <c r="M307" s="5"/>
+      <c r="N307" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O307" s="2"/>
     </row>
     <row r="308" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A308" s="3" t="s">
+      <c r="A308" s="10" t="s">
         <v>256</v>
       </c>
       <c r="B308" s="4">
         <v>9</v>
       </c>
-      <c r="C308" s="13" t="s">
+      <c r="C308" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D308" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E308" s="16" t="s">
+      <c r="D308" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E308" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="F308" s="14" t="s">
+      <c r="F308" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G308" s="16" t="s">
+      <c r="G308" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="H308" s="15"/>
-      <c r="I308" s="16" t="s">
+      <c r="H308" s="4"/>
+      <c r="I308" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="J308" s="15"/>
-      <c r="K308" s="15"/>
-      <c r="L308" s="15"/>
+      <c r="J308" s="8"/>
+      <c r="K308" s="2"/>
+      <c r="L308" s="5"/>
+      <c r="M308" s="5"/>
+      <c r="N308" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O308" s="2"/>
     </row>
     <row r="309" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A309" s="3" t="s">
+      <c r="A309" s="10" t="s">
         <v>151</v>
       </c>
       <c r="B309" s="4">
         <v>9</v>
       </c>
-      <c r="C309" s="13" t="s">
+      <c r="C309" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D309" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E309" s="16" t="s">
+      <c r="D309" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E309" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="F309" s="14" t="s">
+      <c r="F309" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G309" s="16" t="s">
+      <c r="G309" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H309" s="16" t="s">
+      <c r="H309" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I309" s="16" t="s">
+      <c r="I309" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J309" s="16" t="s">
+      <c r="J309" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="K309" s="16" t="s">
+      <c r="K309" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="L309" s="16" t="s">
+      <c r="L309" s="5" t="s">
         <v>136</v>
       </c>
+      <c r="M309" s="5"/>
+      <c r="N309" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O309" s="2"/>
     </row>
     <row r="310" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A310" s="3" t="s">
+      <c r="A310" s="10" t="s">
         <v>262</v>
       </c>
       <c r="B310" s="4">
         <v>9</v>
       </c>
-      <c r="C310" s="13" t="s">
+      <c r="C310" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D310" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E310" s="16" t="s">
+      <c r="D310" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E310" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="F310" s="14" t="s">
+      <c r="F310" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G310" s="16" t="s">
+      <c r="G310" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="H310" s="16" t="s">
+      <c r="H310" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I310" s="16" t="s">
+      <c r="I310" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J310" s="16" t="s">
+      <c r="J310" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="K310" s="16" t="s">
+      <c r="K310" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L310" s="16" t="s">
+      <c r="L310" s="5" t="s">
         <v>143</v>
       </c>
+      <c r="M310" s="5"/>
+      <c r="N310" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O310" s="2"/>
     </row>
     <row r="311" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A311" s="3" t="s">
+      <c r="A311" s="10" t="s">
         <v>265</v>
       </c>
       <c r="B311" s="4">
         <v>9</v>
       </c>
-      <c r="C311" s="13" t="s">
+      <c r="C311" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D311" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E311" s="16" t="s">
+      <c r="D311" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E311" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="F311" s="14" t="s">
+      <c r="F311" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G311" s="16" t="s">
+      <c r="G311" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="H311" s="16" t="s">
+      <c r="H311" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I311" s="16" t="s">
+      <c r="I311" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J311" s="16" t="s">
+      <c r="J311" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="K311" s="16" t="s">
+      <c r="K311" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L311" s="16" t="s">
+      <c r="L311" s="5" t="s">
         <v>143</v>
       </c>
+      <c r="M311" s="5"/>
+      <c r="N311" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O311" s="2"/>
     </row>
     <row r="312" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A312" s="3" t="s">
+      <c r="A312" s="10" t="s">
         <v>265</v>
       </c>
       <c r="B312" s="4">
         <v>9</v>
       </c>
-      <c r="C312" s="13" t="s">
+      <c r="C312" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D312" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E312" s="16" t="s">
+      <c r="D312" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E312" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="F312" s="14" t="s">
+      <c r="F312" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G312" s="16" t="s">
+      <c r="G312" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="H312" s="16" t="s">
+      <c r="H312" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I312" s="16" t="s">
+      <c r="I312" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J312" s="16" t="s">
+      <c r="J312" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="K312" s="16" t="s">
+      <c r="K312" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="L312" s="16" t="s">
+      <c r="L312" s="5" t="s">
         <v>150</v>
       </c>
+      <c r="M312" s="5"/>
+      <c r="N312" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O312" s="2"/>
     </row>
     <row r="313" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A313" s="3" t="s">
+      <c r="A313" s="10" t="s">
         <v>272</v>
       </c>
       <c r="B313" s="4">
         <v>9</v>
       </c>
-      <c r="C313" s="13" t="s">
+      <c r="C313" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D313" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E313" s="16" t="s">
+      <c r="D313" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E313" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="F313" s="14" t="s">
+      <c r="F313" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G313" s="16" t="s">
+      <c r="G313" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="H313" s="16" t="s">
+      <c r="H313" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I313" s="16" t="s">
+      <c r="I313" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J313" s="16" t="s">
+      <c r="J313" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="K313" s="16" t="s">
+      <c r="K313" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="L313" s="16" t="s">
+      <c r="L313" s="5" t="s">
         <v>150</v>
       </c>
+      <c r="M313" s="5"/>
+      <c r="N313" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O313" s="2"/>
     </row>
     <row r="314" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A314" s="3" t="s">
+      <c r="A314" s="10" t="s">
         <v>276</v>
       </c>
       <c r="B314" s="4">
         <v>9</v>
       </c>
-      <c r="C314" s="13" t="s">
+      <c r="C314" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D314" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E314" s="16" t="s">
+      <c r="D314" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E314" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F314" s="14" t="s">
+      <c r="F314" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G314" s="16" t="s">
+      <c r="G314" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="H314" s="16" t="s">
+      <c r="H314" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="I314" s="16" t="s">
+      <c r="I314" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J314" s="16" t="s">
+      <c r="J314" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="K314" s="16" t="s">
+      <c r="K314" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="L314" s="16" t="s">
+      <c r="L314" s="5" t="s">
         <v>226</v>
       </c>
+      <c r="M314" s="5"/>
+      <c r="N314" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O314" s="2"/>
     </row>
     <row r="315" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A315" s="3" t="s">
+      <c r="A315" s="10" t="s">
         <v>280</v>
       </c>
       <c r="B315" s="4">
         <v>9</v>
       </c>
-      <c r="C315" s="13" t="s">
+      <c r="C315" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D315" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E315" s="16" t="s">
+      <c r="D315" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E315" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="F315" s="14" t="s">
+      <c r="F315" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G315" s="16" t="s">
+      <c r="G315" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="H315" s="16" t="s">
+      <c r="H315" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I315" s="16" t="s">
+      <c r="I315" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J315" s="16" t="s">
+      <c r="J315" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K315" s="16" t="s">
+      <c r="K315" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L315" s="16" t="s">
+      <c r="L315" s="5" t="s">
         <v>132</v>
       </c>
+      <c r="M315" s="5"/>
+      <c r="N315" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O315" s="2"/>
     </row>
     <row r="316" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A316" s="3" t="s">
+      <c r="A316" s="10" t="s">
         <v>284</v>
       </c>
       <c r="B316" s="4">
         <v>9</v>
       </c>
-      <c r="C316" s="13" t="s">
+      <c r="C316" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D316" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E316" s="16" t="s">
+      <c r="D316" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E316" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="F316" s="14" t="s">
+      <c r="F316" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G316" s="16" t="s">
+      <c r="G316" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="H316" s="15"/>
-      <c r="I316" s="16" t="s">
+      <c r="H316" s="4"/>
+      <c r="I316" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="J316" s="15"/>
-      <c r="K316" s="16" t="s">
+      <c r="J316" s="8"/>
+      <c r="K316" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="L316" s="15"/>
-      <c r="M316" s="15"/>
+      <c r="L316" s="5"/>
+      <c r="M316" s="5"/>
+      <c r="N316" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O316" s="2"/>
     </row>
     <row r="317" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A317" s="3" t="s">
+      <c r="A317" s="10" t="s">
         <v>284</v>
       </c>
       <c r="B317" s="4">
         <v>9</v>
       </c>
-      <c r="C317" s="13" t="s">
+      <c r="C317" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D317" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E317" s="16" t="s">
+      <c r="D317" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E317" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="F317" s="14" t="s">
+      <c r="F317" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G317" s="16" t="s">
+      <c r="G317" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="H317" s="15"/>
-      <c r="I317" s="15"/>
-      <c r="J317" s="15"/>
-      <c r="K317" s="15"/>
-      <c r="L317" s="15"/>
-      <c r="M317" s="16" t="s">
+      <c r="H317" s="4"/>
+      <c r="I317" s="2"/>
+      <c r="J317" s="8"/>
+      <c r="K317" s="2"/>
+      <c r="L317" s="5"/>
+      <c r="M317" s="5" t="s">
         <v>153</v>
       </c>
+      <c r="N317" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O317" s="2"/>
     </row>
     <row r="318" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A318" s="3" t="s">
+      <c r="A318" s="10" t="s">
         <v>291</v>
       </c>
       <c r="B318" s="4">
         <v>9</v>
       </c>
-      <c r="C318" s="13" t="s">
+      <c r="C318" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D318" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E318" s="16" t="s">
+      <c r="D318" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E318" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="F318" s="14" t="s">
+      <c r="F318" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G318" s="16" t="s">
+      <c r="G318" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="H318" s="16" t="s">
+      <c r="H318" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I318" s="16" t="s">
+      <c r="I318" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="J318" s="16" t="s">
+      <c r="J318" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K318" s="16" t="s">
+      <c r="K318" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="L318" s="16" t="s">
+      <c r="L318" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="M318" s="15"/>
+      <c r="M318" s="5"/>
+      <c r="N318" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O318" s="2"/>
     </row>
     <row r="319" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A319" s="3" t="s">
+      <c r="A319" s="10" t="s">
         <v>291</v>
       </c>
       <c r="B319" s="4">
         <v>9</v>
       </c>
-      <c r="C319" s="13" t="s">
+      <c r="C319" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D319" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E319" s="16" t="s">
+      <c r="D319" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E319" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="F319" s="14" t="s">
+      <c r="F319" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G319" s="16" t="s">
+      <c r="G319" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="H319" s="16" t="s">
+      <c r="H319" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="I319" s="16" t="s">
+      <c r="I319" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J319" s="16" t="s">
+      <c r="J319" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="K319" s="16" t="s">
+      <c r="K319" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="L319" s="16" t="s">
+      <c r="L319" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="M319" s="15"/>
+      <c r="M319" s="5"/>
+      <c r="N319" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O319" s="2"/>
     </row>
     <row r="320" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A320" s="3" t="s">
+      <c r="A320" s="10" t="s">
         <v>298</v>
       </c>
       <c r="B320" s="4">
         <v>9</v>
       </c>
-      <c r="C320" s="13" t="s">
+      <c r="C320" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D320" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E320" s="16" t="s">
+      <c r="D320" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E320" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="F320" s="14" t="s">
+      <c r="F320" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G320" s="16" t="s">
+      <c r="G320" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="H320" s="16" t="s">
+      <c r="H320" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I320" s="15"/>
-      <c r="J320" s="15"/>
-      <c r="K320" s="15"/>
-      <c r="L320" s="15"/>
-      <c r="M320" s="15"/>
+      <c r="I320" s="2"/>
+      <c r="J320" s="8"/>
+      <c r="K320" s="2"/>
+      <c r="L320" s="5"/>
+      <c r="M320" s="5"/>
+      <c r="N320" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O320" s="2"/>
     </row>
     <row r="321" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A321" s="3" t="s">
+      <c r="A321" s="10" t="s">
         <v>298</v>
       </c>
       <c r="B321" s="4">
         <v>9</v>
       </c>
-      <c r="C321" s="13" t="s">
+      <c r="C321" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D321" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E321" s="16" t="s">
+      <c r="D321" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E321" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="F321" s="14" t="s">
+      <c r="F321" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G321" s="16" t="s">
+      <c r="G321" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="H321" s="15"/>
-      <c r="I321" s="16" t="s">
+      <c r="H321" s="4"/>
+      <c r="I321" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J321" s="16" t="s">
+      <c r="J321" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="K321" s="16" t="s">
+      <c r="K321" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="L321" s="15"/>
-      <c r="M321" s="15"/>
+      <c r="L321" s="5"/>
+      <c r="M321" s="5"/>
+      <c r="N321" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O321" s="2"/>
     </row>
     <row r="322" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A322" s="3" t="s">
+      <c r="A322" s="10" t="s">
         <v>304</v>
       </c>
       <c r="B322" s="4">
         <v>9</v>
       </c>
-      <c r="C322" s="13" t="s">
+      <c r="C322" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D322" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E322" s="16" t="s">
+      <c r="D322" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E322" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="F322" s="14" t="s">
+      <c r="F322" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G322" s="16" t="s">
+      <c r="G322" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="H322" s="16" t="s">
+      <c r="H322" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I322" s="16" t="s">
+      <c r="I322" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J322" s="16" t="s">
+      <c r="J322" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="K322" s="16" t="s">
+      <c r="K322" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="L322" s="16" t="s">
+      <c r="L322" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="M322" s="15"/>
+      <c r="M322" s="5"/>
+      <c r="N322" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O322" s="2"/>
     </row>
     <row r="323" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A323" s="3" t="s">
+      <c r="A323" s="10" t="s">
         <v>304</v>
       </c>
       <c r="B323" s="4">
         <v>9</v>
       </c>
-      <c r="C323" s="13" t="s">
+      <c r="C323" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D323" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E323" s="16" t="s">
+      <c r="D323" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E323" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="F323" s="14" t="s">
+      <c r="F323" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G323" s="16" t="s">
+      <c r="G323" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="H323" s="16" t="s">
+      <c r="H323" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="I323" s="15"/>
-      <c r="J323" s="15"/>
-      <c r="K323" s="15"/>
-      <c r="L323" s="15"/>
-      <c r="M323" s="15"/>
+      <c r="I323" s="2"/>
+      <c r="J323" s="8"/>
+      <c r="K323" s="2"/>
+      <c r="L323" s="5"/>
+      <c r="M323" s="5"/>
+      <c r="N323" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O323" s="2"/>
     </row>
     <row r="324" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A324" s="3" t="s">
+      <c r="A324" s="10" t="s">
         <v>304</v>
       </c>
       <c r="B324" s="4">
         <v>9</v>
       </c>
-      <c r="C324" s="13" t="s">
+      <c r="C324" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D324" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E324" s="16" t="s">
+      <c r="D324" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E324" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="F324" s="14" t="s">
+      <c r="F324" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G324" s="16" t="s">
+      <c r="G324" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="H324" s="15"/>
-      <c r="I324" s="16" t="s">
+      <c r="H324" s="4"/>
+      <c r="I324" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J324" s="16" t="s">
+      <c r="J324" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="K324" s="16" t="s">
+      <c r="K324" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="L324" s="16" t="s">
+      <c r="L324" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="M324" s="15"/>
+      <c r="M324" s="5"/>
+      <c r="N324" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O324" s="2"/>
     </row>
     <row r="325" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A325" s="3" t="s">
+      <c r="A325" s="10" t="s">
         <v>304</v>
       </c>
       <c r="B325" s="4">
         <v>9</v>
       </c>
-      <c r="C325" s="13" t="s">
+      <c r="C325" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D325" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E325" s="16" t="s">
+      <c r="D325" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E325" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="F325" s="14" t="s">
+      <c r="F325" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G325" s="16" t="s">
+      <c r="G325" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="H325" s="16" t="s">
+      <c r="H325" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="I325" s="15"/>
-      <c r="J325" s="15"/>
-      <c r="K325" s="15"/>
-      <c r="L325" s="15"/>
-      <c r="M325" s="15"/>
+      <c r="I325" s="2"/>
+      <c r="J325" s="8"/>
+      <c r="K325" s="2"/>
+      <c r="L325" s="5"/>
+      <c r="M325" s="5"/>
+      <c r="N325" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O325" s="2"/>
     </row>
     <row r="326" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A326" s="3" t="s">
+      <c r="A326" s="10" t="s">
         <v>304</v>
       </c>
       <c r="B326" s="4">
         <v>9</v>
       </c>
-      <c r="C326" s="13" t="s">
+      <c r="C326" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D326" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E326" s="16" t="s">
+      <c r="D326" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E326" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="F326" s="14" t="s">
+      <c r="F326" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G326" s="16" t="s">
+      <c r="G326" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="H326" s="15"/>
-      <c r="I326" s="16" t="s">
+      <c r="H326" s="4"/>
+      <c r="I326" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="J326" s="16" t="s">
+      <c r="J326" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="K326" s="16" t="s">
+      <c r="K326" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="L326" s="16" t="s">
+      <c r="L326" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="M326" s="15"/>
+      <c r="M326" s="5"/>
+      <c r="N326" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O326" s="2"/>
     </row>
     <row r="327" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A327" s="3" t="s">
+      <c r="A327" s="10" t="s">
         <v>317</v>
       </c>
       <c r="B327" s="4">
         <v>9</v>
       </c>
-      <c r="C327" s="13" t="s">
+      <c r="C327" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D327" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E327" s="16" t="s">
+      <c r="D327" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E327" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="F327" s="14" t="s">
+      <c r="F327" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G327" s="16" t="s">
+      <c r="G327" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="H327" s="16" t="s">
+      <c r="H327" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I327" s="15"/>
-      <c r="J327" s="16" t="s">
+      <c r="I327" s="2"/>
+      <c r="J327" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="K327" s="15"/>
-      <c r="L327" s="16" t="s">
+      <c r="K327" s="2"/>
+      <c r="L327" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="M327" s="15"/>
+      <c r="M327" s="5"/>
+      <c r="N327" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O327" s="2"/>
     </row>
     <row r="328" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A328" s="3" t="s">
+      <c r="A328" s="10" t="s">
         <v>317</v>
       </c>
       <c r="B328" s="4">
         <v>9</v>
       </c>
-      <c r="C328" s="13" t="s">
+      <c r="C328" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="D328" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E328" s="16" t="s">
+      <c r="D328" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E328" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="F328" s="14" t="s">
+      <c r="F328" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G328" s="16" t="s">
+      <c r="G328" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="H328" s="16" t="s">
+      <c r="H328" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="I328" s="15"/>
-      <c r="J328" s="16" t="s">
+      <c r="I328" s="2"/>
+      <c r="J328" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="K328" s="15"/>
-      <c r="L328" s="16" t="s">
+      <c r="K328" s="2"/>
+      <c r="L328" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="M328" s="15"/>
+      <c r="M328" s="5"/>
+      <c r="N328" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O328" s="2"/>
     </row>
     <row r="329" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A329" s="3" t="s">
+      <c r="A329" s="10" t="s">
         <v>324</v>
       </c>
       <c r="B329" s="4">
         <v>9</v>
       </c>
-      <c r="C329" s="13" t="s">
+      <c r="C329" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D329" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E329" s="16" t="s">
+      <c r="D329" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E329" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="F329" s="14" t="s">
+      <c r="F329" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G329" s="16" t="s">
+      <c r="G329" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="H329" s="16" t="s">
+      <c r="H329" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I329" s="15"/>
-      <c r="J329" s="16" t="s">
+      <c r="I329" s="2"/>
+      <c r="J329" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K329" s="15"/>
-      <c r="L329" s="16" t="s">
+      <c r="K329" s="2"/>
+      <c r="L329" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="M329" s="15"/>
+      <c r="M329" s="5"/>
+      <c r="N329" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O329" s="2"/>
     </row>
     <row r="330" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A330" s="3" t="s">
+      <c r="A330" s="10" t="s">
         <v>324</v>
       </c>
       <c r="B330" s="4">
         <v>9</v>
       </c>
-      <c r="C330" s="13" t="s">
+      <c r="C330" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D330" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E330" s="16" t="s">
+      <c r="D330" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E330" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="F330" s="14" t="s">
+      <c r="F330" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G330" s="16" t="s">
+      <c r="G330" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="H330" s="16" t="s">
+      <c r="H330" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I330" s="15"/>
-      <c r="J330" s="16" t="s">
+      <c r="I330" s="2"/>
+      <c r="J330" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="K330" s="15"/>
-      <c r="L330" s="16" t="s">
+      <c r="K330" s="2"/>
+      <c r="L330" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="M330" s="15"/>
+      <c r="M330" s="5"/>
+      <c r="N330" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O330" s="2"/>
     </row>
     <row r="331" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A331" s="3" t="s">
+      <c r="A331" s="10" t="s">
         <v>330</v>
       </c>
       <c r="B331" s="4">
         <v>9</v>
       </c>
-      <c r="C331" s="13" t="s">
+      <c r="C331" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D331" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E331" s="16" t="s">
+      <c r="D331" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E331" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="F331" s="14" t="s">
+      <c r="F331" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G331" s="16" t="s">
+      <c r="G331" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="H331" s="16" t="s">
+      <c r="H331" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I331" s="16" t="s">
+      <c r="I331" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J331" s="16" t="s">
+      <c r="J331" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="K331" s="16" t="s">
+      <c r="K331" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="L331" s="15"/>
-      <c r="M331" s="15"/>
+      <c r="L331" s="5"/>
+      <c r="M331" s="5"/>
+      <c r="N331" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O331" s="2"/>
     </row>
     <row r="332" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A332" s="3" t="s">
+      <c r="A332" s="10" t="s">
         <v>330</v>
       </c>
       <c r="B332" s="4">
         <v>9</v>
       </c>
-      <c r="C332" s="13" t="s">
+      <c r="C332" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="D332" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E332" s="16" t="s">
+      <c r="D332" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E332" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="F332" s="14" t="s">
+      <c r="F332" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G332" s="16" t="s">
+      <c r="G332" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="H332" s="16" t="s">
+      <c r="H332" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I332" s="16" t="s">
+      <c r="I332" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J332" s="16" t="s">
+      <c r="J332" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="K332" s="16" t="s">
+      <c r="K332" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="L332" s="15"/>
-      <c r="M332" s="15"/>
+      <c r="L332" s="5"/>
+      <c r="M332" s="5"/>
+      <c r="N332" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O332" s="2"/>
     </row>
     <row r="333" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A333" s="3" t="s">
+      <c r="A333" s="10" t="s">
         <v>330</v>
       </c>
       <c r="B333" s="4">
         <v>9</v>
       </c>
-      <c r="C333" s="13" t="s">
+      <c r="C333" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D333" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E333" s="16" t="s">
+      <c r="D333" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E333" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="F333" s="14" t="s">
+      <c r="F333" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G333" s="16" t="s">
+      <c r="G333" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="H333" s="16" t="s">
+      <c r="H333" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="I333" s="16" t="s">
+      <c r="I333" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="J333" s="16" t="s">
+      <c r="J333" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="K333" s="16" t="s">
+      <c r="K333" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="L333" s="15"/>
-      <c r="M333" s="15"/>
+      <c r="L333" s="5"/>
+      <c r="M333" s="5"/>
+      <c r="N333" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O333" s="2"/>
     </row>
     <row r="334" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A334" s="3" t="s">
+      <c r="A334" s="10" t="s">
         <v>330</v>
       </c>
       <c r="B334" s="4">
         <v>9</v>
       </c>
-      <c r="C334" s="13" t="s">
+      <c r="C334" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D334" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E334" s="16" t="s">
+      <c r="D334" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E334" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="F334" s="14" t="s">
+      <c r="F334" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G334" s="16" t="s">
+      <c r="G334" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="H334" s="16" t="s">
+      <c r="H334" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I334" s="16" t="s">
+      <c r="I334" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J334" s="16" t="s">
+      <c r="J334" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="K334" s="16" t="s">
+      <c r="K334" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="L334" s="15"/>
-      <c r="M334" s="15"/>
+      <c r="L334" s="5"/>
+      <c r="M334" s="5"/>
+      <c r="N334" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O334" s="2"/>
     </row>
     <row r="335" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A335" s="3" t="s">
+      <c r="A335" s="10" t="s">
         <v>330</v>
       </c>
       <c r="B335" s="4">
         <v>9</v>
       </c>
-      <c r="C335" s="13" t="s">
+      <c r="C335" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D335" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E335" s="16" t="s">
+      <c r="D335" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E335" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="F335" s="14" t="s">
+      <c r="F335" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G335" s="16" t="s">
+      <c r="G335" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="H335" s="16" t="s">
+      <c r="H335" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I335" s="16" t="s">
+      <c r="I335" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J335" s="16" t="s">
+      <c r="J335" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K335" s="16" t="s">
+      <c r="K335" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L335" s="15"/>
-      <c r="M335" s="15"/>
+      <c r="L335" s="5"/>
+      <c r="M335" s="5"/>
+      <c r="N335" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O335" s="2"/>
     </row>
     <row r="336" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A336" s="3" t="s">
+      <c r="A336" s="10" t="s">
         <v>330</v>
       </c>
       <c r="B336" s="4">
         <v>9</v>
       </c>
-      <c r="C336" s="13" t="s">
+      <c r="C336" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D336" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E336" s="16" t="s">
+      <c r="D336" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E336" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="F336" s="14" t="s">
+      <c r="F336" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G336" s="16" t="s">
+      <c r="G336" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="H336" s="16" t="s">
+      <c r="H336" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I336" s="16" t="s">
+      <c r="I336" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J336" s="16" t="s">
+      <c r="J336" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="K336" s="16" t="s">
+      <c r="K336" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="L336" s="15"/>
-      <c r="M336" s="15"/>
+      <c r="L336" s="5"/>
+      <c r="M336" s="5"/>
+      <c r="N336" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O336" s="2"/>
     </row>
     <row r="337" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A337" s="3" t="s">
+      <c r="A337" s="10" t="s">
         <v>330</v>
       </c>
       <c r="B337" s="4">
         <v>9</v>
       </c>
-      <c r="C337" s="13" t="s">
+      <c r="C337" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D337" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E337" s="16" t="s">
+      <c r="D337" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E337" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="F337" s="14" t="s">
+      <c r="F337" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G337" s="16" t="s">
+      <c r="G337" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="H337" s="16" t="s">
+      <c r="H337" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="I337" s="16" t="s">
+      <c r="I337" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J337" s="16" t="s">
+      <c r="J337" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="K337" s="16" t="s">
+      <c r="K337" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="L337" s="15"/>
-      <c r="M337" s="15"/>
+      <c r="L337" s="5"/>
+      <c r="M337" s="5"/>
+      <c r="N337" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O337" s="2"/>
     </row>
     <row r="338" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A338" s="3" t="s">
+      <c r="A338" s="10" t="s">
         <v>330</v>
       </c>
       <c r="B338" s="4">
         <v>9</v>
       </c>
-      <c r="C338" s="13" t="s">
+      <c r="C338" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="D338" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E338" s="16" t="s">
+      <c r="D338" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E338" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="F338" s="14" t="s">
+      <c r="F338" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G338" s="16" t="s">
+      <c r="G338" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="H338" s="16" t="s">
+      <c r="H338" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I338" s="16" t="s">
+      <c r="I338" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J338" s="16" t="s">
+      <c r="J338" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="K338" s="16" t="s">
+      <c r="K338" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L338" s="15"/>
-      <c r="M338" s="15"/>
+      <c r="L338" s="5"/>
+      <c r="M338" s="5"/>
+      <c r="N338" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O338" s="2"/>
     </row>
     <row r="339" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A339" s="3" t="s">
+      <c r="A339" s="10" t="s">
         <v>330</v>
       </c>
       <c r="B339" s="4">
         <v>9</v>
       </c>
-      <c r="C339" s="13" t="s">
+      <c r="C339" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D339" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E339" s="16" t="s">
+      <c r="D339" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E339" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="F339" s="14" t="s">
+      <c r="F339" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G339" s="16" t="s">
+      <c r="G339" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="H339" s="16" t="s">
+      <c r="H339" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="I339" s="16" t="s">
+      <c r="I339" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J339" s="16" t="s">
+      <c r="J339" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="K339" s="16" t="s">
+      <c r="K339" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="L339" s="15"/>
-      <c r="M339" s="15"/>
+      <c r="L339" s="5"/>
+      <c r="M339" s="5"/>
+      <c r="N339" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O339" s="2"/>
     </row>
     <row r="340" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A340" s="3" t="s">
+      <c r="A340" s="10" t="s">
         <v>330</v>
       </c>
       <c r="B340" s="4">
         <v>9</v>
       </c>
-      <c r="C340" s="13" t="s">
+      <c r="C340" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D340" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E340" s="16" t="s">
+      <c r="D340" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E340" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="F340" s="14" t="s">
+      <c r="F340" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G340" s="16" t="s">
+      <c r="G340" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="H340" s="16" t="s">
+      <c r="H340" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I340" s="16" t="s">
+      <c r="I340" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J340" s="16" t="s">
+      <c r="J340" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K340" s="16" t="s">
+      <c r="K340" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L340" s="15"/>
-      <c r="M340" s="15"/>
+      <c r="L340" s="5"/>
+      <c r="M340" s="5"/>
+      <c r="N340" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O340" s="2"/>
     </row>
     <row r="341" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A341" s="3" t="s">
+      <c r="A341" s="10" t="s">
         <v>358</v>
       </c>
       <c r="B341" s="4">
         <v>9</v>
       </c>
-      <c r="C341" s="13" t="s">
+      <c r="C341" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D341" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E341" s="16" t="s">
+      <c r="D341" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E341" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="F341" s="14" t="s">
+      <c r="F341" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G341" s="16" t="s">
+      <c r="G341" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="H341" s="16" t="s">
+      <c r="H341" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I341" s="15"/>
-      <c r="J341" s="16" t="s">
+      <c r="I341" s="2"/>
+      <c r="J341" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="K341" s="15"/>
-      <c r="L341" s="16" t="s">
+      <c r="K341" s="2"/>
+      <c r="L341" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="M341" s="15"/>
+      <c r="M341" s="5"/>
+      <c r="N341" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O341" s="2"/>
     </row>
     <row r="342" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A342" s="3" t="s">
+      <c r="A342" s="10" t="s">
         <v>358</v>
       </c>
       <c r="B342" s="4">
         <v>9</v>
       </c>
-      <c r="C342" s="13" t="s">
+      <c r="C342" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D342" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E342" s="16" t="s">
+      <c r="D342" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E342" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="F342" s="14" t="s">
+      <c r="F342" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G342" s="16" t="s">
+      <c r="G342" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="H342" s="16" t="s">
+      <c r="H342" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I342" s="15"/>
-      <c r="J342" s="16" t="s">
+      <c r="I342" s="2"/>
+      <c r="J342" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="K342" s="15"/>
-      <c r="L342" s="16" t="s">
+      <c r="K342" s="2"/>
+      <c r="L342" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="M342" s="15"/>
+      <c r="M342" s="5"/>
+      <c r="N342" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O342" s="2"/>
     </row>
     <row r="343" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A343" s="3" t="s">
+      <c r="A343" s="10" t="s">
         <v>365</v>
       </c>
       <c r="B343" s="4">
         <v>9</v>
       </c>
-      <c r="C343" s="13" t="s">
+      <c r="C343" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="D343" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E343" s="16" t="s">
+      <c r="D343" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E343" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="F343" s="14" t="s">
+      <c r="F343" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G343" s="16" t="s">
+      <c r="G343" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="H343" s="16" t="s">
+      <c r="H343" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I343" s="15"/>
-      <c r="J343" s="16" t="s">
+      <c r="I343" s="2"/>
+      <c r="J343" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="K343" s="15"/>
-      <c r="L343" s="16" t="s">
+      <c r="K343" s="2"/>
+      <c r="L343" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="M343" s="15"/>
+      <c r="M343" s="5"/>
+      <c r="N343" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O343" s="2"/>
     </row>
     <row r="344" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A344" s="3" t="s">
+      <c r="A344" s="10" t="s">
         <v>358</v>
       </c>
       <c r="B344" s="4">
         <v>9</v>
       </c>
-      <c r="C344" s="13" t="s">
+      <c r="C344" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D344" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E344" s="16" t="s">
+      <c r="D344" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E344" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="F344" s="14" t="s">
+      <c r="F344" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G344" s="16" t="s">
+      <c r="G344" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="H344" s="16" t="s">
+      <c r="H344" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I344" s="15"/>
-      <c r="J344" s="16" t="s">
+      <c r="I344" s="2"/>
+      <c r="J344" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K344" s="15"/>
-      <c r="L344" s="16" t="s">
+      <c r="K344" s="2"/>
+      <c r="L344" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="M344" s="15"/>
+      <c r="M344" s="5"/>
+      <c r="N344" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O344" s="2"/>
     </row>
     <row r="345" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A345" s="3" t="s">
+      <c r="A345" s="10" t="s">
         <v>358</v>
       </c>
       <c r="B345" s="4">
         <v>9</v>
       </c>
-      <c r="C345" s="13" t="s">
+      <c r="C345" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D345" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E345" s="16" t="s">
+      <c r="D345" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E345" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="F345" s="14" t="s">
+      <c r="F345" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G345" s="16" t="s">
+      <c r="G345" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="H345" s="16" t="s">
+      <c r="H345" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I345" s="15"/>
-      <c r="J345" s="16" t="s">
+      <c r="I345" s="2"/>
+      <c r="J345" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="K345" s="15"/>
-      <c r="L345" s="16" t="s">
+      <c r="K345" s="2"/>
+      <c r="L345" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="M345" s="15"/>
+      <c r="M345" s="5"/>
+      <c r="N345" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O345" s="2"/>
     </row>
     <row r="346" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A346" s="3" t="s">
+      <c r="A346" s="10" t="s">
         <v>358</v>
       </c>
       <c r="B346" s="4">
         <v>9</v>
       </c>
-      <c r="C346" s="13" t="s">
+      <c r="C346" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D346" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E346" s="16" t="s">
+      <c r="D346" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E346" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="F346" s="14" t="s">
+      <c r="F346" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G346" s="16" t="s">
+      <c r="G346" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="H346" s="16" t="s">
+      <c r="H346" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I346" s="15"/>
-      <c r="J346" s="16" t="s">
+      <c r="I346" s="2"/>
+      <c r="J346" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K346" s="15"/>
-      <c r="L346" s="16" t="s">
+      <c r="K346" s="2"/>
+      <c r="L346" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="M346" s="15"/>
+      <c r="M346" s="5"/>
+      <c r="N346" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O346" s="2"/>
     </row>
     <row r="347" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A347" s="3" t="s">
+      <c r="A347" s="10" t="s">
         <v>376</v>
       </c>
       <c r="B347" s="4">
         <v>9</v>
       </c>
-      <c r="C347" s="13" t="s">
+      <c r="C347" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D347" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E347" s="16" t="s">
+      <c r="D347" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E347" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="F347" s="14" t="s">
+      <c r="F347" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G347" s="16" t="s">
+      <c r="G347" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="H347" s="16" t="s">
+      <c r="H347" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="I347" s="16" t="s">
+      <c r="I347" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J347" s="16" t="s">
+      <c r="J347" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="K347" s="16" t="s">
+      <c r="K347" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="L347" s="15"/>
-      <c r="M347" s="15"/>
+      <c r="L347" s="5"/>
+      <c r="M347" s="5"/>
+      <c r="N347" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O347" s="2"/>
     </row>
     <row r="348" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A348" s="3" t="s">
+      <c r="A348" s="10" t="s">
         <v>376</v>
       </c>
       <c r="B348" s="4">
         <v>9</v>
       </c>
-      <c r="C348" s="13" t="s">
+      <c r="C348" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D348" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E348" s="16" t="s">
+      <c r="D348" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E348" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="F348" s="14" t="s">
+      <c r="F348" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G348" s="16" t="s">
+      <c r="G348" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="H348" s="15"/>
-      <c r="I348" s="16" t="s">
+      <c r="H348" s="4"/>
+      <c r="I348" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="J348" s="15"/>
-      <c r="K348" s="16" t="s">
+      <c r="J348" s="8"/>
+      <c r="K348" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="L348" s="15"/>
-      <c r="M348" s="15"/>
+      <c r="L348" s="5"/>
+      <c r="M348" s="5"/>
+      <c r="N348" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O348" s="2"/>
     </row>
     <row r="349" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A349" s="3" t="s">
+      <c r="A349" s="10" t="s">
         <v>382</v>
       </c>
       <c r="B349" s="4">
         <v>9</v>
       </c>
-      <c r="C349" s="13" t="s">
+      <c r="C349" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D349" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E349" s="16" t="s">
+      <c r="D349" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E349" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="F349" s="14" t="s">
+      <c r="F349" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G349" s="16" t="s">
+      <c r="G349" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="H349" s="16" t="s">
+      <c r="H349" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I349" s="15"/>
-      <c r="J349" s="16" t="s">
+      <c r="I349" s="2"/>
+      <c r="J349" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K349" s="15"/>
-      <c r="L349" s="16" t="s">
+      <c r="K349" s="2"/>
+      <c r="L349" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="M349" s="15"/>
+      <c r="M349" s="5"/>
+      <c r="N349" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O349" s="2"/>
     </row>
     <row r="350" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A350" s="3" t="s">
+      <c r="A350" s="10" t="s">
         <v>382</v>
       </c>
       <c r="B350" s="4">
         <v>9</v>
       </c>
-      <c r="C350" s="13" t="s">
+      <c r="C350" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D350" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E350" s="16" t="s">
+      <c r="D350" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E350" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="F350" s="14" t="s">
+      <c r="F350" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G350" s="16" t="s">
+      <c r="G350" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="H350" s="15"/>
-      <c r="I350" s="16" t="s">
+      <c r="H350" s="4"/>
+      <c r="I350" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="J350" s="15"/>
-      <c r="K350" s="16" t="s">
+      <c r="J350" s="8"/>
+      <c r="K350" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="L350" s="15"/>
-      <c r="M350" s="15"/>
+      <c r="L350" s="5"/>
+      <c r="M350" s="5"/>
+      <c r="N350" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O350" s="2"/>
     </row>
     <row r="351" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A351" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="B351" s="4">
-        <v>9</v>
-      </c>
-      <c r="C351" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D351" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E351" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="F351" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G351" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="H351" s="15"/>
-      <c r="I351" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="J351" s="15"/>
-      <c r="K351" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="L351" s="15"/>
+      <c r="A351" s="3"/>
       <c r="O351" s="2"/>
     </row>
     <row r="352" spans="1:15" ht="14.25" customHeight="1">
@@ -16571,56 +16834,66 @@
     <row r="368" spans="1:15" ht="14.25" customHeight="1">
       <c r="O368" s="2"/>
     </row>
-    <row r="369" spans="15:15" ht="14.25" customHeight="1">
+    <row r="369" spans="1:15" ht="14.25" customHeight="1">
       <c r="O369" s="2"/>
     </row>
-    <row r="370" spans="15:15" ht="14.25" customHeight="1">
+    <row r="370" spans="1:15" ht="14.25" customHeight="1">
       <c r="O370" s="2"/>
     </row>
-    <row r="371" spans="15:15" ht="14.25" customHeight="1">
+    <row r="371" spans="1:15" ht="14.25" customHeight="1">
       <c r="O371" s="2"/>
     </row>
-    <row r="372" spans="15:15" ht="14.25" customHeight="1">
+    <row r="372" spans="1:15" ht="14.25" customHeight="1">
       <c r="O372" s="2"/>
     </row>
-    <row r="373" spans="15:15" ht="14.25" customHeight="1">
+    <row r="373" spans="1:15" ht="14.25" customHeight="1">
       <c r="O373" s="2"/>
     </row>
-    <row r="374" spans="15:15" ht="14.25" customHeight="1">
+    <row r="374" spans="1:15" ht="14.25" customHeight="1">
       <c r="O374" s="2"/>
     </row>
-    <row r="375" spans="15:15" ht="14.25" customHeight="1">
+    <row r="375" spans="1:15" ht="14.25" customHeight="1">
       <c r="O375" s="2"/>
     </row>
-    <row r="376" spans="15:15" ht="14.25" customHeight="1">
+    <row r="376" spans="1:15" ht="14.25" customHeight="1">
       <c r="O376" s="2"/>
     </row>
-    <row r="377" spans="15:15" ht="14.25" customHeight="1">
+    <row r="377" spans="1:15" ht="14.25" customHeight="1">
       <c r="O377" s="2"/>
     </row>
-    <row r="378" spans="15:15" ht="14.25" customHeight="1"/>
-    <row r="379" spans="15:15" ht="14.25" customHeight="1"/>
-    <row r="380" spans="15:15" ht="14.25" customHeight="1"/>
-    <row r="381" spans="15:15" ht="14.25" customHeight="1"/>
-    <row r="382" spans="15:15" ht="14.25" customHeight="1"/>
-    <row r="383" spans="15:15" ht="14.25" customHeight="1"/>
-    <row r="384" spans="15:15" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="378" spans="1:15" ht="14.25" customHeight="1"/>
+    <row r="379" spans="1:15" ht="14.25" customHeight="1"/>
+    <row r="380" spans="1:15" ht="14.25" customHeight="1"/>
+    <row r="381" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A381" s="2"/>
+    </row>
+    <row r="382" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A382" s="2"/>
+    </row>
+    <row r="383" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A383" s="2"/>
+    </row>
+    <row r="384" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A384" s="9"/>
+    </row>
+    <row r="385" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A385" s="9"/>
+    </row>
+    <row r="386" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="387" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="388" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="389" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="390" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="391" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="392" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="393" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="394" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="395" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="396" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="397" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="398" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="399" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="400" spans="1:1" ht="14.25" customHeight="1"/>
     <row r="401" ht="14.25" customHeight="1"/>
     <row r="402" ht="14.25" customHeight="1"/>
     <row r="403" ht="14.25" customHeight="1"/>

--- a/public/archivos/HorariosCompletos.xlsx
+++ b/public/archivos/HorariosCompletos.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22724"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0ABB02F-DDDA-4153-8703-EB8B8E266BCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\10° Semestre\Integrador-Horarios\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1197,8 +1201,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1515,26 +1519,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="A313" sqref="A313"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="E244" sqref="E244"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.5" customWidth="1"/>
-    <col min="2" max="2" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" customWidth="1"/>
     <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="4.375" customWidth="1"/>
-    <col min="5" max="12" width="9.375" customWidth="1"/>
-    <col min="13" max="13" width="7.125" customWidth="1"/>
-    <col min="14" max="14" width="14.125" customWidth="1"/>
-    <col min="15" max="26" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="4.3984375" customWidth="1"/>
+    <col min="5" max="12" width="9.3984375" customWidth="1"/>
+    <col min="13" max="13" width="7.09765625" customWidth="1"/>
+    <col min="14" max="14" width="14.09765625" customWidth="1"/>
+    <col min="15" max="26" width="9.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" customHeight="1">
+    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1579,7 +1583,7 @@
       </c>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="14.25" customHeight="1">
+    <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -1624,7 +1628,7 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="14.25" customHeight="1">
+    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
@@ -1669,7 +1673,7 @@
       </c>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" ht="14.25" customHeight="1">
+    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
@@ -1714,7 +1718,7 @@
       </c>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" ht="14.25" customHeight="1">
+    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
@@ -1759,7 +1763,7 @@
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="14.25" customHeight="1">
+    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
@@ -1804,7 +1808,7 @@
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="14.25" customHeight="1">
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
@@ -1849,7 +1853,7 @@
       </c>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="14.25" customHeight="1">
+    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -1894,7 +1898,7 @@
       </c>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1">
+    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -1939,7 +1943,7 @@
       </c>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="14.25" customHeight="1">
+    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
@@ -1984,7 +1988,7 @@
       </c>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1">
+    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
@@ -2029,7 +2033,7 @@
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1">
+    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
@@ -2074,7 +2078,7 @@
       </c>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1">
+    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
@@ -2119,7 +2123,7 @@
       </c>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="14.25" customHeight="1">
+    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
@@ -2164,7 +2168,7 @@
       </c>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
@@ -2209,7 +2213,7 @@
       </c>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="14.25" customHeight="1">
+    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
@@ -2254,7 +2258,7 @@
       </c>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="14.25" customHeight="1">
+    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -2299,7 +2303,7 @@
       </c>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1">
+    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
@@ -2344,7 +2348,7 @@
       </c>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="14.25" customHeight="1">
+    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>14</v>
       </c>
@@ -2389,7 +2393,7 @@
       </c>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1">
+    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>14</v>
       </c>
@@ -2434,7 +2438,7 @@
       </c>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="14.25" customHeight="1">
+    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>14</v>
       </c>
@@ -2479,7 +2483,7 @@
       </c>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="14.25" customHeight="1">
+    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>14</v>
       </c>
@@ -2524,7 +2528,7 @@
       </c>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="14.25" customHeight="1">
+    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>14</v>
       </c>
@@ -2569,7 +2573,7 @@
       </c>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="14.25" customHeight="1">
+    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>14</v>
       </c>
@@ -2614,7 +2618,7 @@
       </c>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="14.25" customHeight="1">
+    <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>14</v>
       </c>
@@ -2659,7 +2663,7 @@
       </c>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="14.25" customHeight="1">
+    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>14</v>
       </c>
@@ -2704,7 +2708,7 @@
       </c>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="14.25" customHeight="1">
+    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>14</v>
       </c>
@@ -2749,7 +2753,7 @@
       </c>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="14.25" customHeight="1">
+    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>14</v>
       </c>
@@ -2794,7 +2798,7 @@
       </c>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" ht="14.25" customHeight="1">
+    <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>14</v>
       </c>
@@ -2839,7 +2843,7 @@
       </c>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="14.25" customHeight="1">
+    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>68</v>
       </c>
@@ -2884,7 +2888,7 @@
       </c>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="14.25" customHeight="1">
+    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>68</v>
       </c>
@@ -2929,7 +2933,7 @@
       </c>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="14.25" customHeight="1">
+    <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>68</v>
       </c>
@@ -2974,7 +2978,7 @@
       </c>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" ht="14.25" customHeight="1">
+    <row r="33" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>68</v>
       </c>
@@ -3019,7 +3023,7 @@
       </c>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="14.25" customHeight="1">
+    <row r="34" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>68</v>
       </c>
@@ -3064,7 +3068,7 @@
       </c>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" ht="14.25" customHeight="1">
+    <row r="35" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>68</v>
       </c>
@@ -3109,7 +3113,7 @@
       </c>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" ht="14.25" customHeight="1">
+    <row r="36" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>68</v>
       </c>
@@ -3154,7 +3158,7 @@
       </c>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="14.25" customHeight="1">
+    <row r="37" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>68</v>
       </c>
@@ -3199,7 +3203,7 @@
       </c>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" ht="14.25" customHeight="1">
+    <row r="38" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>68</v>
       </c>
@@ -3244,7 +3248,7 @@
       </c>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" ht="14.25" customHeight="1">
+    <row r="39" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>68</v>
       </c>
@@ -3289,7 +3293,7 @@
       </c>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" ht="14.25" customHeight="1">
+    <row r="40" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>68</v>
       </c>
@@ -3334,7 +3338,7 @@
       </c>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" ht="14.25" customHeight="1">
+    <row r="41" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>68</v>
       </c>
@@ -3379,7 +3383,7 @@
       </c>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" ht="14.25" customHeight="1">
+    <row r="42" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>68</v>
       </c>
@@ -3424,7 +3428,7 @@
       </c>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" ht="14.25" customHeight="1">
+    <row r="43" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>68</v>
       </c>
@@ -3469,7 +3473,7 @@
       </c>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="1:15" ht="14.25" customHeight="1">
+    <row r="44" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>68</v>
       </c>
@@ -3514,7 +3518,7 @@
       </c>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="1:15" ht="14.25" customHeight="1">
+    <row r="45" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>68</v>
       </c>
@@ -3559,7 +3563,7 @@
       </c>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:15" ht="14.25" customHeight="1">
+    <row r="46" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>68</v>
       </c>
@@ -3604,7 +3608,7 @@
       </c>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="1:15" ht="14.25" customHeight="1">
+    <row r="47" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>68</v>
       </c>
@@ -3649,7 +3653,7 @@
       </c>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="14.25" customHeight="1">
+    <row r="48" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>68</v>
       </c>
@@ -3694,7 +3698,7 @@
       </c>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="1:15" ht="14.25" customHeight="1">
+    <row r="49" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>68</v>
       </c>
@@ -3739,7 +3743,7 @@
       </c>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="1:15" ht="14.25" customHeight="1">
+    <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>68</v>
       </c>
@@ -3784,7 +3788,7 @@
       </c>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="1:15" ht="14.25" customHeight="1">
+    <row r="51" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>68</v>
       </c>
@@ -3829,7 +3833,7 @@
       </c>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="1:15" ht="14.25" customHeight="1">
+    <row r="52" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>68</v>
       </c>
@@ -3874,7 +3878,7 @@
       </c>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="1:15" ht="14.25" customHeight="1">
+    <row r="53" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>68</v>
       </c>
@@ -3919,7 +3923,7 @@
       </c>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="1:15" ht="14.25" customHeight="1">
+    <row r="54" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>68</v>
       </c>
@@ -3964,7 +3968,7 @@
       </c>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="1:15" ht="14.25" customHeight="1">
+    <row r="55" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>68</v>
       </c>
@@ -4009,7 +4013,7 @@
       </c>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="1:15" ht="14.25" customHeight="1">
+    <row r="56" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>68</v>
       </c>
@@ -4054,7 +4058,7 @@
       </c>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="1:15" ht="14.25" customHeight="1">
+    <row r="57" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>68</v>
       </c>
@@ -4099,7 +4103,7 @@
       </c>
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="1:15" ht="14.25" customHeight="1">
+    <row r="58" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>68</v>
       </c>
@@ -4144,7 +4148,7 @@
       </c>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="1:15" ht="14.25" customHeight="1">
+    <row r="59" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>68</v>
       </c>
@@ -4189,7 +4193,7 @@
       </c>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="1:15" ht="14.25" customHeight="1">
+    <row r="60" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>68</v>
       </c>
@@ -4234,7 +4238,7 @@
       </c>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="1:15" ht="14.25" customHeight="1">
+    <row r="61" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>68</v>
       </c>
@@ -4279,7 +4283,7 @@
       </c>
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="1:15" ht="14.25" customHeight="1">
+    <row r="62" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>68</v>
       </c>
@@ -4324,7 +4328,7 @@
       </c>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="1:15" ht="14.25" customHeight="1">
+    <row r="63" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>68</v>
       </c>
@@ -4369,7 +4373,7 @@
       </c>
       <c r="O63" s="2"/>
     </row>
-    <row r="64" spans="1:15" ht="14.25" customHeight="1">
+    <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>68</v>
       </c>
@@ -4414,7 +4418,7 @@
       </c>
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="1:15" ht="14.25" customHeight="1">
+    <row r="65" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>68</v>
       </c>
@@ -4459,7 +4463,7 @@
       </c>
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="1:15" ht="14.25" customHeight="1">
+    <row r="66" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>68</v>
       </c>
@@ -4504,7 +4508,7 @@
       </c>
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="1:15" ht="14.25" customHeight="1">
+    <row r="67" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>68</v>
       </c>
@@ -4549,7 +4553,7 @@
       </c>
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="1:15" ht="14.25" customHeight="1">
+    <row r="68" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>68</v>
       </c>
@@ -4594,7 +4598,7 @@
       </c>
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="1:15" ht="14.25" customHeight="1">
+    <row r="69" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>68</v>
       </c>
@@ -4639,7 +4643,7 @@
       </c>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="1:15" ht="14.25" customHeight="1">
+    <row r="70" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>68</v>
       </c>
@@ -4684,7 +4688,7 @@
       </c>
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="1:15" ht="14.25" customHeight="1">
+    <row r="71" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>68</v>
       </c>
@@ -4729,7 +4733,7 @@
       </c>
       <c r="O71" s="2"/>
     </row>
-    <row r="72" spans="1:15" ht="14.25" customHeight="1">
+    <row r="72" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>68</v>
       </c>
@@ -4774,7 +4778,7 @@
       </c>
       <c r="O72" s="2"/>
     </row>
-    <row r="73" spans="1:15" ht="14.25" customHeight="1">
+    <row r="73" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>68</v>
       </c>
@@ -4819,7 +4823,7 @@
       </c>
       <c r="O73" s="2"/>
     </row>
-    <row r="74" spans="1:15" ht="14.25" customHeight="1">
+    <row r="74" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>94</v>
       </c>
@@ -4864,7 +4868,7 @@
       </c>
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="1:15" ht="14.25" customHeight="1">
+    <row r="75" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>94</v>
       </c>
@@ -4909,7 +4913,7 @@
       </c>
       <c r="O75" s="2"/>
     </row>
-    <row r="76" spans="1:15" ht="14.25" customHeight="1">
+    <row r="76" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>94</v>
       </c>
@@ -4954,7 +4958,7 @@
       </c>
       <c r="O76" s="2"/>
     </row>
-    <row r="77" spans="1:15" ht="14.25" customHeight="1">
+    <row r="77" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>94</v>
       </c>
@@ -4999,7 +5003,7 @@
       </c>
       <c r="O77" s="2"/>
     </row>
-    <row r="78" spans="1:15" ht="14.25" customHeight="1">
+    <row r="78" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>94</v>
       </c>
@@ -5044,7 +5048,7 @@
       </c>
       <c r="O78" s="2"/>
     </row>
-    <row r="79" spans="1:15" ht="14.25" customHeight="1">
+    <row r="79" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>94</v>
       </c>
@@ -5089,7 +5093,7 @@
       </c>
       <c r="O79" s="2"/>
     </row>
-    <row r="80" spans="1:15" ht="14.25" customHeight="1">
+    <row r="80" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>94</v>
       </c>
@@ -5134,7 +5138,7 @@
       </c>
       <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="1:15" ht="14.25" customHeight="1">
+    <row r="81" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>94</v>
       </c>
@@ -5179,7 +5183,7 @@
       </c>
       <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="1:15" ht="14.25" customHeight="1">
+    <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>94</v>
       </c>
@@ -5224,7 +5228,7 @@
       </c>
       <c r="O82" s="2"/>
     </row>
-    <row r="83" spans="1:15" ht="14.25" customHeight="1">
+    <row r="83" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>94</v>
       </c>
@@ -5269,7 +5273,7 @@
       </c>
       <c r="O83" s="2"/>
     </row>
-    <row r="84" spans="1:15" ht="14.25" customHeight="1">
+    <row r="84" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>94</v>
       </c>
@@ -5314,7 +5318,7 @@
       </c>
       <c r="O84" s="2"/>
     </row>
-    <row r="85" spans="1:15" ht="14.25" customHeight="1">
+    <row r="85" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>94</v>
       </c>
@@ -5359,7 +5363,7 @@
       </c>
       <c r="O85" s="2"/>
     </row>
-    <row r="86" spans="1:15" ht="14.25" customHeight="1">
+    <row r="86" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>94</v>
       </c>
@@ -5404,7 +5408,7 @@
       </c>
       <c r="O86" s="2"/>
     </row>
-    <row r="87" spans="1:15" ht="14.25" customHeight="1">
+    <row r="87" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>94</v>
       </c>
@@ -5449,7 +5453,7 @@
       </c>
       <c r="O87" s="2"/>
     </row>
-    <row r="88" spans="1:15" ht="14.25" customHeight="1">
+    <row r="88" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>94</v>
       </c>
@@ -5494,7 +5498,7 @@
       </c>
       <c r="O88" s="2"/>
     </row>
-    <row r="89" spans="1:15" ht="14.25" customHeight="1">
+    <row r="89" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>94</v>
       </c>
@@ -5539,7 +5543,7 @@
       </c>
       <c r="O89" s="2"/>
     </row>
-    <row r="90" spans="1:15" ht="14.25" customHeight="1">
+    <row r="90" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>94</v>
       </c>
@@ -5584,7 +5588,7 @@
       </c>
       <c r="O90" s="2"/>
     </row>
-    <row r="91" spans="1:15" ht="14.25" customHeight="1">
+    <row r="91" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>94</v>
       </c>
@@ -5629,7 +5633,7 @@
       </c>
       <c r="O91" s="2"/>
     </row>
-    <row r="92" spans="1:15" ht="14.25" customHeight="1">
+    <row r="92" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>94</v>
       </c>
@@ -5674,7 +5678,7 @@
       </c>
       <c r="O92" s="2"/>
     </row>
-    <row r="93" spans="1:15" ht="14.25" customHeight="1">
+    <row r="93" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>94</v>
       </c>
@@ -5719,7 +5723,7 @@
       </c>
       <c r="O93" s="2"/>
     </row>
-    <row r="94" spans="1:15" ht="14.25" customHeight="1">
+    <row r="94" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>94</v>
       </c>
@@ -5764,7 +5768,7 @@
       </c>
       <c r="O94" s="2"/>
     </row>
-    <row r="95" spans="1:15" ht="14.25" customHeight="1">
+    <row r="95" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>94</v>
       </c>
@@ -5809,7 +5813,7 @@
       </c>
       <c r="O95" s="2"/>
     </row>
-    <row r="96" spans="1:15" ht="14.25" customHeight="1">
+    <row r="96" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>94</v>
       </c>
@@ -5854,7 +5858,7 @@
       </c>
       <c r="O96" s="2"/>
     </row>
-    <row r="97" spans="1:15" ht="14.25" customHeight="1">
+    <row r="97" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>94</v>
       </c>
@@ -5899,7 +5903,7 @@
       </c>
       <c r="O97" s="2"/>
     </row>
-    <row r="98" spans="1:15" ht="14.25" customHeight="1">
+    <row r="98" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>94</v>
       </c>
@@ -5944,7 +5948,7 @@
       </c>
       <c r="O98" s="2"/>
     </row>
-    <row r="99" spans="1:15" ht="14.25" customHeight="1">
+    <row r="99" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>94</v>
       </c>
@@ -5989,7 +5993,7 @@
       </c>
       <c r="O99" s="2"/>
     </row>
-    <row r="100" spans="1:15" ht="14.25" customHeight="1">
+    <row r="100" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>94</v>
       </c>
@@ -6034,7 +6038,7 @@
       </c>
       <c r="O100" s="2"/>
     </row>
-    <row r="101" spans="1:15" ht="14.25" customHeight="1">
+    <row r="101" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>94</v>
       </c>
@@ -6079,7 +6083,7 @@
       </c>
       <c r="O101" s="2"/>
     </row>
-    <row r="102" spans="1:15" ht="14.25" customHeight="1">
+    <row r="102" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>94</v>
       </c>
@@ -6124,7 +6128,7 @@
       </c>
       <c r="O102" s="2"/>
     </row>
-    <row r="103" spans="1:15" ht="14.25" customHeight="1">
+    <row r="103" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
         <v>94</v>
       </c>
@@ -6169,7 +6173,7 @@
       </c>
       <c r="O103" s="2"/>
     </row>
-    <row r="104" spans="1:15" ht="14.25" customHeight="1">
+    <row r="104" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>94</v>
       </c>
@@ -6214,7 +6218,7 @@
       </c>
       <c r="O104" s="2"/>
     </row>
-    <row r="105" spans="1:15" ht="14.25" customHeight="1">
+    <row r="105" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>94</v>
       </c>
@@ -6259,7 +6263,7 @@
       </c>
       <c r="O105" s="2"/>
     </row>
-    <row r="106" spans="1:15" ht="14.25" customHeight="1">
+    <row r="106" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
         <v>94</v>
       </c>
@@ -6304,7 +6308,7 @@
       </c>
       <c r="O106" s="2"/>
     </row>
-    <row r="107" spans="1:15" ht="14.25" customHeight="1">
+    <row r="107" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>94</v>
       </c>
@@ -6349,7 +6353,7 @@
       </c>
       <c r="O107" s="2"/>
     </row>
-    <row r="108" spans="1:15" ht="14.25" customHeight="1">
+    <row r="108" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>94</v>
       </c>
@@ -6394,7 +6398,7 @@
       </c>
       <c r="O108" s="2"/>
     </row>
-    <row r="109" spans="1:15" ht="14.25" customHeight="1">
+    <row r="109" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>94</v>
       </c>
@@ -6439,7 +6443,7 @@
       </c>
       <c r="O109" s="2"/>
     </row>
-    <row r="110" spans="1:15" ht="14.25" customHeight="1">
+    <row r="110" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
         <v>94</v>
       </c>
@@ -6484,7 +6488,7 @@
       </c>
       <c r="O110" s="2"/>
     </row>
-    <row r="111" spans="1:15" ht="14.25" customHeight="1">
+    <row r="111" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>94</v>
       </c>
@@ -6529,7 +6533,7 @@
       </c>
       <c r="O111" s="2"/>
     </row>
-    <row r="112" spans="1:15" ht="14.25" customHeight="1">
+    <row r="112" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>94</v>
       </c>
@@ -6574,7 +6578,7 @@
       </c>
       <c r="O112" s="2"/>
     </row>
-    <row r="113" spans="1:15" ht="14.25" customHeight="1">
+    <row r="113" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>94</v>
       </c>
@@ -6619,7 +6623,7 @@
       </c>
       <c r="O113" s="2"/>
     </row>
-    <row r="114" spans="1:15" ht="14.25" customHeight="1">
+    <row r="114" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
         <v>94</v>
       </c>
@@ -6664,7 +6668,7 @@
       </c>
       <c r="O114" s="2"/>
     </row>
-    <row r="115" spans="1:15" ht="14.25" customHeight="1">
+    <row r="115" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>94</v>
       </c>
@@ -6709,7 +6713,7 @@
       </c>
       <c r="O115" s="2"/>
     </row>
-    <row r="116" spans="1:15" ht="14.25" customHeight="1">
+    <row r="116" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>94</v>
       </c>
@@ -6754,7 +6758,7 @@
       </c>
       <c r="O116" s="2"/>
     </row>
-    <row r="117" spans="1:15" ht="14.25" customHeight="1">
+    <row r="117" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>94</v>
       </c>
@@ -6799,7 +6803,7 @@
       </c>
       <c r="O117" s="2"/>
     </row>
-    <row r="118" spans="1:15" ht="14.25" customHeight="1">
+    <row r="118" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
         <v>94</v>
       </c>
@@ -6844,7 +6848,7 @@
       </c>
       <c r="O118" s="2"/>
     </row>
-    <row r="119" spans="1:15" ht="14.25" customHeight="1">
+    <row r="119" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>94</v>
       </c>
@@ -6889,7 +6893,7 @@
       </c>
       <c r="O119" s="2"/>
     </row>
-    <row r="120" spans="1:15" ht="14.25" customHeight="1">
+    <row r="120" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
         <v>94</v>
       </c>
@@ -6934,7 +6938,7 @@
       </c>
       <c r="O120" s="2"/>
     </row>
-    <row r="121" spans="1:15" ht="14.25" customHeight="1">
+    <row r="121" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
         <v>94</v>
       </c>
@@ -6979,7 +6983,7 @@
       </c>
       <c r="O121" s="2"/>
     </row>
-    <row r="122" spans="1:15" ht="14.25" customHeight="1">
+    <row r="122" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
         <v>94</v>
       </c>
@@ -7024,7 +7028,7 @@
       </c>
       <c r="O122" s="2"/>
     </row>
-    <row r="123" spans="1:15" ht="14.25" customHeight="1">
+    <row r="123" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>94</v>
       </c>
@@ -7069,7 +7073,7 @@
       </c>
       <c r="O123" s="2"/>
     </row>
-    <row r="124" spans="1:15" ht="14.25" customHeight="1">
+    <row r="124" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
         <v>94</v>
       </c>
@@ -7114,7 +7118,7 @@
       </c>
       <c r="O124" s="2"/>
     </row>
-    <row r="125" spans="1:15" ht="14.25" customHeight="1">
+    <row r="125" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
         <v>94</v>
       </c>
@@ -7159,7 +7163,7 @@
       </c>
       <c r="O125" s="2"/>
     </row>
-    <row r="126" spans="1:15" ht="14.25" customHeight="1">
+    <row r="126" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
         <v>94</v>
       </c>
@@ -7204,7 +7208,7 @@
       </c>
       <c r="O126" s="2"/>
     </row>
-    <row r="127" spans="1:15" ht="14.25" customHeight="1">
+    <row r="127" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
         <v>94</v>
       </c>
@@ -7249,7 +7253,7 @@
       </c>
       <c r="O127" s="2"/>
     </row>
-    <row r="128" spans="1:15" ht="14.25" customHeight="1">
+    <row r="128" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>94</v>
       </c>
@@ -7294,7 +7298,7 @@
       </c>
       <c r="O128" s="2"/>
     </row>
-    <row r="129" spans="1:15" ht="14.25" customHeight="1">
+    <row r="129" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>94</v>
       </c>
@@ -7339,7 +7343,7 @@
       </c>
       <c r="O129" s="2"/>
     </row>
-    <row r="130" spans="1:15" ht="14.25" customHeight="1">
+    <row r="130" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>94</v>
       </c>
@@ -7384,7 +7388,7 @@
       </c>
       <c r="O130" s="2"/>
     </row>
-    <row r="131" spans="1:15" ht="14.25" customHeight="1">
+    <row r="131" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>94</v>
       </c>
@@ -7429,7 +7433,7 @@
       </c>
       <c r="O131" s="2"/>
     </row>
-    <row r="132" spans="1:15" ht="14.25" customHeight="1">
+    <row r="132" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>94</v>
       </c>
@@ -7474,7 +7478,7 @@
       </c>
       <c r="O132" s="2"/>
     </row>
-    <row r="133" spans="1:15" ht="14.25" customHeight="1">
+    <row r="133" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
         <v>94</v>
       </c>
@@ -7519,7 +7523,7 @@
       </c>
       <c r="O133" s="2"/>
     </row>
-    <row r="134" spans="1:15" ht="14.25" customHeight="1">
+    <row r="134" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
         <v>94</v>
       </c>
@@ -7564,7 +7568,7 @@
       </c>
       <c r="O134" s="2"/>
     </row>
-    <row r="135" spans="1:15" ht="14.25" customHeight="1">
+    <row r="135" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
         <v>94</v>
       </c>
@@ -7609,7 +7613,7 @@
       </c>
       <c r="O135" s="2"/>
     </row>
-    <row r="136" spans="1:15" ht="14.25" customHeight="1">
+    <row r="136" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
         <v>94</v>
       </c>
@@ -7654,7 +7658,7 @@
       </c>
       <c r="O136" s="2"/>
     </row>
-    <row r="137" spans="1:15" ht="14.25" customHeight="1">
+    <row r="137" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>94</v>
       </c>
@@ -7699,7 +7703,7 @@
       </c>
       <c r="O137" s="2"/>
     </row>
-    <row r="138" spans="1:15" ht="14.25" customHeight="1">
+    <row r="138" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>94</v>
       </c>
@@ -7744,7 +7748,7 @@
       </c>
       <c r="O138" s="2"/>
     </row>
-    <row r="139" spans="1:15" ht="14.25" customHeight="1">
+    <row r="139" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>94</v>
       </c>
@@ -7789,7 +7793,7 @@
       </c>
       <c r="O139" s="2"/>
     </row>
-    <row r="140" spans="1:15" ht="14.25" customHeight="1">
+    <row r="140" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>94</v>
       </c>
@@ -7834,7 +7838,7 @@
       </c>
       <c r="O140" s="2"/>
     </row>
-    <row r="141" spans="1:15" ht="14.25" customHeight="1">
+    <row r="141" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>94</v>
       </c>
@@ -7879,7 +7883,7 @@
       </c>
       <c r="O141" s="2"/>
     </row>
-    <row r="142" spans="1:15" ht="14.25" customHeight="1">
+    <row r="142" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>94</v>
       </c>
@@ -7924,7 +7928,7 @@
       </c>
       <c r="O142" s="2"/>
     </row>
-    <row r="143" spans="1:15" ht="14.25" customHeight="1">
+    <row r="143" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="10" t="s">
         <v>94</v>
       </c>
@@ -7969,7 +7973,7 @@
       </c>
       <c r="O143" s="2"/>
     </row>
-    <row r="144" spans="1:15" ht="14.25" customHeight="1">
+    <row r="144" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="10" t="s">
         <v>94</v>
       </c>
@@ -8014,7 +8018,7 @@
       </c>
       <c r="O144" s="2"/>
     </row>
-    <row r="145" spans="1:15" ht="14.25" customHeight="1">
+    <row r="145" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
         <v>94</v>
       </c>
@@ -8059,7 +8063,7 @@
       </c>
       <c r="O145" s="2"/>
     </row>
-    <row r="146" spans="1:15" ht="14.25" customHeight="1">
+    <row r="146" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>94</v>
       </c>
@@ -8104,7 +8108,7 @@
       </c>
       <c r="O146" s="2"/>
     </row>
-    <row r="147" spans="1:15" ht="14.25" customHeight="1">
+    <row r="147" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
         <v>94</v>
       </c>
@@ -8149,7 +8153,7 @@
       </c>
       <c r="O147" s="2"/>
     </row>
-    <row r="148" spans="1:15" ht="14.25" customHeight="1">
+    <row r="148" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
         <v>94</v>
       </c>
@@ -8194,7 +8198,7 @@
       </c>
       <c r="O148" s="2"/>
     </row>
-    <row r="149" spans="1:15" ht="14.25" customHeight="1">
+    <row r="149" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
         <v>94</v>
       </c>
@@ -8239,7 +8243,7 @@
       </c>
       <c r="O149" s="2"/>
     </row>
-    <row r="150" spans="1:15" ht="14.25" customHeight="1">
+    <row r="150" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
         <v>94</v>
       </c>
@@ -8284,7 +8288,7 @@
       </c>
       <c r="O150" s="2"/>
     </row>
-    <row r="151" spans="1:15" ht="14.25" customHeight="1">
+    <row r="151" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>117</v>
       </c>
@@ -8329,7 +8333,7 @@
       </c>
       <c r="O151" s="2"/>
     </row>
-    <row r="152" spans="1:15" ht="14.25" customHeight="1">
+    <row r="152" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>117</v>
       </c>
@@ -8374,7 +8378,7 @@
       </c>
       <c r="O152" s="2"/>
     </row>
-    <row r="153" spans="1:15" ht="14.25" customHeight="1">
+    <row r="153" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
         <v>117</v>
       </c>
@@ -8419,7 +8423,7 @@
       </c>
       <c r="O153" s="2"/>
     </row>
-    <row r="154" spans="1:15" ht="14.25" customHeight="1">
+    <row r="154" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
         <v>117</v>
       </c>
@@ -8464,7 +8468,7 @@
       </c>
       <c r="O154" s="2"/>
     </row>
-    <row r="155" spans="1:15" ht="14.25" customHeight="1">
+    <row r="155" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>117</v>
       </c>
@@ -8509,7 +8513,7 @@
       </c>
       <c r="O155" s="2"/>
     </row>
-    <row r="156" spans="1:15" ht="14.25" customHeight="1">
+    <row r="156" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
         <v>117</v>
       </c>
@@ -8554,7 +8558,7 @@
       </c>
       <c r="O156" s="2"/>
     </row>
-    <row r="157" spans="1:15" ht="14.25" customHeight="1">
+    <row r="157" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>117</v>
       </c>
@@ -8599,7 +8603,7 @@
       </c>
       <c r="O157" s="2"/>
     </row>
-    <row r="158" spans="1:15" ht="14.25" customHeight="1">
+    <row r="158" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
         <v>117</v>
       </c>
@@ -8644,7 +8648,7 @@
       </c>
       <c r="O158" s="2"/>
     </row>
-    <row r="159" spans="1:15" ht="14.25" customHeight="1">
+    <row r="159" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>117</v>
       </c>
@@ -8689,7 +8693,7 @@
       </c>
       <c r="O159" s="2"/>
     </row>
-    <row r="160" spans="1:15" ht="14.25" customHeight="1">
+    <row r="160" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
         <v>117</v>
       </c>
@@ -8734,7 +8738,7 @@
       </c>
       <c r="O160" s="2"/>
     </row>
-    <row r="161" spans="1:15" ht="14.25" customHeight="1">
+    <row r="161" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10" t="s">
         <v>117</v>
       </c>
@@ -8779,7 +8783,7 @@
       </c>
       <c r="O161" s="2"/>
     </row>
-    <row r="162" spans="1:15" ht="14.25" customHeight="1">
+    <row r="162" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10" t="s">
         <v>117</v>
       </c>
@@ -8824,7 +8828,7 @@
       </c>
       <c r="O162" s="2"/>
     </row>
-    <row r="163" spans="1:15" ht="14.25" customHeight="1">
+    <row r="163" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="10" t="s">
         <v>117</v>
       </c>
@@ -8869,7 +8873,7 @@
       </c>
       <c r="O163" s="2"/>
     </row>
-    <row r="164" spans="1:15" ht="14.25" customHeight="1">
+    <row r="164" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="10" t="s">
         <v>117</v>
       </c>
@@ -8914,7 +8918,7 @@
       </c>
       <c r="O164" s="2"/>
     </row>
-    <row r="165" spans="1:15" ht="14.25" customHeight="1">
+    <row r="165" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="10" t="s">
         <v>117</v>
       </c>
@@ -8959,7 +8963,7 @@
       </c>
       <c r="O165" s="2"/>
     </row>
-    <row r="166" spans="1:15" ht="14.25" customHeight="1">
+    <row r="166" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="10" t="s">
         <v>117</v>
       </c>
@@ -9004,7 +9008,7 @@
       </c>
       <c r="O166" s="2"/>
     </row>
-    <row r="167" spans="1:15" ht="14.25" customHeight="1">
+    <row r="167" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
         <v>117</v>
       </c>
@@ -9049,7 +9053,7 @@
       </c>
       <c r="O167" s="2"/>
     </row>
-    <row r="168" spans="1:15" ht="14.25" customHeight="1">
+    <row r="168" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
         <v>117</v>
       </c>
@@ -9094,7 +9098,7 @@
       </c>
       <c r="O168" s="2"/>
     </row>
-    <row r="169" spans="1:15" ht="14.25" customHeight="1">
+    <row r="169" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
         <v>117</v>
       </c>
@@ -9139,7 +9143,7 @@
       </c>
       <c r="O169" s="2"/>
     </row>
-    <row r="170" spans="1:15" ht="14.25" customHeight="1">
+    <row r="170" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10" t="s">
         <v>121</v>
       </c>
@@ -9184,7 +9188,7 @@
       </c>
       <c r="O170" s="2"/>
     </row>
-    <row r="171" spans="1:15" ht="14.25" customHeight="1">
+    <row r="171" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
         <v>121</v>
       </c>
@@ -9229,7 +9233,7 @@
       </c>
       <c r="O171" s="2"/>
     </row>
-    <row r="172" spans="1:15" ht="14.25" customHeight="1">
+    <row r="172" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10" t="s">
         <v>121</v>
       </c>
@@ -9274,7 +9278,7 @@
       </c>
       <c r="O172" s="2"/>
     </row>
-    <row r="173" spans="1:15" ht="14.25" customHeight="1">
+    <row r="173" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>121</v>
       </c>
@@ -9319,7 +9323,7 @@
       </c>
       <c r="O173" s="2"/>
     </row>
-    <row r="174" spans="1:15" ht="14.25" customHeight="1">
+    <row r="174" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="10" t="s">
         <v>121</v>
       </c>
@@ -9364,7 +9368,7 @@
       </c>
       <c r="O174" s="2"/>
     </row>
-    <row r="175" spans="1:15" ht="14.25" customHeight="1">
+    <row r="175" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="10" t="s">
         <v>121</v>
       </c>
@@ -9409,7 +9413,7 @@
       </c>
       <c r="O175" s="2"/>
     </row>
-    <row r="176" spans="1:15" ht="14.25" customHeight="1">
+    <row r="176" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="10" t="s">
         <v>121</v>
       </c>
@@ -9454,7 +9458,7 @@
       </c>
       <c r="O176" s="2"/>
     </row>
-    <row r="177" spans="1:15" ht="14.25" customHeight="1">
+    <row r="177" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>121</v>
       </c>
@@ -9499,7 +9503,7 @@
       </c>
       <c r="O177" s="2"/>
     </row>
-    <row r="178" spans="1:15" ht="14.25" customHeight="1">
+    <row r="178" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="s">
         <v>121</v>
       </c>
@@ -9544,7 +9548,7 @@
       </c>
       <c r="O178" s="2"/>
     </row>
-    <row r="179" spans="1:15" ht="14.25" customHeight="1">
+    <row r="179" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="10" t="s">
         <v>121</v>
       </c>
@@ -9589,7 +9593,7 @@
       </c>
       <c r="O179" s="2"/>
     </row>
-    <row r="180" spans="1:15" ht="14.25" customHeight="1">
+    <row r="180" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10" t="s">
         <v>121</v>
       </c>
@@ -9634,7 +9638,7 @@
       </c>
       <c r="O180" s="2"/>
     </row>
-    <row r="181" spans="1:15" ht="14.25" customHeight="1">
+    <row r="181" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="10" t="s">
         <v>121</v>
       </c>
@@ -9679,7 +9683,7 @@
       </c>
       <c r="O181" s="2"/>
     </row>
-    <row r="182" spans="1:15" ht="14.25" customHeight="1">
+    <row r="182" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
         <v>121</v>
       </c>
@@ -9724,7 +9728,7 @@
       </c>
       <c r="O182" s="2"/>
     </row>
-    <row r="183" spans="1:15" ht="14.25" customHeight="1">
+    <row r="183" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="s">
         <v>121</v>
       </c>
@@ -9769,7 +9773,7 @@
       </c>
       <c r="O183" s="2"/>
     </row>
-    <row r="184" spans="1:15" ht="14.25" customHeight="1">
+    <row r="184" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="10" t="s">
         <v>121</v>
       </c>
@@ -9814,7 +9818,7 @@
       </c>
       <c r="O184" s="2"/>
     </row>
-    <row r="185" spans="1:15" ht="14.25" customHeight="1">
+    <row r="185" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="10" t="s">
         <v>121</v>
       </c>
@@ -9859,7 +9863,7 @@
       </c>
       <c r="O185" s="2"/>
     </row>
-    <row r="186" spans="1:15" ht="14.25" customHeight="1">
+    <row r="186" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="10" t="s">
         <v>121</v>
       </c>
@@ -9904,7 +9908,7 @@
       </c>
       <c r="O186" s="2"/>
     </row>
-    <row r="187" spans="1:15" ht="14.25" customHeight="1">
+    <row r="187" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
         <v>121</v>
       </c>
@@ -9949,7 +9953,7 @@
       </c>
       <c r="O187" s="2"/>
     </row>
-    <row r="188" spans="1:15" ht="14.25" customHeight="1">
+    <row r="188" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="10" t="s">
         <v>121</v>
       </c>
@@ -9994,7 +9998,7 @@
       </c>
       <c r="O188" s="2"/>
     </row>
-    <row r="189" spans="1:15" ht="14.25" customHeight="1">
+    <row r="189" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="10" t="s">
         <v>121</v>
       </c>
@@ -10039,7 +10043,7 @@
       </c>
       <c r="O189" s="2"/>
     </row>
-    <row r="190" spans="1:15" ht="14.25" customHeight="1">
+    <row r="190" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="10" t="s">
         <v>121</v>
       </c>
@@ -10084,7 +10088,7 @@
       </c>
       <c r="O190" s="2"/>
     </row>
-    <row r="191" spans="1:15" ht="14.25" customHeight="1">
+    <row r="191" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
         <v>121</v>
       </c>
@@ -10129,7 +10133,7 @@
       </c>
       <c r="O191" s="2"/>
     </row>
-    <row r="192" spans="1:15" ht="14.25" customHeight="1">
+    <row r="192" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="10" t="s">
         <v>121</v>
       </c>
@@ -10174,7 +10178,7 @@
       </c>
       <c r="O192" s="2"/>
     </row>
-    <row r="193" spans="1:15" ht="14.25" customHeight="1">
+    <row r="193" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="10" t="s">
         <v>121</v>
       </c>
@@ -10219,7 +10223,7 @@
       </c>
       <c r="O193" s="2"/>
     </row>
-    <row r="194" spans="1:15" ht="14.25" customHeight="1">
+    <row r="194" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="10" t="s">
         <v>121</v>
       </c>
@@ -10264,7 +10268,7 @@
       </c>
       <c r="O194" s="2"/>
     </row>
-    <row r="195" spans="1:15" ht="14.25" customHeight="1">
+    <row r="195" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="10" t="s">
         <v>121</v>
       </c>
@@ -10309,7 +10313,7 @@
       </c>
       <c r="O195" s="2"/>
     </row>
-    <row r="196" spans="1:15" ht="14.25" customHeight="1">
+    <row r="196" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="10" t="s">
         <v>121</v>
       </c>
@@ -10354,7 +10358,7 @@
       </c>
       <c r="O196" s="2"/>
     </row>
-    <row r="197" spans="1:15" ht="14.25" customHeight="1">
+    <row r="197" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="s">
         <v>121</v>
       </c>
@@ -10399,7 +10403,7 @@
       </c>
       <c r="O197" s="2"/>
     </row>
-    <row r="198" spans="1:15" ht="14.25" customHeight="1">
+    <row r="198" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="s">
         <v>121</v>
       </c>
@@ -10444,7 +10448,7 @@
       </c>
       <c r="O198" s="2"/>
     </row>
-    <row r="199" spans="1:15" ht="14.25" customHeight="1">
+    <row r="199" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="10" t="s">
         <v>121</v>
       </c>
@@ -10489,7 +10493,7 @@
       </c>
       <c r="O199" s="2"/>
     </row>
-    <row r="200" spans="1:15" ht="14.25" customHeight="1">
+    <row r="200" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="10" t="s">
         <v>121</v>
       </c>
@@ -10534,7 +10538,7 @@
       </c>
       <c r="O200" s="2"/>
     </row>
-    <row r="201" spans="1:15" ht="14.25" customHeight="1">
+    <row r="201" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="10" t="s">
         <v>121</v>
       </c>
@@ -10579,7 +10583,7 @@
       </c>
       <c r="O201" s="2"/>
     </row>
-    <row r="202" spans="1:15" ht="14.25" customHeight="1">
+    <row r="202" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="10" t="s">
         <v>121</v>
       </c>
@@ -10624,7 +10628,7 @@
       </c>
       <c r="O202" s="2"/>
     </row>
-    <row r="203" spans="1:15" ht="14.25" customHeight="1">
+    <row r="203" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="10" t="s">
         <v>121</v>
       </c>
@@ -10669,7 +10673,7 @@
       </c>
       <c r="O203" s="2"/>
     </row>
-    <row r="204" spans="1:15" ht="14.25" customHeight="1">
+    <row r="204" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="10" t="s">
         <v>121</v>
       </c>
@@ -10714,7 +10718,7 @@
       </c>
       <c r="O204" s="2"/>
     </row>
-    <row r="205" spans="1:15" ht="14.25" customHeight="1">
+    <row r="205" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="10" t="s">
         <v>121</v>
       </c>
@@ -10759,7 +10763,7 @@
       </c>
       <c r="O205" s="2"/>
     </row>
-    <row r="206" spans="1:15" ht="14.25" customHeight="1">
+    <row r="206" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="10" t="s">
         <v>121</v>
       </c>
@@ -10804,7 +10808,7 @@
       </c>
       <c r="O206" s="2"/>
     </row>
-    <row r="207" spans="1:15" ht="14.25" customHeight="1">
+    <row r="207" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="10" t="s">
         <v>121</v>
       </c>
@@ -10849,7 +10853,7 @@
       </c>
       <c r="O207" s="2"/>
     </row>
-    <row r="208" spans="1:15" ht="14.25" customHeight="1">
+    <row r="208" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="10" t="s">
         <v>121</v>
       </c>
@@ -10894,7 +10898,7 @@
       </c>
       <c r="O208" s="2"/>
     </row>
-    <row r="209" spans="1:15" ht="14.25" customHeight="1">
+    <row r="209" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="10" t="s">
         <v>121</v>
       </c>
@@ -10939,7 +10943,7 @@
       </c>
       <c r="O209" s="2"/>
     </row>
-    <row r="210" spans="1:15" ht="14.25" customHeight="1">
+    <row r="210" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="10" t="s">
         <v>121</v>
       </c>
@@ -10984,7 +10988,7 @@
       </c>
       <c r="O210" s="2"/>
     </row>
-    <row r="211" spans="1:15" ht="14.25" customHeight="1">
+    <row r="211" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="10" t="s">
         <v>121</v>
       </c>
@@ -11029,7 +11033,7 @@
       </c>
       <c r="O211" s="2"/>
     </row>
-    <row r="212" spans="1:15" ht="14.25" customHeight="1">
+    <row r="212" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="10" t="s">
         <v>121</v>
       </c>
@@ -11074,7 +11078,7 @@
       </c>
       <c r="O212" s="2"/>
     </row>
-    <row r="213" spans="1:15" ht="14.25" customHeight="1">
+    <row r="213" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="10" t="s">
         <v>121</v>
       </c>
@@ -11119,7 +11123,7 @@
       </c>
       <c r="O213" s="2"/>
     </row>
-    <row r="214" spans="1:15" ht="14.25" customHeight="1">
+    <row r="214" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="10" t="s">
         <v>121</v>
       </c>
@@ -11164,7 +11168,7 @@
       </c>
       <c r="O214" s="2"/>
     </row>
-    <row r="215" spans="1:15" ht="14.25" customHeight="1">
+    <row r="215" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="10" t="s">
         <v>121</v>
       </c>
@@ -11209,7 +11213,7 @@
       </c>
       <c r="O215" s="2"/>
     </row>
-    <row r="216" spans="1:15" ht="14.25" customHeight="1">
+    <row r="216" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="10" t="s">
         <v>121</v>
       </c>
@@ -11254,7 +11258,7 @@
       </c>
       <c r="O216" s="2"/>
     </row>
-    <row r="217" spans="1:15" ht="14.25" customHeight="1">
+    <row r="217" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="10" t="s">
         <v>121</v>
       </c>
@@ -11299,7 +11303,7 @@
       </c>
       <c r="O217" s="2"/>
     </row>
-    <row r="218" spans="1:15" ht="14.25" customHeight="1">
+    <row r="218" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="10" t="s">
         <v>121</v>
       </c>
@@ -11344,7 +11348,7 @@
       </c>
       <c r="O218" s="2"/>
     </row>
-    <row r="219" spans="1:15" ht="14.25" customHeight="1">
+    <row r="219" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="10" t="s">
         <v>121</v>
       </c>
@@ -11389,7 +11393,7 @@
       </c>
       <c r="O219" s="2"/>
     </row>
-    <row r="220" spans="1:15" ht="14.25" customHeight="1">
+    <row r="220" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="10" t="s">
         <v>121</v>
       </c>
@@ -11434,7 +11438,7 @@
       </c>
       <c r="O220" s="2"/>
     </row>
-    <row r="221" spans="1:15" ht="14.25" customHeight="1">
+    <row r="221" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="10" t="s">
         <v>121</v>
       </c>
@@ -11479,7 +11483,7 @@
       </c>
       <c r="O221" s="2"/>
     </row>
-    <row r="222" spans="1:15" ht="14.25" customHeight="1">
+    <row r="222" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="10" t="s">
         <v>121</v>
       </c>
@@ -11524,7 +11528,7 @@
       </c>
       <c r="O222" s="2"/>
     </row>
-    <row r="223" spans="1:15" ht="14.25" customHeight="1">
+    <row r="223" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="10" t="s">
         <v>121</v>
       </c>
@@ -11569,7 +11573,7 @@
       </c>
       <c r="O223" s="2"/>
     </row>
-    <row r="224" spans="1:15" ht="14.25" customHeight="1">
+    <row r="224" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="10" t="s">
         <v>121</v>
       </c>
@@ -11614,7 +11618,7 @@
       </c>
       <c r="O224" s="2"/>
     </row>
-    <row r="225" spans="1:15" ht="14.25" customHeight="1">
+    <row r="225" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="10" t="s">
         <v>121</v>
       </c>
@@ -11659,7 +11663,7 @@
       </c>
       <c r="O225" s="2"/>
     </row>
-    <row r="226" spans="1:15" ht="14.25" customHeight="1">
+    <row r="226" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="10" t="s">
         <v>121</v>
       </c>
@@ -11704,7 +11708,7 @@
       </c>
       <c r="O226" s="2"/>
     </row>
-    <row r="227" spans="1:15" ht="14.25" customHeight="1">
+    <row r="227" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="10" t="s">
         <v>121</v>
       </c>
@@ -11749,7 +11753,7 @@
       </c>
       <c r="O227" s="2"/>
     </row>
-    <row r="228" spans="1:15" ht="14.25" customHeight="1">
+    <row r="228" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="10" t="s">
         <v>121</v>
       </c>
@@ -11794,7 +11798,7 @@
       </c>
       <c r="O228" s="2"/>
     </row>
-    <row r="229" spans="1:15" ht="14.25" customHeight="1">
+    <row r="229" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="10" t="s">
         <v>121</v>
       </c>
@@ -11839,7 +11843,7 @@
       </c>
       <c r="O229" s="2"/>
     </row>
-    <row r="230" spans="1:15" ht="14.25" customHeight="1">
+    <row r="230" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="10" t="s">
         <v>121</v>
       </c>
@@ -11884,7 +11888,7 @@
       </c>
       <c r="O230" s="2"/>
     </row>
-    <row r="231" spans="1:15" ht="14.25" customHeight="1">
+    <row r="231" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="10" t="s">
         <v>121</v>
       </c>
@@ -11929,7 +11933,7 @@
       </c>
       <c r="O231" s="2"/>
     </row>
-    <row r="232" spans="1:15" ht="14.25" customHeight="1">
+    <row r="232" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="10" t="s">
         <v>121</v>
       </c>
@@ -11974,7 +11978,7 @@
       </c>
       <c r="O232" s="2"/>
     </row>
-    <row r="233" spans="1:15" ht="14.25" customHeight="1">
+    <row r="233" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="10" t="s">
         <v>121</v>
       </c>
@@ -12019,7 +12023,7 @@
       </c>
       <c r="O233" s="2"/>
     </row>
-    <row r="234" spans="1:15" ht="14.25" customHeight="1">
+    <row r="234" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="10" t="s">
         <v>121</v>
       </c>
@@ -12064,7 +12068,7 @@
       </c>
       <c r="O234" s="2"/>
     </row>
-    <row r="235" spans="1:15" ht="14.25" customHeight="1">
+    <row r="235" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="10" t="s">
         <v>121</v>
       </c>
@@ -12109,7 +12113,7 @@
       </c>
       <c r="O235" s="2"/>
     </row>
-    <row r="236" spans="1:15" ht="14.25" customHeight="1">
+    <row r="236" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="10" t="s">
         <v>130</v>
       </c>
@@ -12152,7 +12156,7 @@
       </c>
       <c r="O236" s="2"/>
     </row>
-    <row r="237" spans="1:15" ht="14.25" customHeight="1">
+    <row r="237" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="10" t="s">
         <v>134</v>
       </c>
@@ -12169,7 +12173,7 @@
         <v>136</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="G237" s="5" t="s">
         <v>136</v>
@@ -12193,7 +12197,7 @@
       </c>
       <c r="O237" s="2"/>
     </row>
-    <row r="238" spans="1:15" ht="14.25" customHeight="1">
+    <row r="238" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="10" t="s">
         <v>134</v>
       </c>
@@ -12226,7 +12230,7 @@
       <c r="N238" s="2"/>
       <c r="O238" s="2"/>
     </row>
-    <row r="239" spans="1:15" ht="14.25" customHeight="1">
+    <row r="239" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="10" t="s">
         <v>134</v>
       </c>
@@ -12259,7 +12263,7 @@
       <c r="N239" s="2"/>
       <c r="O239" s="2"/>
     </row>
-    <row r="240" spans="1:15" ht="14.25" customHeight="1">
+    <row r="240" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="10" t="s">
         <v>141</v>
       </c>
@@ -12298,7 +12302,7 @@
       </c>
       <c r="O240" s="2"/>
     </row>
-    <row r="241" spans="1:18" ht="14.25" customHeight="1">
+    <row r="241" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="10" t="s">
         <v>141</v>
       </c>
@@ -12333,7 +12337,7 @@
       </c>
       <c r="O241" s="2"/>
     </row>
-    <row r="242" spans="1:18" ht="14.25" customHeight="1">
+    <row r="242" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="10" t="s">
         <v>141</v>
       </c>
@@ -12368,7 +12372,7 @@
       </c>
       <c r="O242" s="2"/>
     </row>
-    <row r="243" spans="1:18" ht="14.25" customHeight="1">
+    <row r="243" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="10" t="s">
         <v>148</v>
       </c>
@@ -12405,7 +12409,7 @@
       <c r="N243" s="6"/>
       <c r="O243" s="2"/>
     </row>
-    <row r="244" spans="1:18" ht="14.25" customHeight="1">
+    <row r="244" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="10" t="s">
         <v>151</v>
       </c>
@@ -12448,7 +12452,7 @@
       </c>
       <c r="O244" s="2"/>
     </row>
-    <row r="245" spans="1:18" ht="14.25" customHeight="1">
+    <row r="245" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="10" t="s">
         <v>155</v>
       </c>
@@ -12489,7 +12493,7 @@
       </c>
       <c r="O245" s="2"/>
     </row>
-    <row r="246" spans="1:18" ht="14.25" customHeight="1">
+    <row r="246" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="10" t="s">
         <v>155</v>
       </c>
@@ -12524,7 +12528,7 @@
       </c>
       <c r="O246" s="2"/>
     </row>
-    <row r="247" spans="1:18" ht="14.25" customHeight="1">
+    <row r="247" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="10" t="s">
         <v>155</v>
       </c>
@@ -12568,7 +12572,7 @@
       <c r="Q247" s="6"/>
       <c r="R247" s="7"/>
     </row>
-    <row r="248" spans="1:18" ht="14.25" customHeight="1">
+    <row r="248" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="10" t="s">
         <v>155</v>
       </c>
@@ -12603,7 +12607,7 @@
       </c>
       <c r="O248" s="2"/>
     </row>
-    <row r="249" spans="1:18" ht="14.25" customHeight="1">
+    <row r="249" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="10" t="s">
         <v>163</v>
       </c>
@@ -12642,7 +12646,7 @@
       </c>
       <c r="O249" s="2"/>
     </row>
-    <row r="250" spans="1:18" ht="14.25" customHeight="1">
+    <row r="250" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="10" t="s">
         <v>163</v>
       </c>
@@ -12681,7 +12685,7 @@
       </c>
       <c r="O250" s="2"/>
     </row>
-    <row r="251" spans="1:18" ht="14.25" customHeight="1">
+    <row r="251" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="10" t="s">
         <v>163</v>
       </c>
@@ -12720,7 +12724,7 @@
       </c>
       <c r="O251" s="2"/>
     </row>
-    <row r="252" spans="1:18" ht="14.25" customHeight="1">
+    <row r="252" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="10" t="s">
         <v>163</v>
       </c>
@@ -12759,7 +12763,7 @@
       </c>
       <c r="O252" s="2"/>
     </row>
-    <row r="253" spans="1:18" ht="14.25" customHeight="1">
+    <row r="253" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="10" t="s">
         <v>163</v>
       </c>
@@ -12798,7 +12802,7 @@
       </c>
       <c r="O253" s="2"/>
     </row>
-    <row r="254" spans="1:18" ht="14.25" customHeight="1">
+    <row r="254" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="10" t="s">
         <v>163</v>
       </c>
@@ -12837,7 +12841,7 @@
       </c>
       <c r="O254" s="2"/>
     </row>
-    <row r="255" spans="1:18" ht="14.25" customHeight="1">
+    <row r="255" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="10" t="s">
         <v>163</v>
       </c>
@@ -12876,7 +12880,7 @@
       </c>
       <c r="O255" s="2"/>
     </row>
-    <row r="256" spans="1:18" ht="14.25" customHeight="1">
+    <row r="256" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="10" t="s">
         <v>163</v>
       </c>
@@ -12915,7 +12919,7 @@
       </c>
       <c r="O256" s="2"/>
     </row>
-    <row r="257" spans="1:15" ht="14.25" customHeight="1">
+    <row r="257" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="10" t="s">
         <v>163</v>
       </c>
@@ -12954,7 +12958,7 @@
       </c>
       <c r="O257" s="2"/>
     </row>
-    <row r="258" spans="1:15" ht="14.25" customHeight="1">
+    <row r="258" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="10" t="s">
         <v>163</v>
       </c>
@@ -12993,7 +12997,7 @@
       </c>
       <c r="O258" s="2"/>
     </row>
-    <row r="259" spans="1:15" ht="14.25" customHeight="1">
+    <row r="259" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="10" t="s">
         <v>163</v>
       </c>
@@ -13034,7 +13038,7 @@
       </c>
       <c r="O259" s="2"/>
     </row>
-    <row r="260" spans="1:15" ht="14.25" customHeight="1">
+    <row r="260" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="10" t="s">
         <v>163</v>
       </c>
@@ -13075,7 +13079,7 @@
       </c>
       <c r="O260" s="2"/>
     </row>
-    <row r="261" spans="1:15" ht="14.25" customHeight="1">
+    <row r="261" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="10" t="s">
         <v>163</v>
       </c>
@@ -13116,7 +13120,7 @@
       </c>
       <c r="O261" s="2"/>
     </row>
-    <row r="262" spans="1:15" ht="14.25" customHeight="1">
+    <row r="262" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="10" t="s">
         <v>179</v>
       </c>
@@ -13159,7 +13163,7 @@
       </c>
       <c r="O262" s="2"/>
     </row>
-    <row r="263" spans="1:15" ht="14.25" customHeight="1">
+    <row r="263" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="10" t="s">
         <v>179</v>
       </c>
@@ -13202,7 +13206,7 @@
       </c>
       <c r="O263" s="2"/>
     </row>
-    <row r="264" spans="1:15" ht="14.25" customHeight="1">
+    <row r="264" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="10" t="s">
         <v>179</v>
       </c>
@@ -13245,7 +13249,7 @@
       </c>
       <c r="O264" s="2"/>
     </row>
-    <row r="265" spans="1:15" ht="14.25" customHeight="1">
+    <row r="265" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="10" t="s">
         <v>179</v>
       </c>
@@ -13288,7 +13292,7 @@
       </c>
       <c r="O265" s="2"/>
     </row>
-    <row r="266" spans="1:15" ht="14.25" customHeight="1">
+    <row r="266" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="10" t="s">
         <v>179</v>
       </c>
@@ -13331,7 +13335,7 @@
       </c>
       <c r="O266" s="2"/>
     </row>
-    <row r="267" spans="1:15" ht="14.25" customHeight="1">
+    <row r="267" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="10" t="s">
         <v>179</v>
       </c>
@@ -13374,7 +13378,7 @@
       </c>
       <c r="O267" s="2"/>
     </row>
-    <row r="268" spans="1:15" ht="14.25" customHeight="1">
+    <row r="268" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="10" t="s">
         <v>179</v>
       </c>
@@ -13417,7 +13421,7 @@
       </c>
       <c r="O268" s="2"/>
     </row>
-    <row r="269" spans="1:15" ht="14.25" customHeight="1">
+    <row r="269" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="10" t="s">
         <v>179</v>
       </c>
@@ -13460,7 +13464,7 @@
       </c>
       <c r="O269" s="2"/>
     </row>
-    <row r="270" spans="1:15" ht="14.25" customHeight="1">
+    <row r="270" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="10" t="s">
         <v>179</v>
       </c>
@@ -13503,7 +13507,7 @@
       </c>
       <c r="O270" s="2"/>
     </row>
-    <row r="271" spans="1:15" ht="14.25" customHeight="1">
+    <row r="271" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="10" t="s">
         <v>179</v>
       </c>
@@ -13546,7 +13550,7 @@
       </c>
       <c r="O271" s="2"/>
     </row>
-    <row r="272" spans="1:15" ht="14.25" customHeight="1">
+    <row r="272" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="10" t="s">
         <v>179</v>
       </c>
@@ -13589,7 +13593,7 @@
       </c>
       <c r="O272" s="2"/>
     </row>
-    <row r="273" spans="1:15" ht="14.25" customHeight="1">
+    <row r="273" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="10" t="s">
         <v>179</v>
       </c>
@@ -13632,7 +13636,7 @@
       </c>
       <c r="O273" s="2"/>
     </row>
-    <row r="274" spans="1:15" ht="14.25" customHeight="1">
+    <row r="274" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="10" t="s">
         <v>179</v>
       </c>
@@ -13675,7 +13679,7 @@
       </c>
       <c r="O274" s="2"/>
     </row>
-    <row r="275" spans="1:15" ht="14.25" customHeight="1">
+    <row r="275" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="10" t="s">
         <v>179</v>
       </c>
@@ -13718,7 +13722,7 @@
       </c>
       <c r="O275" s="2"/>
     </row>
-    <row r="276" spans="1:15" ht="14.25" customHeight="1">
+    <row r="276" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="10" t="s">
         <v>179</v>
       </c>
@@ -13761,7 +13765,7 @@
       </c>
       <c r="O276" s="2"/>
     </row>
-    <row r="277" spans="1:15" ht="14.25" customHeight="1">
+    <row r="277" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="10" t="s">
         <v>179</v>
       </c>
@@ -13804,7 +13808,7 @@
       </c>
       <c r="O277" s="2"/>
     </row>
-    <row r="278" spans="1:15" ht="14.25" customHeight="1">
+    <row r="278" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="10" t="s">
         <v>179</v>
       </c>
@@ -13847,7 +13851,7 @@
       </c>
       <c r="O278" s="2"/>
     </row>
-    <row r="279" spans="1:15" ht="14.25" customHeight="1">
+    <row r="279" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="10" t="s">
         <v>179</v>
       </c>
@@ -13890,7 +13894,7 @@
       </c>
       <c r="O279" s="2"/>
     </row>
-    <row r="280" spans="1:15" ht="14.25" customHeight="1">
+    <row r="280" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="10" t="s">
         <v>204</v>
       </c>
@@ -13933,7 +13937,7 @@
       </c>
       <c r="O280" s="2"/>
     </row>
-    <row r="281" spans="1:15" ht="14.25" customHeight="1">
+    <row r="281" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="10" t="s">
         <v>204</v>
       </c>
@@ -13976,7 +13980,7 @@
       </c>
       <c r="O281" s="2"/>
     </row>
-    <row r="282" spans="1:15" ht="14.25" customHeight="1">
+    <row r="282" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="10" t="s">
         <v>204</v>
       </c>
@@ -14019,7 +14023,7 @@
       </c>
       <c r="O282" s="2"/>
     </row>
-    <row r="283" spans="1:15" ht="14.25" customHeight="1">
+    <row r="283" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="10" t="s">
         <v>204</v>
       </c>
@@ -14062,7 +14066,7 @@
       </c>
       <c r="O283" s="2"/>
     </row>
-    <row r="284" spans="1:15" ht="14.25" customHeight="1">
+    <row r="284" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="10" t="s">
         <v>204</v>
       </c>
@@ -14105,7 +14109,7 @@
       </c>
       <c r="O284" s="2"/>
     </row>
-    <row r="285" spans="1:15" ht="14.25" customHeight="1">
+    <row r="285" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="10" t="s">
         <v>204</v>
       </c>
@@ -14148,7 +14152,7 @@
       </c>
       <c r="O285" s="2"/>
     </row>
-    <row r="286" spans="1:15" ht="14.25" customHeight="1">
+    <row r="286" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="10" t="s">
         <v>204</v>
       </c>
@@ -14191,7 +14195,7 @@
       </c>
       <c r="O286" s="2"/>
     </row>
-    <row r="287" spans="1:15" ht="14.25" customHeight="1">
+    <row r="287" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="10" t="s">
         <v>204</v>
       </c>
@@ -14234,7 +14238,7 @@
       </c>
       <c r="O287" s="2"/>
     </row>
-    <row r="288" spans="1:15" ht="14.25" customHeight="1">
+    <row r="288" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="10" t="s">
         <v>204</v>
       </c>
@@ -14277,7 +14281,7 @@
       </c>
       <c r="O288" s="2"/>
     </row>
-    <row r="289" spans="1:15" ht="14.25" customHeight="1">
+    <row r="289" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="10" t="s">
         <v>204</v>
       </c>
@@ -14320,7 +14324,7 @@
       </c>
       <c r="O289" s="2"/>
     </row>
-    <row r="290" spans="1:15" ht="14.25" customHeight="1">
+    <row r="290" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="10" t="s">
         <v>204</v>
       </c>
@@ -14363,7 +14367,7 @@
       </c>
       <c r="O290" s="2"/>
     </row>
-    <row r="291" spans="1:15" ht="14.25" customHeight="1">
+    <row r="291" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="10" t="s">
         <v>204</v>
       </c>
@@ -14406,7 +14410,7 @@
       </c>
       <c r="O291" s="2"/>
     </row>
-    <row r="292" spans="1:15" ht="14.25" customHeight="1">
+    <row r="292" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="10" t="s">
         <v>222</v>
       </c>
@@ -14447,7 +14451,7 @@
       </c>
       <c r="O292" s="2"/>
     </row>
-    <row r="293" spans="1:15" ht="14.25" customHeight="1">
+    <row r="293" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="10" t="s">
         <v>222</v>
       </c>
@@ -14488,7 +14492,7 @@
       </c>
       <c r="O293" s="2"/>
     </row>
-    <row r="294" spans="1:15" ht="14.25" customHeight="1">
+    <row r="294" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="10" t="s">
         <v>222</v>
       </c>
@@ -14529,7 +14533,7 @@
       </c>
       <c r="O294" s="2"/>
     </row>
-    <row r="295" spans="1:15" ht="14.25" customHeight="1">
+    <row r="295" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="10" t="s">
         <v>229</v>
       </c>
@@ -14570,7 +14574,7 @@
       </c>
       <c r="O295" s="2"/>
     </row>
-    <row r="296" spans="1:15" ht="14.25" customHeight="1">
+    <row r="296" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="10" t="s">
         <v>229</v>
       </c>
@@ -14611,7 +14615,7 @@
       </c>
       <c r="O296" s="2"/>
     </row>
-    <row r="297" spans="1:15" ht="14.25" customHeight="1">
+    <row r="297" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="10" t="s">
         <v>229</v>
       </c>
@@ -14652,7 +14656,7 @@
       </c>
       <c r="O297" s="2"/>
     </row>
-    <row r="298" spans="1:15" ht="14.25" customHeight="1">
+    <row r="298" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="10" t="s">
         <v>234</v>
       </c>
@@ -14693,7 +14697,7 @@
       </c>
       <c r="O298" s="2"/>
     </row>
-    <row r="299" spans="1:15" ht="14.25" customHeight="1">
+    <row r="299" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="10" t="s">
         <v>234</v>
       </c>
@@ -14734,7 +14738,7 @@
       </c>
       <c r="O299" s="2"/>
     </row>
-    <row r="300" spans="1:15" ht="14.25" customHeight="1">
+    <row r="300" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="10" t="s">
         <v>234</v>
       </c>
@@ -14775,7 +14779,7 @@
       </c>
       <c r="O300" s="2"/>
     </row>
-    <row r="301" spans="1:15" ht="14.25" customHeight="1">
+    <row r="301" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="10" t="s">
         <v>234</v>
       </c>
@@ -14816,7 +14820,7 @@
       </c>
       <c r="O301" s="2"/>
     </row>
-    <row r="302" spans="1:15" ht="14.25" customHeight="1">
+    <row r="302" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="10" t="s">
         <v>243</v>
       </c>
@@ -14857,7 +14861,7 @@
       </c>
       <c r="O302" s="2"/>
     </row>
-    <row r="303" spans="1:15" ht="14.25" customHeight="1">
+    <row r="303" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="10" t="s">
         <v>243</v>
       </c>
@@ -14898,7 +14902,7 @@
       </c>
       <c r="O303" s="2"/>
     </row>
-    <row r="304" spans="1:15" ht="14.25" customHeight="1">
+    <row r="304" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="10" t="s">
         <v>243</v>
       </c>
@@ -14939,7 +14943,7 @@
       </c>
       <c r="O304" s="2"/>
     </row>
-    <row r="305" spans="1:15" ht="14.25" customHeight="1">
+    <row r="305" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="10" t="s">
         <v>248</v>
       </c>
@@ -14978,7 +14982,7 @@
       </c>
       <c r="O305" s="2"/>
     </row>
-    <row r="306" spans="1:15" ht="14.25" customHeight="1">
+    <row r="306" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="10" t="s">
         <v>248</v>
       </c>
@@ -15017,7 +15021,7 @@
       </c>
       <c r="O306" s="2"/>
     </row>
-    <row r="307" spans="1:15" ht="14.25" customHeight="1">
+    <row r="307" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="10" t="s">
         <v>252</v>
       </c>
@@ -15060,7 +15064,7 @@
       </c>
       <c r="O307" s="2"/>
     </row>
-    <row r="308" spans="1:15" ht="14.25" customHeight="1">
+    <row r="308" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="10" t="s">
         <v>256</v>
       </c>
@@ -15095,7 +15099,7 @@
       </c>
       <c r="O308" s="2"/>
     </row>
-    <row r="309" spans="1:15" ht="14.25" customHeight="1">
+    <row r="309" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="10" t="s">
         <v>151</v>
       </c>
@@ -15138,7 +15142,7 @@
       </c>
       <c r="O309" s="2"/>
     </row>
-    <row r="310" spans="1:15" ht="14.25" customHeight="1">
+    <row r="310" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="10" t="s">
         <v>262</v>
       </c>
@@ -15181,7 +15185,7 @@
       </c>
       <c r="O310" s="2"/>
     </row>
-    <row r="311" spans="1:15" ht="14.25" customHeight="1">
+    <row r="311" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="10" t="s">
         <v>265</v>
       </c>
@@ -15224,7 +15228,7 @@
       </c>
       <c r="O311" s="2"/>
     </row>
-    <row r="312" spans="1:15" ht="14.25" customHeight="1">
+    <row r="312" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="10" t="s">
         <v>265</v>
       </c>
@@ -15267,7 +15271,7 @@
       </c>
       <c r="O312" s="2"/>
     </row>
-    <row r="313" spans="1:15" ht="14.25" customHeight="1">
+    <row r="313" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="10" t="s">
         <v>272</v>
       </c>
@@ -15310,7 +15314,7 @@
       </c>
       <c r="O313" s="2"/>
     </row>
-    <row r="314" spans="1:15" ht="14.25" customHeight="1">
+    <row r="314" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="10" t="s">
         <v>276</v>
       </c>
@@ -15353,7 +15357,7 @@
       </c>
       <c r="O314" s="2"/>
     </row>
-    <row r="315" spans="1:15" ht="14.25" customHeight="1">
+    <row r="315" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="10" t="s">
         <v>280</v>
       </c>
@@ -15396,7 +15400,7 @@
       </c>
       <c r="O315" s="2"/>
     </row>
-    <row r="316" spans="1:15" ht="14.25" customHeight="1">
+    <row r="316" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="10" t="s">
         <v>284</v>
       </c>
@@ -15433,7 +15437,7 @@
       </c>
       <c r="O316" s="2"/>
     </row>
-    <row r="317" spans="1:15" ht="14.25" customHeight="1">
+    <row r="317" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="10" t="s">
         <v>284</v>
       </c>
@@ -15468,7 +15472,7 @@
       </c>
       <c r="O317" s="2"/>
     </row>
-    <row r="318" spans="1:15" ht="14.25" customHeight="1">
+    <row r="318" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="10" t="s">
         <v>291</v>
       </c>
@@ -15511,7 +15515,7 @@
       </c>
       <c r="O318" s="2"/>
     </row>
-    <row r="319" spans="1:15" ht="14.25" customHeight="1">
+    <row r="319" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="10" t="s">
         <v>291</v>
       </c>
@@ -15554,7 +15558,7 @@
       </c>
       <c r="O319" s="2"/>
     </row>
-    <row r="320" spans="1:15" ht="14.25" customHeight="1">
+    <row r="320" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="10" t="s">
         <v>298</v>
       </c>
@@ -15589,7 +15593,7 @@
       </c>
       <c r="O320" s="2"/>
     </row>
-    <row r="321" spans="1:15" ht="14.25" customHeight="1">
+    <row r="321" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="10" t="s">
         <v>298</v>
       </c>
@@ -15628,7 +15632,7 @@
       </c>
       <c r="O321" s="2"/>
     </row>
-    <row r="322" spans="1:15" ht="14.25" customHeight="1">
+    <row r="322" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="10" t="s">
         <v>304</v>
       </c>
@@ -15671,7 +15675,7 @@
       </c>
       <c r="O322" s="2"/>
     </row>
-    <row r="323" spans="1:15" ht="14.25" customHeight="1">
+    <row r="323" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="10" t="s">
         <v>304</v>
       </c>
@@ -15706,7 +15710,7 @@
       </c>
       <c r="O323" s="2"/>
     </row>
-    <row r="324" spans="1:15" ht="14.25" customHeight="1">
+    <row r="324" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="10" t="s">
         <v>304</v>
       </c>
@@ -15747,7 +15751,7 @@
       </c>
       <c r="O324" s="2"/>
     </row>
-    <row r="325" spans="1:15" ht="14.25" customHeight="1">
+    <row r="325" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="10" t="s">
         <v>304</v>
       </c>
@@ -15782,7 +15786,7 @@
       </c>
       <c r="O325" s="2"/>
     </row>
-    <row r="326" spans="1:15" ht="14.25" customHeight="1">
+    <row r="326" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="10" t="s">
         <v>304</v>
       </c>
@@ -15823,7 +15827,7 @@
       </c>
       <c r="O326" s="2"/>
     </row>
-    <row r="327" spans="1:15" ht="14.25" customHeight="1">
+    <row r="327" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="10" t="s">
         <v>317</v>
       </c>
@@ -15862,7 +15866,7 @@
       </c>
       <c r="O327" s="2"/>
     </row>
-    <row r="328" spans="1:15" ht="14.25" customHeight="1">
+    <row r="328" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="10" t="s">
         <v>317</v>
       </c>
@@ -15901,7 +15905,7 @@
       </c>
       <c r="O328" s="2"/>
     </row>
-    <row r="329" spans="1:15" ht="14.25" customHeight="1">
+    <row r="329" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="10" t="s">
         <v>324</v>
       </c>
@@ -15940,7 +15944,7 @@
       </c>
       <c r="O329" s="2"/>
     </row>
-    <row r="330" spans="1:15" ht="14.25" customHeight="1">
+    <row r="330" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="10" t="s">
         <v>324</v>
       </c>
@@ -15979,7 +15983,7 @@
       </c>
       <c r="O330" s="2"/>
     </row>
-    <row r="331" spans="1:15" ht="14.25" customHeight="1">
+    <row r="331" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="10" t="s">
         <v>330</v>
       </c>
@@ -16020,7 +16024,7 @@
       </c>
       <c r="O331" s="2"/>
     </row>
-    <row r="332" spans="1:15" ht="14.25" customHeight="1">
+    <row r="332" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="10" t="s">
         <v>330</v>
       </c>
@@ -16061,7 +16065,7 @@
       </c>
       <c r="O332" s="2"/>
     </row>
-    <row r="333" spans="1:15" ht="14.25" customHeight="1">
+    <row r="333" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="10" t="s">
         <v>330</v>
       </c>
@@ -16102,7 +16106,7 @@
       </c>
       <c r="O333" s="2"/>
     </row>
-    <row r="334" spans="1:15" ht="14.25" customHeight="1">
+    <row r="334" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="10" t="s">
         <v>330</v>
       </c>
@@ -16143,7 +16147,7 @@
       </c>
       <c r="O334" s="2"/>
     </row>
-    <row r="335" spans="1:15" ht="14.25" customHeight="1">
+    <row r="335" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="10" t="s">
         <v>330</v>
       </c>
@@ -16184,7 +16188,7 @@
       </c>
       <c r="O335" s="2"/>
     </row>
-    <row r="336" spans="1:15" ht="14.25" customHeight="1">
+    <row r="336" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="10" t="s">
         <v>330</v>
       </c>
@@ -16225,7 +16229,7 @@
       </c>
       <c r="O336" s="2"/>
     </row>
-    <row r="337" spans="1:15" ht="14.25" customHeight="1">
+    <row r="337" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="10" t="s">
         <v>330</v>
       </c>
@@ -16266,7 +16270,7 @@
       </c>
       <c r="O337" s="2"/>
     </row>
-    <row r="338" spans="1:15" ht="14.25" customHeight="1">
+    <row r="338" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="10" t="s">
         <v>330</v>
       </c>
@@ -16307,7 +16311,7 @@
       </c>
       <c r="O338" s="2"/>
     </row>
-    <row r="339" spans="1:15" ht="14.25" customHeight="1">
+    <row r="339" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="10" t="s">
         <v>330</v>
       </c>
@@ -16348,7 +16352,7 @@
       </c>
       <c r="O339" s="2"/>
     </row>
-    <row r="340" spans="1:15" ht="14.25" customHeight="1">
+    <row r="340" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="10" t="s">
         <v>330</v>
       </c>
@@ -16389,7 +16393,7 @@
       </c>
       <c r="O340" s="2"/>
     </row>
-    <row r="341" spans="1:15" ht="14.25" customHeight="1">
+    <row r="341" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="10" t="s">
         <v>358</v>
       </c>
@@ -16428,7 +16432,7 @@
       </c>
       <c r="O341" s="2"/>
     </row>
-    <row r="342" spans="1:15" ht="14.25" customHeight="1">
+    <row r="342" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="10" t="s">
         <v>358</v>
       </c>
@@ -16467,7 +16471,7 @@
       </c>
       <c r="O342" s="2"/>
     </row>
-    <row r="343" spans="1:15" ht="14.25" customHeight="1">
+    <row r="343" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="10" t="s">
         <v>365</v>
       </c>
@@ -16506,7 +16510,7 @@
       </c>
       <c r="O343" s="2"/>
     </row>
-    <row r="344" spans="1:15" ht="14.25" customHeight="1">
+    <row r="344" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="10" t="s">
         <v>358</v>
       </c>
@@ -16545,7 +16549,7 @@
       </c>
       <c r="O344" s="2"/>
     </row>
-    <row r="345" spans="1:15" ht="14.25" customHeight="1">
+    <row r="345" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="10" t="s">
         <v>358</v>
       </c>
@@ -16584,7 +16588,7 @@
       </c>
       <c r="O345" s="2"/>
     </row>
-    <row r="346" spans="1:15" ht="14.25" customHeight="1">
+    <row r="346" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="10" t="s">
         <v>358</v>
       </c>
@@ -16623,7 +16627,7 @@
       </c>
       <c r="O346" s="2"/>
     </row>
-    <row r="347" spans="1:15" ht="14.25" customHeight="1">
+    <row r="347" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="10" t="s">
         <v>376</v>
       </c>
@@ -16664,7 +16668,7 @@
       </c>
       <c r="O347" s="2"/>
     </row>
-    <row r="348" spans="1:15" ht="14.25" customHeight="1">
+    <row r="348" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="10" t="s">
         <v>376</v>
       </c>
@@ -16701,7 +16705,7 @@
       </c>
       <c r="O348" s="2"/>
     </row>
-    <row r="349" spans="1:15" ht="14.25" customHeight="1">
+    <row r="349" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="10" t="s">
         <v>382</v>
       </c>
@@ -16740,7 +16744,7 @@
       </c>
       <c r="O349" s="2"/>
     </row>
-    <row r="350" spans="1:15" ht="14.25" customHeight="1">
+    <row r="350" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="10" t="s">
         <v>382</v>
       </c>
@@ -16777,723 +16781,723 @@
       </c>
       <c r="O350" s="2"/>
     </row>
-    <row r="351" spans="1:15" ht="14.25" customHeight="1">
+    <row r="351" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3"/>
       <c r="O351" s="2"/>
     </row>
-    <row r="352" spans="1:15" ht="14.25" customHeight="1">
+    <row r="352" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3"/>
       <c r="O352" s="2"/>
     </row>
-    <row r="353" spans="1:15" ht="14.25" customHeight="1">
+    <row r="353" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2"/>
       <c r="O353" s="2"/>
     </row>
-    <row r="354" spans="1:15" ht="14.25" customHeight="1">
+    <row r="354" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O354" s="2"/>
     </row>
-    <row r="355" spans="1:15" ht="14.25" customHeight="1">
+    <row r="355" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O355" s="2"/>
     </row>
-    <row r="356" spans="1:15" ht="14.25" customHeight="1">
+    <row r="356" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O356" s="2"/>
     </row>
-    <row r="357" spans="1:15" ht="14.25" customHeight="1">
+    <row r="357" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O357" s="2"/>
     </row>
-    <row r="358" spans="1:15" ht="14.25" customHeight="1">
+    <row r="358" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O358" s="2"/>
     </row>
-    <row r="359" spans="1:15" ht="14.25" customHeight="1">
+    <row r="359" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O359" s="2"/>
     </row>
-    <row r="360" spans="1:15" ht="14.25" customHeight="1">
+    <row r="360" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O360" s="2"/>
     </row>
-    <row r="361" spans="1:15" ht="14.25" customHeight="1">
+    <row r="361" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O361" s="2"/>
     </row>
-    <row r="362" spans="1:15" ht="14.25" customHeight="1">
+    <row r="362" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O362" s="2"/>
     </row>
-    <row r="363" spans="1:15" ht="14.25" customHeight="1">
+    <row r="363" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O363" s="2"/>
     </row>
-    <row r="364" spans="1:15" ht="14.25" customHeight="1">
+    <row r="364" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O364" s="2"/>
     </row>
-    <row r="365" spans="1:15" ht="14.25" customHeight="1">
+    <row r="365" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O365" s="2"/>
     </row>
-    <row r="366" spans="1:15" ht="14.25" customHeight="1">
+    <row r="366" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O366" s="2"/>
     </row>
-    <row r="367" spans="1:15" ht="14.25" customHeight="1">
+    <row r="367" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O367" s="2"/>
     </row>
-    <row r="368" spans="1:15" ht="14.25" customHeight="1">
+    <row r="368" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O368" s="2"/>
     </row>
-    <row r="369" spans="1:15" ht="14.25" customHeight="1">
+    <row r="369" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O369" s="2"/>
     </row>
-    <row r="370" spans="1:15" ht="14.25" customHeight="1">
+    <row r="370" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O370" s="2"/>
     </row>
-    <row r="371" spans="1:15" ht="14.25" customHeight="1">
+    <row r="371" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O371" s="2"/>
     </row>
-    <row r="372" spans="1:15" ht="14.25" customHeight="1">
+    <row r="372" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O372" s="2"/>
     </row>
-    <row r="373" spans="1:15" ht="14.25" customHeight="1">
+    <row r="373" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O373" s="2"/>
     </row>
-    <row r="374" spans="1:15" ht="14.25" customHeight="1">
+    <row r="374" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O374" s="2"/>
     </row>
-    <row r="375" spans="1:15" ht="14.25" customHeight="1">
+    <row r="375" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O375" s="2"/>
     </row>
-    <row r="376" spans="1:15" ht="14.25" customHeight="1">
+    <row r="376" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O376" s="2"/>
     </row>
-    <row r="377" spans="1:15" ht="14.25" customHeight="1">
+    <row r="377" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O377" s="2"/>
     </row>
-    <row r="378" spans="1:15" ht="14.25" customHeight="1"/>
-    <row r="379" spans="1:15" ht="14.25" customHeight="1"/>
-    <row r="380" spans="1:15" ht="14.25" customHeight="1"/>
-    <row r="381" spans="1:15" ht="14.25" customHeight="1">
+    <row r="378" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2"/>
     </row>
-    <row r="382" spans="1:15" ht="14.25" customHeight="1">
+    <row r="382" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2"/>
     </row>
-    <row r="383" spans="1:15" ht="14.25" customHeight="1">
+    <row r="383" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2"/>
     </row>
-    <row r="384" spans="1:15" ht="14.25" customHeight="1">
+    <row r="384" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="9"/>
     </row>
-    <row r="385" spans="1:1" ht="14.25" customHeight="1">
+    <row r="385" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="9"/>
     </row>
-    <row r="386" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="387" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="388" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="389" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="390" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="391" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="392" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="393" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="394" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="395" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="396" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="397" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="398" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="399" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="400" spans="1:1" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="386" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/public/archivos/HorariosCompletos.xlsx
+++ b/public/archivos/HorariosCompletos.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4049" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4049" uniqueCount="388">
   <si>
     <t>materia</t>
   </si>
@@ -524,9 +524,6 @@
   </si>
   <si>
     <t>GALVAN LOPEZ LUCIA ROSANA</t>
-  </si>
-  <si>
-    <t>LMamIJ</t>
   </si>
   <si>
     <t>VILLEGAS ROBLEDO ZOILA LETICIA</t>
@@ -1522,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="E244" sqref="E244"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="G251" sqref="G251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12624,7 +12621,7 @@
         <v>132</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="G249" s="4" t="s">
         <v>132</v>
@@ -12654,7 +12651,7 @@
         <v>9</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>16</v>
@@ -12663,7 +12660,7 @@
         <v>132</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="G250" s="4" t="s">
         <v>132</v>
@@ -12693,7 +12690,7 @@
         <v>9</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>16</v>
@@ -12702,7 +12699,7 @@
         <v>153</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="G251" s="4" t="s">
         <v>153</v>
@@ -12732,7 +12729,7 @@
         <v>9</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>16</v>
@@ -12741,7 +12738,7 @@
         <v>136</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="G252" s="4" t="s">
         <v>136</v>
@@ -12771,7 +12768,7 @@
         <v>9</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>16</v>
@@ -12780,7 +12777,7 @@
         <v>136</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G253" s="4"/>
       <c r="H253" s="4" t="s">
@@ -12810,7 +12807,7 @@
         <v>9</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>16</v>
@@ -12819,7 +12816,7 @@
         <v>143</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G254" s="4"/>
       <c r="H254" s="4" t="s">
@@ -12849,7 +12846,7 @@
         <v>9</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>16</v>
@@ -12858,7 +12855,7 @@
         <v>161</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G255" s="4"/>
       <c r="H255" s="4" t="s">
@@ -12888,7 +12885,7 @@
         <v>9</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>16</v>
@@ -12927,7 +12924,7 @@
         <v>9</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>16</v>
@@ -12966,7 +12963,7 @@
         <v>9</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>16</v>
@@ -13005,7 +13002,7 @@
         <v>9</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>16</v>
@@ -13017,7 +13014,7 @@
         <v>137</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H259" s="4" t="s">
         <v>143</v>
@@ -13046,7 +13043,7 @@
         <v>9</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>16</v>
@@ -13058,7 +13055,7 @@
         <v>137</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H260" s="4" t="s">
         <v>143</v>
@@ -13087,31 +13084,31 @@
         <v>9</v>
       </c>
       <c r="C261" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E261" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E261" s="8" t="s">
-        <v>177</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J261" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K261" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L261" s="5"/>
       <c r="M261" s="5"/>
@@ -13122,13 +13119,13 @@
     </row>
     <row r="262" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B262" s="4">
         <v>9</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>16</v>
@@ -13140,7 +13137,7 @@
         <v>137</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H262" s="4" t="s">
         <v>153</v>
@@ -13165,13 +13162,13 @@
     </row>
     <row r="263" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B263" s="4">
         <v>9</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>16</v>
@@ -13183,7 +13180,7 @@
         <v>137</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H263" s="4" t="s">
         <v>136</v>
@@ -13208,13 +13205,13 @@
     </row>
     <row r="264" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B264" s="4">
         <v>9</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>16</v>
@@ -13226,7 +13223,7 @@
         <v>137</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H264" s="4" t="s">
         <v>143</v>
@@ -13251,13 +13248,13 @@
     </row>
     <row r="265" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B265" s="4">
         <v>9</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>16</v>
@@ -13269,7 +13266,7 @@
         <v>137</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H265" s="4" t="s">
         <v>161</v>
@@ -13294,40 +13291,40 @@
     </row>
     <row r="266" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B266" s="4">
         <v>9</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E266" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G266" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H266" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J266" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K266" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L266" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M266" s="5"/>
       <c r="N266" s="4" t="s">
@@ -13337,40 +13334,40 @@
     </row>
     <row r="267" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B267" s="4">
         <v>9</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G267" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H267" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J267" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K267" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L267" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M267" s="5"/>
       <c r="N267" s="4" t="s">
@@ -13380,40 +13377,40 @@
     </row>
     <row r="268" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B268" s="4">
         <v>9</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J268" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K268" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L268" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M268" s="5"/>
       <c r="N268" s="4" t="s">
@@ -13423,40 +13420,40 @@
     </row>
     <row r="269" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B269" s="4">
         <v>9</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E269" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G269" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H269" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J269" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K269" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L269" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M269" s="5"/>
       <c r="N269" s="4" t="s">
@@ -13466,40 +13463,40 @@
     </row>
     <row r="270" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B270" s="4">
         <v>9</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E270" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G270" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H270" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J270" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K270" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L270" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M270" s="5"/>
       <c r="N270" s="4" t="s">
@@ -13509,13 +13506,13 @@
     </row>
     <row r="271" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B271" s="4">
         <v>9</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>16</v>
@@ -13527,7 +13524,7 @@
         <v>137</v>
       </c>
       <c r="G271" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H271" s="4" t="s">
         <v>161</v>
@@ -13552,13 +13549,13 @@
     </row>
     <row r="272" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B272" s="4">
         <v>9</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>16</v>
@@ -13570,7 +13567,7 @@
         <v>137</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H272" s="4" t="s">
         <v>136</v>
@@ -13595,40 +13592,40 @@
     </row>
     <row r="273" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B273" s="4">
         <v>9</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H273" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J273" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K273" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L273" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M273" s="5"/>
       <c r="N273" s="4" t="s">
@@ -13638,40 +13635,40 @@
     </row>
     <row r="274" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B274" s="4">
         <v>9</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E274" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G274" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H274" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J274" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K274" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L274" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M274" s="5"/>
       <c r="N274" s="4" t="s">
@@ -13681,13 +13678,13 @@
     </row>
     <row r="275" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B275" s="4">
         <v>9</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>16</v>
@@ -13699,7 +13696,7 @@
         <v>137</v>
       </c>
       <c r="G275" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H275" s="4" t="s">
         <v>143</v>
@@ -13724,13 +13721,13 @@
     </row>
     <row r="276" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B276" s="4">
         <v>9</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>16</v>
@@ -13742,7 +13739,7 @@
         <v>137</v>
       </c>
       <c r="G276" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H276" s="4" t="s">
         <v>132</v>
@@ -13767,13 +13764,13 @@
     </row>
     <row r="277" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B277" s="4">
         <v>9</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>16</v>
@@ -13785,7 +13782,7 @@
         <v>137</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H277" s="4" t="s">
         <v>136</v>
@@ -13810,13 +13807,13 @@
     </row>
     <row r="278" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B278" s="4">
         <v>9</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>16</v>
@@ -13828,7 +13825,7 @@
         <v>137</v>
       </c>
       <c r="G278" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H278" s="4" t="s">
         <v>153</v>
@@ -13853,13 +13850,13 @@
     </row>
     <row r="279" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B279" s="4">
         <v>9</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>16</v>
@@ -13871,7 +13868,7 @@
         <v>137</v>
       </c>
       <c r="G279" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H279" s="4" t="s">
         <v>150</v>
@@ -13896,13 +13893,13 @@
     </row>
     <row r="280" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B280" s="4">
         <v>9</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>16</v>
@@ -13914,7 +13911,7 @@
         <v>137</v>
       </c>
       <c r="G280" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H280" s="4" t="s">
         <v>143</v>
@@ -13939,13 +13936,13 @@
     </row>
     <row r="281" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B281" s="4">
         <v>9</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>16</v>
@@ -13957,7 +13954,7 @@
         <v>137</v>
       </c>
       <c r="G281" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H281" s="4" t="s">
         <v>150</v>
@@ -13982,13 +13979,13 @@
     </row>
     <row r="282" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B282" s="4">
         <v>9</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>16</v>
@@ -14000,7 +13997,7 @@
         <v>137</v>
       </c>
       <c r="G282" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H282" s="4" t="s">
         <v>132</v>
@@ -14025,13 +14022,13 @@
     </row>
     <row r="283" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B283" s="4">
         <v>9</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>16</v>
@@ -14043,7 +14040,7 @@
         <v>137</v>
       </c>
       <c r="G283" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H283" s="4" t="s">
         <v>143</v>
@@ -14068,13 +14065,13 @@
     </row>
     <row r="284" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B284" s="4">
         <v>9</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>16</v>
@@ -14086,7 +14083,7 @@
         <v>137</v>
       </c>
       <c r="G284" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H284" s="4" t="s">
         <v>136</v>
@@ -14111,13 +14108,13 @@
     </row>
     <row r="285" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B285" s="4">
         <v>9</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>16</v>
@@ -14129,7 +14126,7 @@
         <v>137</v>
       </c>
       <c r="G285" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H285" s="4" t="s">
         <v>132</v>
@@ -14154,13 +14151,13 @@
     </row>
     <row r="286" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B286" s="4">
         <v>9</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>16</v>
@@ -14172,7 +14169,7 @@
         <v>137</v>
       </c>
       <c r="G286" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H286" s="4" t="s">
         <v>153</v>
@@ -14197,40 +14194,40 @@
     </row>
     <row r="287" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B287" s="4">
         <v>9</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E287" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G287" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H287" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I287" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J287" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K287" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L287" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M287" s="5"/>
       <c r="N287" s="4" t="s">
@@ -14240,40 +14237,40 @@
     </row>
     <row r="288" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B288" s="4">
         <v>9</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E288" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G288" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H288" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J288" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K288" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L288" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M288" s="5"/>
       <c r="N288" s="4" t="s">
@@ -14283,13 +14280,13 @@
     </row>
     <row r="289" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B289" s="4">
         <v>9</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>16</v>
@@ -14301,7 +14298,7 @@
         <v>137</v>
       </c>
       <c r="G289" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H289" s="4" t="s">
         <v>150</v>
@@ -14326,40 +14323,40 @@
     </row>
     <row r="290" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B290" s="4">
         <v>9</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E290" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G290" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H290" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I290" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J290" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K290" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L290" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M290" s="5"/>
       <c r="N290" s="4" t="s">
@@ -14369,13 +14366,13 @@
     </row>
     <row r="291" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B291" s="4">
         <v>9</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>16</v>
@@ -14387,7 +14384,7 @@
         <v>137</v>
       </c>
       <c r="G291" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H291" s="4" t="s">
         <v>161</v>
@@ -14412,13 +14409,13 @@
     </row>
     <row r="292" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B292" s="4">
         <v>9</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>16</v>
@@ -14430,7 +14427,7 @@
         <v>137</v>
       </c>
       <c r="G292" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H292" s="4" t="s">
         <v>150</v>
@@ -14453,38 +14450,38 @@
     </row>
     <row r="293" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B293" s="4">
         <v>9</v>
       </c>
       <c r="C293" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E293" s="8" t="s">
         <v>225</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E293" s="8" t="s">
-        <v>226</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G293" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I293" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J293" s="8"/>
       <c r="K293" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L293" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M293" s="5"/>
       <c r="N293" s="4" t="s">
@@ -14494,38 +14491,38 @@
     </row>
     <row r="294" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B294" s="4">
         <v>9</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E294" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G294" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H294" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I294" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J294" s="8"/>
       <c r="K294" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L294" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M294" s="5"/>
       <c r="N294" s="4" t="s">
@@ -14535,38 +14532,38 @@
     </row>
     <row r="295" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B295" s="4">
         <v>9</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E295" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G295" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H295" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J295" s="8"/>
       <c r="K295" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L295" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M295" s="5"/>
       <c r="N295" s="4" t="s">
@@ -14576,13 +14573,13 @@
     </row>
     <row r="296" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B296" s="4">
         <v>9</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>16</v>
@@ -14594,7 +14591,7 @@
         <v>137</v>
       </c>
       <c r="G296" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H296" s="4" t="s">
         <v>161</v>
@@ -14617,13 +14614,13 @@
     </row>
     <row r="297" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B297" s="4">
         <v>9</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>16</v>
@@ -14635,7 +14632,7 @@
         <v>137</v>
       </c>
       <c r="G297" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H297" s="4" t="s">
         <v>132</v>
@@ -14658,13 +14655,13 @@
     </row>
     <row r="298" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B298" s="4">
         <v>9</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>16</v>
@@ -14676,7 +14673,7 @@
         <v>137</v>
       </c>
       <c r="G298" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H298" s="4" t="s">
         <v>150</v>
@@ -14699,13 +14696,13 @@
     </row>
     <row r="299" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B299" s="4">
         <v>9</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>16</v>
@@ -14717,7 +14714,7 @@
         <v>137</v>
       </c>
       <c r="G299" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H299" s="4" t="s">
         <v>153</v>
@@ -14740,38 +14737,38 @@
     </row>
     <row r="300" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B300" s="4">
         <v>9</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E300" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G300" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H300" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I300" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J300" s="8"/>
       <c r="K300" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L300" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M300" s="5"/>
       <c r="N300" s="4" t="s">
@@ -14781,38 +14778,38 @@
     </row>
     <row r="301" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B301" s="4">
         <v>9</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E301" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G301" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H301" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I301" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J301" s="8"/>
       <c r="K301" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L301" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M301" s="5"/>
       <c r="N301" s="4" t="s">
@@ -14822,13 +14819,13 @@
     </row>
     <row r="302" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B302" s="4">
         <v>9</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>16</v>
@@ -14840,7 +14837,7 @@
         <v>137</v>
       </c>
       <c r="G302" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H302" s="4" t="s">
         <v>132</v>
@@ -14863,38 +14860,38 @@
     </row>
     <row r="303" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B303" s="4">
         <v>9</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E303" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G303" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H303" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I303" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J303" s="8"/>
       <c r="K303" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L303" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M303" s="5"/>
       <c r="N303" s="4" t="s">
@@ -14904,13 +14901,13 @@
     </row>
     <row r="304" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B304" s="4">
         <v>9</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>16</v>
@@ -14922,7 +14919,7 @@
         <v>137</v>
       </c>
       <c r="G304" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H304" s="4" t="s">
         <v>143</v>
@@ -14945,13 +14942,13 @@
     </row>
     <row r="305" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B305" s="4">
         <v>9</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>16</v>
@@ -14963,7 +14960,7 @@
         <v>137</v>
       </c>
       <c r="G305" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H305" s="4" t="s">
         <v>150</v>
@@ -14984,36 +14981,36 @@
     </row>
     <row r="306" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B306" s="4">
         <v>9</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E306" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G306" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H306" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I306" s="2"/>
       <c r="J306" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K306" s="2"/>
       <c r="L306" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M306" s="5"/>
       <c r="N306" s="4" t="s">
@@ -15023,25 +15020,25 @@
     </row>
     <row r="307" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B307" s="4">
         <v>9</v>
       </c>
       <c r="C307" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E307" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E307" s="8" t="s">
-        <v>254</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G307" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H307" s="4" t="s">
         <v>150</v>
@@ -15066,25 +15063,25 @@
     </row>
     <row r="308" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B308" s="4">
         <v>9</v>
       </c>
       <c r="C308" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E308" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E308" s="8" t="s">
-        <v>258</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G308" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H308" s="4"/>
       <c r="I308" s="2" t="s">
@@ -15113,13 +15110,13 @@
         <v>16</v>
       </c>
       <c r="E309" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G309" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H309" s="4" t="s">
         <v>136</v>
@@ -15144,7 +15141,7 @@
     </row>
     <row r="310" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B310" s="4">
         <v>9</v>
@@ -15156,13 +15153,13 @@
         <v>16</v>
       </c>
       <c r="E310" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G310" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H310" s="4" t="s">
         <v>143</v>
@@ -15187,25 +15184,25 @@
     </row>
     <row r="311" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B311" s="4">
         <v>9</v>
       </c>
       <c r="C311" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E311" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E311" s="8" t="s">
-        <v>267</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G311" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H311" s="4" t="s">
         <v>143</v>
@@ -15230,25 +15227,25 @@
     </row>
     <row r="312" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B312" s="4">
         <v>9</v>
       </c>
       <c r="C312" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E312" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E312" s="8" t="s">
-        <v>270</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G312" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H312" s="4" t="s">
         <v>150</v>
@@ -15273,25 +15270,25 @@
     </row>
     <row r="313" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B313" s="4">
         <v>9</v>
       </c>
       <c r="C313" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E313" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E313" s="8" t="s">
-        <v>274</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G313" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H313" s="4" t="s">
         <v>150</v>
@@ -15316,40 +15313,40 @@
     </row>
     <row r="314" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B314" s="4">
         <v>9</v>
       </c>
       <c r="C314" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E314" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E314" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G314" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H314" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I314" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J314" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K314" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L314" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M314" s="5"/>
       <c r="N314" s="4" t="s">
@@ -15359,25 +15356,25 @@
     </row>
     <row r="315" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B315" s="4">
         <v>9</v>
       </c>
       <c r="C315" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E315" s="8" t="s">
         <v>281</v>
-      </c>
-      <c r="D315" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E315" s="8" t="s">
-        <v>282</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G315" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H315" s="4" t="s">
         <v>132</v>
@@ -15402,33 +15399,33 @@
     </row>
     <row r="316" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B316" s="4">
         <v>9</v>
       </c>
       <c r="C316" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E316" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E316" s="8" t="s">
-        <v>286</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G316" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H316" s="4"/>
       <c r="I316" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J316" s="8"/>
       <c r="K316" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L316" s="5"/>
       <c r="M316" s="5"/>
@@ -15439,25 +15436,25 @@
     </row>
     <row r="317" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B317" s="4">
         <v>9</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E317" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G317" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H317" s="4"/>
       <c r="I317" s="2"/>
@@ -15474,25 +15471,25 @@
     </row>
     <row r="318" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B318" s="4">
         <v>9</v>
       </c>
       <c r="C318" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E318" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E318" s="8" t="s">
-        <v>293</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G318" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H318" s="4" t="s">
         <v>161</v>
@@ -15517,40 +15514,40 @@
     </row>
     <row r="319" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B319" s="4">
         <v>9</v>
       </c>
       <c r="C319" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E319" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="D319" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E319" s="8" t="s">
-        <v>296</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G319" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H319" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I319" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J319" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K319" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L319" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M319" s="5"/>
       <c r="N319" s="4" t="s">
@@ -15560,25 +15557,25 @@
     </row>
     <row r="320" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B320" s="4">
         <v>9</v>
       </c>
       <c r="C320" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E320" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="D320" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E320" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G320" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H320" s="4" t="s">
         <v>136</v>
@@ -15595,25 +15592,25 @@
     </row>
     <row r="321" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B321" s="4">
         <v>9</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E321" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G321" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H321" s="4"/>
       <c r="I321" s="2" t="s">
@@ -15634,25 +15631,25 @@
     </row>
     <row r="322" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B322" s="4">
         <v>9</v>
       </c>
       <c r="C322" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E322" s="8" t="s">
         <v>305</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E322" s="8" t="s">
-        <v>306</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G322" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H322" s="4" t="s">
         <v>150</v>
@@ -15677,28 +15674,28 @@
     </row>
     <row r="323" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B323" s="4">
         <v>9</v>
       </c>
       <c r="C323" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E323" s="8" t="s">
         <v>308</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E323" s="8" t="s">
-        <v>309</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G323" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H323" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I323" s="2"/>
       <c r="J323" s="8"/>
@@ -15712,38 +15709,38 @@
     </row>
     <row r="324" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B324" s="4">
         <v>9</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E324" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G324" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H324" s="4"/>
       <c r="I324" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J324" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K324" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L324" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M324" s="5"/>
       <c r="N324" s="4" t="s">
@@ -15753,28 +15750,28 @@
     </row>
     <row r="325" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B325" s="4">
         <v>9</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E325" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G325" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H325" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I325" s="2"/>
       <c r="J325" s="8"/>
@@ -15788,38 +15785,38 @@
     </row>
     <row r="326" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B326" s="4">
         <v>9</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E326" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G326" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H326" s="4"/>
       <c r="I326" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J326" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K326" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L326" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M326" s="5"/>
       <c r="N326" s="4" t="s">
@@ -15829,25 +15826,25 @@
     </row>
     <row r="327" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B327" s="4">
         <v>9</v>
       </c>
       <c r="C327" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E327" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="D327" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E327" s="8" t="s">
-        <v>319</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G327" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H327" s="4" t="s">
         <v>143</v>
@@ -15868,36 +15865,36 @@
     </row>
     <row r="328" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B328" s="4">
         <v>9</v>
       </c>
       <c r="C328" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E328" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E328" s="8" t="s">
-        <v>322</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G328" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H328" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I328" s="2"/>
       <c r="J328" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K328" s="2"/>
       <c r="L328" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M328" s="5"/>
       <c r="N328" s="4" t="s">
@@ -15907,25 +15904,25 @@
     </row>
     <row r="329" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B329" s="4">
         <v>9</v>
       </c>
       <c r="C329" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E329" s="8" t="s">
         <v>325</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E329" s="8" t="s">
-        <v>326</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G329" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H329" s="4" t="s">
         <v>132</v>
@@ -15946,25 +15943,25 @@
     </row>
     <row r="330" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B330" s="4">
         <v>9</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E330" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G330" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H330" s="4" t="s">
         <v>153</v>
@@ -15985,25 +15982,25 @@
     </row>
     <row r="331" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331" s="4">
         <v>9</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E331" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G331" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H331" s="4" t="s">
         <v>153</v>
@@ -16026,25 +16023,25 @@
     </row>
     <row r="332" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B332" s="4">
         <v>9</v>
       </c>
       <c r="C332" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E332" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E332" s="8" t="s">
-        <v>334</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G332" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H332" s="4" t="s">
         <v>136</v>
@@ -16067,37 +16064,37 @@
     </row>
     <row r="333" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B333" s="4">
         <v>9</v>
       </c>
       <c r="C333" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E333" s="8" t="s">
         <v>336</v>
-      </c>
-      <c r="D333" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E333" s="8" t="s">
-        <v>337</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G333" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H333" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J333" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K333" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L333" s="5"/>
       <c r="M333" s="5"/>
@@ -16108,25 +16105,25 @@
     </row>
     <row r="334" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B334" s="4">
         <v>9</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E334" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G334" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H334" s="4" t="s">
         <v>136</v>
@@ -16149,25 +16146,25 @@
     </row>
     <row r="335" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B335" s="4">
         <v>9</v>
       </c>
       <c r="C335" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E335" s="8" t="s">
         <v>341</v>
-      </c>
-      <c r="D335" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E335" s="8" t="s">
-        <v>342</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G335" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H335" s="4" t="s">
         <v>132</v>
@@ -16190,25 +16187,25 @@
     </row>
     <row r="336" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B336" s="4">
         <v>9</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E336" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G336" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H336" s="4" t="s">
         <v>150</v>
@@ -16231,37 +16228,37 @@
     </row>
     <row r="337" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B337" s="4">
         <v>9</v>
       </c>
       <c r="C337" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E337" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="D337" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E337" s="8" t="s">
-        <v>347</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G337" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H337" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J337" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K337" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L337" s="5"/>
       <c r="M337" s="5"/>
@@ -16272,25 +16269,25 @@
     </row>
     <row r="338" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B338" s="4">
         <v>9</v>
       </c>
       <c r="C338" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E338" s="8" t="s">
         <v>349</v>
-      </c>
-      <c r="D338" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E338" s="8" t="s">
-        <v>350</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G338" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H338" s="4" t="s">
         <v>143</v>
@@ -16313,37 +16310,37 @@
     </row>
     <row r="339" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B339" s="4">
         <v>9</v>
       </c>
       <c r="C339" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E339" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="D339" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E339" s="8" t="s">
-        <v>353</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G339" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H339" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I339" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J339" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K339" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L339" s="5"/>
       <c r="M339" s="5"/>
@@ -16354,25 +16351,25 @@
     </row>
     <row r="340" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B340" s="4">
         <v>9</v>
       </c>
       <c r="C340" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E340" s="8" t="s">
         <v>355</v>
-      </c>
-      <c r="D340" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E340" s="8" t="s">
-        <v>356</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G340" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H340" s="4" t="s">
         <v>132</v>
@@ -16395,25 +16392,25 @@
     </row>
     <row r="341" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B341" s="4">
         <v>9</v>
       </c>
       <c r="C341" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E341" s="8" t="s">
         <v>359</v>
-      </c>
-      <c r="D341" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E341" s="8" t="s">
-        <v>360</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G341" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H341" s="4" t="s">
         <v>150</v>
@@ -16434,25 +16431,25 @@
     </row>
     <row r="342" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B342" s="4">
         <v>9</v>
       </c>
       <c r="C342" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E342" s="8" t="s">
         <v>362</v>
-      </c>
-      <c r="D342" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E342" s="8" t="s">
-        <v>363</v>
       </c>
       <c r="F342" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G342" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H342" s="4" t="s">
         <v>136</v>
@@ -16473,25 +16470,25 @@
     </row>
     <row r="343" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B343" s="4">
         <v>9</v>
       </c>
       <c r="C343" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E343" s="8" t="s">
         <v>366</v>
-      </c>
-      <c r="D343" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E343" s="8" t="s">
-        <v>367</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G343" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H343" s="4" t="s">
         <v>153</v>
@@ -16512,25 +16509,25 @@
     </row>
     <row r="344" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B344" s="4">
         <v>9</v>
       </c>
       <c r="C344" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E344" s="8" t="s">
         <v>369</v>
-      </c>
-      <c r="D344" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E344" s="8" t="s">
-        <v>370</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G344" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H344" s="4" t="s">
         <v>132</v>
@@ -16551,25 +16548,25 @@
     </row>
     <row r="345" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B345" s="4">
         <v>9</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E345" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G345" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H345" s="4" t="s">
         <v>150</v>
@@ -16590,25 +16587,25 @@
     </row>
     <row r="346" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B346" s="4">
         <v>9</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E346" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G346" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H346" s="4" t="s">
         <v>161</v>
@@ -16629,37 +16626,37 @@
     </row>
     <row r="347" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B347" s="4">
         <v>9</v>
       </c>
       <c r="C347" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E347" s="8" t="s">
         <v>377</v>
-      </c>
-      <c r="D347" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E347" s="8" t="s">
-        <v>378</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G347" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H347" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J347" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K347" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L347" s="5"/>
       <c r="M347" s="5"/>
@@ -16670,25 +16667,25 @@
     </row>
     <row r="348" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B348" s="4">
         <v>9</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E348" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F348" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G348" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H348" s="4"/>
       <c r="I348" s="2" t="s">
@@ -16707,25 +16704,25 @@
     </row>
     <row r="349" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B349" s="4">
         <v>9</v>
       </c>
       <c r="C349" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E349" s="8" t="s">
         <v>383</v>
-      </c>
-      <c r="D349" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E349" s="8" t="s">
-        <v>384</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G349" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H349" s="4" t="s">
         <v>161</v>
@@ -16746,33 +16743,33 @@
     </row>
     <row r="350" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B350" s="4">
         <v>9</v>
       </c>
       <c r="C350" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E350" s="8" t="s">
         <v>386</v>
-      </c>
-      <c r="D350" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E350" s="8" t="s">
-        <v>387</v>
       </c>
       <c r="F350" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G350" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H350" s="4"/>
       <c r="I350" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J350" s="8"/>
       <c r="K350" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L350" s="5"/>
       <c r="M350" s="5"/>
